--- a/학습자료/단답형/국어_복습_한자어.xlsx
+++ b/학습자료/단답형/국어_복습_한자어.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D117"/>
+  <dimension ref="A1:D125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2047,7 +2047,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>화이부동 , 「남과 사이 좋게 지내되 의(義)를 굽혀 좇지는 아니한다.」는 뜻으로, 곧, 남과 화목(和睦)하게 지내지만 자기(自己)의 중심(中心)과 원칙(原則)을 잃지 않음.</t>
+          <t>화이부동 , 「남과 사이 좋게 지내되 의(義)를 굽혀 좇지는 아니한다」는 뜻으로, 곧, 남과 화목(和睦)하게 지내지만 자기(自己)의 중심(中心)과 원칙(原則)을 잃지 않음</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2267,7 +2267,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>일사불란, 「한 오라기의 실도 흐트러지지 않았다.」는 뜻으로, 질서(秩序)나 체계(體系) 따위가 잘 잡혀 있어서 조금도 흐트러짐이 없음을 이르는 말.</t>
+          <t>일사불란, 「한 오라기의 실도 흐트러지지 않았다」는 뜻으로, 질서(秩序)나 체계(體系) 따위가 잘 잡혀 있어서 조금도 흐트러짐이 없음을 이르는 말</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -2289,7 +2289,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>곡복사신, 밥 먹고 옷 입는 일.</t>
+          <t>곡복사신, 밥 먹고 옷 입는 일</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>우이독경, 「쇠귀에 경 읽기」란 뜻으로, 우둔(愚鈍)한 사람은 아무리 가르치고 일러주어도 알아듣지 못함을 비유(比喩ㆍ譬喩)하여 이르는 말.</t>
+          <t>우이독경, 「쇠귀에 경 읽기」란 뜻으로, 우둔(愚鈍)한 사람은 아무리 가르치고 일러주어도 알아듣지 못함을 비유(比喩ㆍ譬喩)하여 이르는 말</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -2399,7 +2399,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>경국지사, 나랏일을 다스릴 만한 사람.</t>
+          <t>경국지사, 나랏일을 다스릴 만한 사람</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -2443,7 +2443,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>첩경, 지름길. 멀리 돌지 않고 가깝게 질러 통(通)하는 길.</t>
+          <t>첩경, 지름길 멀리 돌지 않고 가깝게 질러 통(通)하는 길</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -2597,11 +2597,9 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>한강투석, 「한강(漢江)에 아무리 돌을 많이 집어 넣어도 메울 수 없다.」는 뜻으로,
-1.
-아무리 도와도 보람이 없는 것.
-2.
-아무리 투자(投資)를 하거나 애를 써도 보람이 없음을 이르는 말.</t>
+          <t>한강투석, 「한강(漢江)에 아무리 돌을 많이 집어 넣어도 메울 수 없다」는 뜻으로,
+1) 아무리 도와도 보람이 없는 것
+2) 아무리 투자(投資)를 하거나 애를 써도 보람이 없음을 이르는 말</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -2667,7 +2665,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>맥수지탄, 「나무가 고요하고자 하나 바람이 그치지 않는다.」는 뜻으로, 부모(父母)에게 효도(孝道)를 다하려고 생각할 때에는 이미 돌아가셔서 그 뜻을 이룰 수 없음을 이르는 말.</t>
+          <t>맥수지탄, 「나무가 고요하고자 하나 바람이 그치지 않는다」는 뜻으로, 부모(父母)에게 효도(孝道)를 다하려고 생각할 때에는 이미 돌아가셔서 그 뜻을 이룰 수 없음을 이르는 말</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -2689,7 +2687,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>풍수지탄, 「나무가 고요하고자 하나 바람이 그치지 않는다.」는 뜻으로, 부모(父母)에게 효도(孝道)를 다하려고 생각할 때에는 이미 돌아가셔서 그 뜻을 이룰 수 없음을 이르는 말.</t>
+          <t>풍수지탄, 「나무가 고요하고자 하나 바람이 그치지 않는다」는 뜻으로, 부모(父母)에게 효도(孝道)를 다하려고 생각할 때에는 이미 돌아가셔서 그 뜻을 이룰 수 없음을 이르는 말</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -2711,11 +2709,9 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>망양지탄, 「달아난 양(羊)을 찾다가 여러 갈래 길에 이르러 길을 잃었다.」는 뜻으로,
-1.
-학문(學問)의 길이 여러 갈래로 나뉘어져 있어 진리(眞理)를 찾기 어려움.
-2.
-방침(方針)이 많아 할 바를 모르게 됨.</t>
+          <t>망양지탄, 「달아난 양(羊)을 찾다가 여러 갈래 길에 이르러 길을 잃었다」는 뜻으로,
+1) 학문(學問)의 길이 여러 갈래로 나뉘어져 있어 진리(眞理)를 찾기 어려움
+2) 방침(方針)이 많아 할 바를 모르게 됨</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -2738,12 +2734,9 @@
       <c r="B105" t="inlineStr">
         <is>
           <t>망양지탄, 
-1.
-「넓은 바다를 보고 탄식(歎息)한다.」는 뜻으로,
-2.
-남의 원대(遠大)함에 감탄(感歎ㆍ感嘆)하고, 나의 미흡(未洽)함을 부끄러워함의 비유(比喩ㆍ譬喩).
-3.
-제힘이 미치지 못할 때 하는 탄식(歎息).</t>
+1) 「넓은 바다를 보고 탄식(歎息)한다」는 뜻으로,
+2) 남의 원대(遠大)함에 감탄(感歎ㆍ感嘆)하고, 나의 미흡(未洽)함을 부끄러워함의 비유(比喩ㆍ譬喩)
+3) 제힘이 미치지 못할 때 하는 탄식(歎息)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -2765,7 +2758,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>만시지탄, 「때늦은 한탄(恨歎)」이라는 뜻으로, 「시기(時期)가 늦어 기회(機會)를 놓친 것이 원통(寃痛)해서 탄식(歎息)함.」을 이르는 말.</t>
+          <t>만시지탄, 「때늦은 한탄(恨歎)」이라는 뜻으로, 「시기(時期)가 늦어 기회(機會)를 놓친 것이 원통(寃痛)해서 탄식(歎息)함」을 이르는 말</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -2788,12 +2781,9 @@
       <c r="B107" t="inlineStr">
         <is>
           <t>비육지탄, 
-1.
-「넓적다리에 살이 붙음을 탄식(歎息)한다.」는 뜻으로,
-2.
-자기(自己)의 뜻을 펴지 못하고 허송세월(歲月)하는 것을 한탄(恨歎)하다 성공(成功)할 기회(機會)를 잃고 공연(...
-3.
-영웅(英雄)이 때를 만나지 못하여 싸움에 나가지 못하고 넓적다리에 헛된 살만 쩌 가는 것을 한탄(恨歎)한다</t>
+1) 「넓적다리에 살이 붙음을 탄식(歎息)한다」는 뜻으로,
+2) 자기(自己)의 뜻을 펴지 못하고 허송세월(歲月)하는 것을 한탄(恨歎)하다 성공(成功)할 기회(機會)를 잃고 공연(
+3) 영웅(英雄)이 때를 만나지 못하여 싸움에 나가지 못하고 넓적다리에 헛된 살만 쩌 가는 것을 한탄(恨歎)한다</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -2815,7 +2805,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>절치부심, 「이를 갈고 마음을 썩이다.」는 뜻으로, 대단히 분(憤)하게 여기고 마음을 썩임.</t>
+          <t>절치부심, 「이를 갈고 마음을 썩이다」는 뜻으로, 대단히 분(憤)하게 여기고 마음을 썩임</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -2837,7 +2827,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>사필귀정, 처음에는 시비곡직(是非曲直)을 가리지 못하여 그릇되더라도 모든 일은 결국(結局)에 가서는 반드시 정리(正理)로 돌아감.</t>
+          <t>사필귀정, 처음에는 시비곡직(是非曲直)을 가리지 못하여 그릇되더라도 모든 일은 결국(結局)에 가서는 반드시 정리(正理)로 돌아감</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -2881,7 +2871,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>벽사진경, 사귀(邪鬼)를 쫓고 경사(慶事)로운 일을 맞이함.</t>
+          <t>벽사진경, 사귀(邪鬼)를 쫓고 경사(慶事)로운 일을 맞이함</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -2903,7 +2893,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>견강부회, 이치(理致)에 맞지 않는 말을 억지로 끌어 붙여 자기(自己) 주장(主張)의 조건(條件)에 맞도록 함.</t>
+          <t>견강부회, 이치(理致)에 맞지 않는 말을 억지로 끌어 붙여 자기(自己) 주장(主張)의 조건(條件)에 맞도록 함</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -2925,7 +2915,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>은인자중, 밖으로 드러내지 아니하고 참고 감추어 몸가짐을 신중(愼重)히 함.</t>
+          <t>은인자중, 밖으로 드러내지 아니하고 참고 감추어 몸가짐을 신중(愼重)히 함</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -2947,7 +2937,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>낭중지추, 1. 「주머니 속에 있는 송곳」이란 뜻으로, 재능(才能)이 아주 빼어난 사람은 숨어 있어도 저절로 남의 눈에 드러난다는 비유적(比喩的) 의미(意味).</t>
+          <t>낭중지추, 1) 「주머니 속에 있는 송곳」이란 뜻으로, 재능(才能)이 아주 빼어난 사람은 숨어 있어도 저절로 남의 눈에 드러난다는 비유적(比喩的) 의미(意味)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -3013,7 +3003,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>추처낭중, 「주머니 속에 있는 송곳」이란 뜻으로, 재능(才能)이 아주 빼어난 사람은 숨어 있어도 저절로 남의 눈에 드러난다는 비유적(比喩的) 의미(意味).</t>
+          <t>추처낭중, 「주머니 속에 있는 송곳」이란 뜻으로, 재능(才能)이 아주 빼어난 사람은 숨어 있어도 저절로 남의 눈에 드러난다는 비유적(比喩的) 의미(意味)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -3022,6 +3012,182 @@
         </is>
       </c>
       <c r="D117" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>基盤</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>기반</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>6일차</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>創製</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>창제</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>6일차</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>具現</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>구현</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>6일차</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>有利</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>유리</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>6일차</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>強度</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>강도</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>6일차</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>統制</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>통제</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>6일차</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>行間</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>행간</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>6일차</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>端緖</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>단서</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>6일차</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
         <is>
           <t>한자어</t>
         </is>

--- a/학습자료/단답형/국어_복습_한자어.xlsx
+++ b/학습자료/단답형/국어_복습_한자어.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D125"/>
+  <dimension ref="A1:D107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -876,12 +876,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>富貴功名</t>
+          <t>遺</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>부귀공명</t>
+          <t>남길 유, 잃을 유</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -898,12 +898,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>遺</t>
+          <t>遺産</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>남길 유, 잃을 유</t>
+          <t>유산</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -920,12 +920,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>遺産</t>
+          <t>遺言</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>유산</t>
+          <t>유언</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -942,12 +942,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>遺言</t>
+          <t>遺失</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>유언</t>
+          <t>유실</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -964,12 +964,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>遺失</t>
+          <t>遺棄</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>유실</t>
+          <t>유기</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -986,12 +986,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>遺棄</t>
+          <t>投</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>유기</t>
+          <t>던질 투</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1008,12 +1008,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>投</t>
+          <t>投稿</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>던질 투</t>
+          <t>투고</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1030,12 +1030,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>投稿</t>
+          <t>投手</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>투고</t>
+          <t>투수</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1052,12 +1052,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>投手</t>
+          <t>投棄</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>투수</t>
+          <t>투기</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1074,12 +1074,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>全力投球</t>
+          <t>抛</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>전력투구</t>
+          <t>던질 포</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1096,12 +1096,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>投棄</t>
+          <t>抛棄</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>투기</t>
+          <t>포기</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1118,12 +1118,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>抛</t>
+          <t>抛物線</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>던질 포</t>
+          <t>포물선</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1140,12 +1140,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>抛棄</t>
+          <t>線</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>포기</t>
+          <t>줄 선</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1162,12 +1162,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>抛物線</t>
+          <t>路線</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>포물선</t>
+          <t>노선</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1184,12 +1184,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>線</t>
+          <t>戰線</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>줄 선</t>
+          <t>전선</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1206,12 +1206,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>路線</t>
+          <t>視線</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>노선</t>
+          <t>시선</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1228,12 +1228,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>戰線</t>
+          <t>根絶</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>전선</t>
+          <t>근절</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1250,12 +1250,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>視線</t>
+          <t>卷</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>시선</t>
+          <t>책 권</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1272,12 +1272,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>根絶</t>
+          <t>捲</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>근절</t>
+          <t>거둘 권, 힘쓸 권</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1294,12 +1294,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>兎死狗烹</t>
+          <t>干</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>토사구팽</t>
+          <t>방패 간</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1316,12 +1316,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>捲土重來</t>
+          <t>干涉</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>권토중래</t>
+          <t>간섭</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1338,12 +1338,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>手不釋卷</t>
+          <t>干與</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>수불석권</t>
+          <t>간여</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1360,12 +1360,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>我田引水</t>
+          <t>若干</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>아전인수</t>
+          <t>약간</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1382,12 +1382,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>卷</t>
+          <t>干滿</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>책 권</t>
+          <t>간만</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1404,12 +1404,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>捲</t>
+          <t>拓</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>거둘 권, 힘쓸 권</t>
+          <t>박을 탁, 넓힐 척</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1426,12 +1426,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>干</t>
+          <t>干拓</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>방패 간</t>
+          <t>간척</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1448,12 +1448,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>干涉</t>
+          <t>見</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>간섭</t>
+          <t>볼 견, 뵈올 현</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1470,12 +1470,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>干與</t>
+          <t>見習</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>간여</t>
+          <t>견습</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1492,12 +1492,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>若干</t>
+          <t>見解</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>약간</t>
+          <t>견해</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1514,12 +1514,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>干滿</t>
+          <t>見聞</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>간만</t>
+          <t>견문</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1536,12 +1536,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>拓</t>
+          <t>謁</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>박을 탁, 넓힐 척</t>
+          <t>뵐 알</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1558,12 +1558,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>干拓</t>
+          <t>謁見</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>간척</t>
+          <t>알현</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1580,12 +1580,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>見</t>
+          <t>參</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>볼 견, 뵈올 현</t>
+          <t>석 삼, 참여할 참</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1602,12 +1602,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>見習</t>
+          <t>參加</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>견습</t>
+          <t>참가</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1624,12 +1624,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>見解</t>
+          <t>席</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>견해</t>
+          <t>자리 석</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1646,12 +1646,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>見聞</t>
+          <t>參席</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>견문</t>
+          <t>참석</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1668,12 +1668,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>謁</t>
+          <t>參見</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>뵐 알</t>
+          <t>참견</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1690,12 +1690,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>謁見</t>
+          <t>參與</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>알현</t>
+          <t>참여</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1712,12 +1712,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>參</t>
+          <t>有名稅</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>석 삼, 참여할 참</t>
+          <t>유명세</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1734,12 +1734,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>參加</t>
+          <t>福不福</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>참가</t>
+          <t>복불복</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1756,12 +1756,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>席</t>
+          <t>經緯</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>자리 석</t>
+          <t>경위</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -1778,12 +1778,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>參席</t>
+          <t>和</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>참석</t>
+          <t>화목할 화, 화할 화</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -1800,12 +1800,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>參見</t>
+          <t>和睦</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>참견</t>
+          <t>화목</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -1822,12 +1822,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>參與</t>
+          <t>和音</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>참여</t>
+          <t>화음</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -1844,12 +1844,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>有名稅</t>
+          <t>和解</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>유명세</t>
+          <t>화해</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -1866,12 +1866,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>福不福</t>
+          <t>和合</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>복불복</t>
+          <t>화합</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -1888,12 +1888,12 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>對症療法</t>
+          <t>稅</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>대증요법</t>
+          <t>세금 세</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -1910,12 +1910,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>經緯</t>
+          <t>稅金</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>경위</t>
+          <t>세금</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -1932,12 +1932,12 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>和</t>
+          <t>血洗</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>화목할 화, 화할 화</t>
+          <t>혈세</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -1954,12 +1954,12 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>和睦</t>
+          <t>稅務</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>화목</t>
+          <t>세무</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -1976,12 +1976,12 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>和音</t>
+          <t>勢</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>화음</t>
+          <t>형세 세, 기세 세</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -1998,12 +1998,12 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>和解</t>
+          <t>勢力</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>화해</t>
+          <t>세력</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2020,12 +2020,12 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>和合</t>
+          <t>勢道家</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>화합</t>
+          <t>세도가</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2042,12 +2042,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>和而不同</t>
+          <t>權勢</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>화이부동 , 「남과 사이 좋게 지내되 의(義)를 굽혀 좇지는 아니한다」는 뜻으로, 곧, 남과 화목(和睦)하게 지내지만 자기(自己)의 중심(中心)과 원칙(原則)을 잃지 않음</t>
+          <t>권세</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2064,12 +2064,12 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>稅</t>
+          <t>絲</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>세금 세</t>
+          <t>실 사</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2086,12 +2086,12 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>稅金</t>
+          <t>經</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>세금</t>
+          <t>지날 경, 글 경</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2108,12 +2108,12 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>血洗</t>
+          <t>輕</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>혈세</t>
+          <t>가벼울 경</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2130,12 +2130,12 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>稅務</t>
+          <t>經濟</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>세무</t>
+          <t>경제</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2152,12 +2152,12 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>勢</t>
+          <t>徑</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>형세 세, 기세 세</t>
+          <t>지름길 경, 길 경</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2174,12 +2174,12 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>勢力</t>
+          <t>捷徑</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>세력</t>
+          <t>첩경, 지름길 멀리 돌지 않고 가깝게 질러 통(通)하는 길</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2196,12 +2196,12 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>勢道家</t>
+          <t>經路</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>세도가</t>
+          <t>경로</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -2218,12 +2218,12 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>權勢</t>
+          <t>直徑</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>권세</t>
+          <t>직경</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -2240,12 +2240,12 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>絲</t>
+          <t>漢</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>실 사</t>
+          <t>한나라 한, 접미사 한</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -2262,12 +2262,12 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>一絲不亂</t>
+          <t>漢文</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>일사불란, 「한 오라기의 실도 흐트러지지 않았다」는 뜻으로, 질서(秩序)나 체계(體系) 따위가 잘 잡혀 있어서 조금도 흐트러짐이 없음을 이르는 말</t>
+          <t>한문</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -2284,12 +2284,12 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>穀腹絲身</t>
+          <t>漢字</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>곡복사신, 밥 먹고 옷 입는 일</t>
+          <t>한자</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -2306,12 +2306,12 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>經</t>
+          <t>怪漢</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>지날 경, 글 경</t>
+          <t>괴한</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -2328,12 +2328,12 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>輕</t>
+          <t>嘆/歎</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>가벼울 경</t>
+          <t>탄식할 탄, 감탄할 탄</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -2350,12 +2350,12 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>經濟</t>
+          <t>悲嘆</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>경제</t>
+          <t>비탄</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -2372,12 +2372,12 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>牛耳讀經</t>
+          <t>隹</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>우이독경, 「쇠귀에 경 읽기」란 뜻으로, 우둔(愚鈍)한 사람은 아무리 가르치고 일러주어도 알아듣지 못함을 비유(比喩ㆍ譬喩)하여 이르는 말</t>
+          <t>새 추</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -2394,12 +2394,12 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>經國之士</t>
+          <t>錐</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>경국지사, 나랏일을 다스릴 만한 사람</t>
+          <t>송곳 추</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -2416,12 +2416,12 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>徑</t>
+          <t>錐處囊中</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>지름길 경, 길 경</t>
+          <t>추처낭중, 「주머니 속에 있는 송곳」이란 뜻으로, 재능(才能)이 아주 빼어난 사람은 숨어 있어도 저절로 남의 눈에 드러난다는 비유적(比喩的) 의미(意味)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -2438,17 +2438,17 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>捷徑</t>
+          <t>基盤</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>첩경, 지름길 멀리 돌지 않고 가깝게 질러 통(通)하는 길</t>
+          <t>기반</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>5일차</t>
+          <t>6일차</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2460,17 +2460,17 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>經路</t>
+          <t>創製</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>경로</t>
+          <t>창제</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>5일차</t>
+          <t>6일차</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2482,17 +2482,17 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>直徑</t>
+          <t>具現</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>직경</t>
+          <t>구현</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>5일차</t>
+          <t>6일차</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2504,17 +2504,17 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>漢</t>
+          <t>有利</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>한나라 한, 접미사 한</t>
+          <t>유리</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>5일차</t>
+          <t>6일차</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2526,17 +2526,17 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>漢文</t>
+          <t>強度</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>한문</t>
+          <t>강도</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>5일차</t>
+          <t>6일차</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2548,17 +2548,17 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>漢字</t>
+          <t>統制</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>한자</t>
+          <t>통제</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>5일차</t>
+          <t>6일차</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2570,17 +2570,17 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>怪漢</t>
+          <t>行間</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>괴한</t>
+          <t>행간</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>5일차</t>
+          <t>6일차</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -2592,19 +2592,17 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>漢江投石</t>
+          <t>端緖</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>한강투석, 「한강(漢江)에 아무리 돌을 많이 집어 넣어도 메울 수 없다」는 뜻으로,
-1) 아무리 도와도 보람이 없는 것
-2) 아무리 투자(投資)를 하거나 애를 써도 보람이 없음을 이르는 말</t>
+          <t>단서</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>5일차</t>
+          <t>6일차</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -2616,17 +2614,17 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>嘆/歎</t>
+          <t>毁損</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>탄식할 탄, 감탄할 탄</t>
+          <t>훼손</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>5일차</t>
+          <t>7일차</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -2638,17 +2636,17 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>悲嘆</t>
+          <t>埋木</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>비탄</t>
+          <t>매목</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>5일차</t>
+          <t>7일차</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -2660,17 +2658,17 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>麥秀之歎</t>
+          <t>象嵌</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>맥수지탄, 「나무가 고요하고자 하나 바람이 그치지 않는다」는 뜻으로, 부모(父母)에게 효도(孝道)를 다하려고 생각할 때에는 이미 돌아가셔서 그 뜻을 이룰 수 없음을 이르는 말</t>
+          <t>상감</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>5일차</t>
+          <t>7일차</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -2682,17 +2680,17 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>風樹之歎</t>
+          <t>補板</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>풍수지탄, 「나무가 고요하고자 하나 바람이 그치지 않는다」는 뜻으로, 부모(父母)에게 효도(孝道)를 다하려고 생각할 때에는 이미 돌아가셔서 그 뜻을 이룰 수 없음을 이르는 말</t>
+          <t>보판</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>5일차</t>
+          <t>7일차</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -2704,19 +2702,17 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>亡羊之歎</t>
+          <t>現實</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>망양지탄, 「달아난 양(羊)을 찾다가 여러 갈래 길에 이르러 길을 잃었다」는 뜻으로,
-1) 학문(學問)의 길이 여러 갈래로 나뉘어져 있어 진리(眞理)를 찾기 어려움
-2) 방침(方針)이 많아 할 바를 모르게 됨</t>
+          <t>현실</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>5일차</t>
+          <t>7일차</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -2728,20 +2724,17 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>望洋之歎</t>
+          <t>野薄</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>망양지탄, 
-1) 「넓은 바다를 보고 탄식(歎息)한다」는 뜻으로,
-2) 남의 원대(遠大)함에 감탄(感歎ㆍ感嘆)하고, 나의 미흡(未洽)함을 부끄러워함의 비유(比喩ㆍ譬喩)
-3) 제힘이 미치지 못할 때 하는 탄식(歎息)</t>
+          <t>야박</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>5일차</t>
+          <t>7일차</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -2753,17 +2746,17 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>晩時之歎</t>
+          <t>根性</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>만시지탄, 「때늦은 한탄(恨歎)」이라는 뜻으로, 「시기(時期)가 늦어 기회(機會)를 놓친 것이 원통(寃痛)해서 탄식(歎息)함」을 이르는 말</t>
+          <t>근성</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>5일차</t>
+          <t>7일차</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -2775,419 +2768,20 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>髀肉之嘆</t>
+          <t>採用</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>비육지탄, 
-1) 「넓적다리에 살이 붙음을 탄식(歎息)한다」는 뜻으로,
-2) 자기(自己)의 뜻을 펴지 못하고 허송세월(歲月)하는 것을 한탄(恨歎)하다 성공(成功)할 기회(機會)를 잃고 공연(
-3) 영웅(英雄)이 때를 만나지 못하여 싸움에 나가지 못하고 넓적다리에 헛된 살만 쩌 가는 것을 한탄(恨歎)한다</t>
+          <t>채용</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>5일차</t>
+          <t>7일차</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
-        <is>
-          <t>한자어</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>切齒腐心</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>절치부심, 「이를 갈고 마음을 썩이다」는 뜻으로, 대단히 분(憤)하게 여기고 마음을 썩임</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>한자어</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>事必歸正</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>사필귀정, 처음에는 시비곡직(是非曲直)을 가리지 못하여 그릇되더라도 모든 일은 결국(結局)에 가서는 반드시 정리(正理)로 돌아감</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>한자어</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>風木之悲</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>풍목지비, (→風樹之歎(풍수지탄))</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>한자어</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>辟邪進慶</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>벽사진경, 사귀(邪鬼)를 쫓고 경사(慶事)로운 일을 맞이함</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>한자어</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>牽強附會</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>견강부회, 이치(理致)에 맞지 않는 말을 억지로 끌어 붙여 자기(自己) 주장(主張)의 조건(條件)에 맞도록 함</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>한자어</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>隱忍自重</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>은인자중, 밖으로 드러내지 아니하고 참고 감추어 몸가짐을 신중(愼重)히 함</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>한자어</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>囊中之錐</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>낭중지추, 1) 「주머니 속에 있는 송곳」이란 뜻으로, 재능(才能)이 아주 빼어난 사람은 숨어 있어도 저절로 남의 눈에 드러난다는 비유적(比喩的) 의미(意味)</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>한자어</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>隹</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>새 추</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>한자어</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>錐</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>송곳 추</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>한자어</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>錐處囊中</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>추처낭중, 「주머니 속에 있는 송곳」이란 뜻으로, 재능(才能)이 아주 빼어난 사람은 숨어 있어도 저절로 남의 눈에 드러난다는 비유적(比喩的) 의미(意味)</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>한자어</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>基盤</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>기반</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>6일차</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>한자어</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>創製</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>창제</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>6일차</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>한자어</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>具現</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>구현</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>6일차</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>한자어</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>有利</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>유리</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>6일차</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>한자어</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>強度</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>강도</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>6일차</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>한자어</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>統制</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>통제</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>6일차</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>한자어</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>行間</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>행간</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>6일차</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>한자어</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>端緖</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>단서</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>6일차</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
         <is>
           <t>한자어</t>
         </is>

--- a/학습자료/단답형/국어_복습_한자어.xlsx
+++ b/학습자료/단답형/국어_복습_한자어.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D107"/>
+  <dimension ref="A1:D253"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,17 +524,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>內科</t>
+          <t>護疾忌醫</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>내과</t>
+          <t>호질기의, 「병(病)을 숨기고 의원(醫員)에게 보이기를 꺼린다」는 뜻으로, 「자신(自身)의 결점(缺點)을 감추고 남의 충고(忠告)를 듣지 않음」을 비유(比喩ㆍ譬喩)하는 말</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2일차</t>
+          <t>1일차</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -546,17 +546,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>看護</t>
+          <t>藏頭露尾</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>간호</t>
+          <t>장두노미, 「머리는 감추었는데 꼬리는 드러나 있다」는 뜻으로, 「진실(眞實)을 숨겨두려고 하지만 거짓의 실마리는 이미 드러나 있다」는 의미(意味) 속으로 감추면서 들통 날까봐 전전긍긍(戰戰兢兢)하는 태도(態度)를 빗대기도 함</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2일차</t>
+          <t>1일차</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -568,17 +568,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>入院</t>
+          <t>倒行逆施</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>입원</t>
+          <t>도행역시, 「차례(次例)를 거꾸로 시행(施行)한다」는 뜻으로, 곧 도리(道理)에 순종(順從)하지 않고 일을 행(行)하며 상도(常道)를 벗어나서 일을 억지로 함을 뜻</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2일차</t>
+          <t>1일차</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -590,17 +590,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>報告</t>
+          <t>破邪顯正</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>보고</t>
+          <t>파사현정, 「불교(佛敎)에서, 부처의 가르침에 어긋나는 사악(邪惡)한 도리(道理)를 깨뜨리고 바른 도리(道理)를 드러낸다」는 뜻으로, 그릇된 생각을 버리고 올바른 도리(道理)를 행(行)함을 비유(比喩ㆍ譬喩)해 이르는 말</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>3일차</t>
+          <t>1일차</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -612,17 +612,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>體系的</t>
+          <t>束手無策</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>체계적</t>
+          <t>속수무책,「손을 묶인 듯이 어찌 할 방책(方策)이 없어 꼼짝 못하게 된다」는 뜻으로, 뻔히 보면서 어찌할 바를 모르고 꼼짝 못한다는 뜻</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>3일차</t>
+          <t>1일차</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -634,17 +634,17 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>曲折</t>
+          <t>離合集散</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>곡절</t>
+          <t>이합집산, 헤어졌다가 모였다가 하는 일</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>3일차</t>
+          <t>2일차</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -656,17 +656,17 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>初有</t>
+          <t>格物致知</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>초유</t>
+          <t>격물치지, 사물의 이치를 구명하여 자기의 지식을 확고하게 함</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>3일차</t>
+          <t>2일차</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -678,17 +678,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>序幕</t>
+          <t>內科</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>서막</t>
+          <t>내과</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>3일차</t>
+          <t>2일차</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -700,17 +700,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>敎養</t>
+          <t>看護</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>교양</t>
+          <t>간호</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>3일차</t>
+          <t>2일차</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -722,17 +722,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>理論</t>
+          <t>入院</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>이론</t>
+          <t>입원</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>3일차</t>
+          <t>2일차</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -744,12 +744,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>儒敎</t>
+          <t>龍蛇飛騰</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>유교</t>
+          <t xml:space="preserve">용사비등,「용과 뱀이 하늘로 날아오르다」는 뜻으로, 살아 움직이듯 매우 활기찬 글씨 </t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -766,12 +766,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>學問</t>
+          <t>畫蛇添足</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>학문</t>
+          <t>화사첨족, 「뱀을 그리고 발을 더한다」는 뜻으로, 하지 않아도 될 일을 하거나 필요(必要) 이상(以上)으로 쓸데 없는 일을 하여 도리어 실패(失敗)함</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -788,12 +788,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>受容</t>
+          <t>針小棒大</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>수용</t>
+          <t xml:space="preserve">침소봉대,「바늘 만한 것을 몽둥이 만하다고 말함」이란 뜻으로, 곧, 작은 일을 크게 과장(誇張)하여 말함을 이름 </t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -810,17 +810,17 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>貴</t>
+          <t>報告</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>귀할 귀</t>
+          <t>보고</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>5일차</t>
+          <t>3일차</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -832,17 +832,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>貴中</t>
+          <t>體系的</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>귀중</t>
+          <t>체계적</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>5일차</t>
+          <t>3일차</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -854,17 +854,18 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>貴賤</t>
+          <t>犬馬之誠</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>귀천</t>
+          <t>견마지성, 「개나 말의 정성(精誠)」이라는 뜻으로, 임금이나 나라에 바치는 정성(精誠), 
+남에게 「자기(自己)가 바치는 정성(精誠)」을 아주 겸손(謙遜)하게 일컫는 말</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>5일차</t>
+          <t>3일차</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -876,17 +877,17 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>遺</t>
+          <t>反哺之孝</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>남길 유, 잃을 유</t>
+          <t xml:space="preserve">반포지효, 「까마귀 새끼가 자란 뒤에 늙은 어미에게 먹이를 물어다 주는 효성(孝誠)」이라는 뜻으로, 자식(子息)이 자라서 부모(父母)를 봉양(奉養)함 </t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>5일차</t>
+          <t>3일차</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -898,17 +899,17 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>遺産</t>
+          <t>間於齊楚</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>유산</t>
+          <t>간어제초, 「제(齊)나라와 초(楚)나라 사이」라는 뜻으로, 약(弱)한 자(者)가 강(強)한 자(者)들 사이에 끼여 괴로움을 받음을 이르는 말</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>5일차</t>
+          <t>3일차</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -920,17 +921,17 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>遺言</t>
+          <t>蓋世之才</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>유언</t>
+          <t>개세지재, 세상(世上)을 마음대로 다스릴 만한 뛰어난 재기(才氣) 또는 그러한 재기(才氣)를 가진 사람</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>5일차</t>
+          <t>3일차</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -942,17 +943,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>遺失</t>
+          <t>曲折</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>유실</t>
+          <t>곡절</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>5일차</t>
+          <t>3일차</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -964,17 +965,17 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>遺棄</t>
+          <t>初有</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>유기</t>
+          <t>초유</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>5일차</t>
+          <t>3일차</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -986,17 +987,17 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>投</t>
+          <t>序幕</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>던질 투</t>
+          <t>서막</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>5일차</t>
+          <t>3일차</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1008,17 +1009,17 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>投稿</t>
+          <t>敎養</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>투고</t>
+          <t>교양</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>5일차</t>
+          <t>3일차</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1030,17 +1031,17 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>投手</t>
+          <t>理論</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>투수</t>
+          <t>이론</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>5일차</t>
+          <t>3일차</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1052,17 +1053,17 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>投棄</t>
+          <t>儒敎</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>투기</t>
+          <t>유교</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>5일차</t>
+          <t>3일차</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1074,17 +1075,17 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>抛</t>
+          <t>學問</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>던질 포</t>
+          <t>학문</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>5일차</t>
+          <t>3일차</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1096,17 +1097,17 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>抛棄</t>
+          <t>受容</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>포기</t>
+          <t>수용</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>5일차</t>
+          <t>3일차</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1118,17 +1119,17 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>抛物線</t>
+          <t>朋友有信</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>포물선</t>
+          <t>붕우유신, 오륜(五倫)의 하나 친구(親舊) 사이의 도리(道理)는 믿음에 있음</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>5일차</t>
+          <t>4일차</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1140,17 +1141,17 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>線</t>
+          <t>長幼有序</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>줄 선</t>
+          <t>장유유서, 오륜(五倫)의 하나 어른과 어린이 사이에는 순서(順序)와 질서(秩序)가 있음</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>5일차</t>
+          <t>4일차</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1162,17 +1163,17 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>路線</t>
+          <t>君臣有義</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>노선</t>
+          <t>군신유의, 오륜(五倫)의 하나 임금과 신하(臣下) 사이에 의리(義理)가 있어야 함</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>5일차</t>
+          <t>4일차</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1184,17 +1185,17 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>戰線</t>
+          <t>夫婦有別</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>전선</t>
+          <t>부부유별, 오륜(五倫)의 하나 「남편(男便)과 아내는 분별(分別)이 있어야 한다」는 뜻으로, 부부(夫婦) 사이에는 인륜상(人倫上) 각각(各各) 직분(職分)이 있어 서로 침범(侵犯)하지 못할 구별(區別)이 있음</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>5일차</t>
+          <t>4일차</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1206,17 +1207,17 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>視線</t>
+          <t>父子有親</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>시선</t>
+          <t>부자유친, 오륜(五倫)의 하나 아버지와 아들 사이의 도(道)는 친애(親愛)에 있</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>5일차</t>
+          <t>4일차</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1228,12 +1229,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>根絶</t>
+          <t>貴</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>근절</t>
+          <t>귀할 귀</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1250,12 +1251,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>卷</t>
+          <t>貴中</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>책 권</t>
+          <t>귀중</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1272,12 +1273,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>捲</t>
+          <t>貴賤</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>거둘 권, 힘쓸 권</t>
+          <t>귀천</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1294,12 +1295,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>干</t>
+          <t>富貴功名</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>방패 간</t>
+          <t>부귀공명</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1316,12 +1317,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>干涉</t>
+          <t>遺</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>간섭</t>
+          <t>남길 유, 잃을 유</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1338,12 +1339,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>干與</t>
+          <t>遺産</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>간여</t>
+          <t>유산</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1360,12 +1361,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>若干</t>
+          <t>遺言</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>약간</t>
+          <t>유언</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1382,12 +1383,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>干滿</t>
+          <t>遺失</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>간만</t>
+          <t>유실</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1404,12 +1405,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>拓</t>
+          <t>遺棄</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>박을 탁, 넓힐 척</t>
+          <t>유기</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1426,12 +1427,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>干拓</t>
+          <t>投</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>간척</t>
+          <t>던질 투</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1448,12 +1449,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>見</t>
+          <t>投稿</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>볼 견, 뵈올 현</t>
+          <t>투고</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1470,12 +1471,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>見習</t>
+          <t>投手</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>견습</t>
+          <t>투수</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1492,12 +1493,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>見解</t>
+          <t>全力投球</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>견해</t>
+          <t>전력투구</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1514,12 +1515,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>見聞</t>
+          <t>投棄</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>견문</t>
+          <t>투기</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1536,12 +1537,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>謁</t>
+          <t>抛</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>뵐 알</t>
+          <t>던질 포</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1558,12 +1559,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>謁見</t>
+          <t>抛棄</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>알현</t>
+          <t>포기</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1580,12 +1581,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>參</t>
+          <t>抛物線</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>석 삼, 참여할 참</t>
+          <t>포물선</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1602,12 +1603,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>參加</t>
+          <t>線</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>참가</t>
+          <t>줄 선</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1624,12 +1625,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>席</t>
+          <t>路線</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>자리 석</t>
+          <t>노선</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1646,12 +1647,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>參席</t>
+          <t>戰線</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>참석</t>
+          <t>전선</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1668,12 +1669,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>參見</t>
+          <t>視線</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>참견</t>
+          <t>시선</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1690,12 +1691,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>參與</t>
+          <t>根絶</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>참여</t>
+          <t>근절</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1712,12 +1713,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>有名稅</t>
+          <t>兎死狗烹</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>유명세</t>
+          <t>토사구팽</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1734,12 +1735,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>福不福</t>
+          <t>捲土重來</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>복불복</t>
+          <t>권토중래</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1756,12 +1757,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>經緯</t>
+          <t>手不釋卷</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>경위</t>
+          <t>수불석권</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -1778,12 +1779,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>和</t>
+          <t>我田引水</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>화목할 화, 화할 화</t>
+          <t>아전인수</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -1800,12 +1801,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>和睦</t>
+          <t>卷</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>화목</t>
+          <t>책 권</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -1822,12 +1823,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>和音</t>
+          <t>捲</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>화음</t>
+          <t>거둘 권, 힘쓸 권</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -1844,12 +1845,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>和解</t>
+          <t>干</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>화해</t>
+          <t>방패 간</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -1866,12 +1867,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>和合</t>
+          <t>干涉</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>화합</t>
+          <t>간섭</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -1888,12 +1889,12 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>稅</t>
+          <t>干與</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>세금 세</t>
+          <t>간여</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -1910,12 +1911,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>稅金</t>
+          <t>若干</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>세금</t>
+          <t>약간</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -1932,12 +1933,12 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>血洗</t>
+          <t>干滿</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>혈세</t>
+          <t>간만</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -1954,12 +1955,12 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>稅務</t>
+          <t>拓</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>세무</t>
+          <t>박을 탁, 넓힐 척</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -1976,12 +1977,12 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>勢</t>
+          <t>干拓</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>형세 세, 기세 세</t>
+          <t>간척</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -1998,12 +1999,12 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>勢力</t>
+          <t>見</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>세력</t>
+          <t>볼 견, 뵈올 현</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2020,12 +2021,12 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>勢道家</t>
+          <t>見習</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>세도가</t>
+          <t>견습</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2042,12 +2043,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>權勢</t>
+          <t>見解</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>권세</t>
+          <t>견해</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2064,12 +2065,12 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>絲</t>
+          <t>見聞</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>실 사</t>
+          <t>견문</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2086,12 +2087,12 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>經</t>
+          <t>謁</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>지날 경, 글 경</t>
+          <t>뵐 알</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2108,12 +2109,12 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>輕</t>
+          <t>謁見</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>가벼울 경</t>
+          <t>알현</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2130,12 +2131,12 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>經濟</t>
+          <t>參</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>경제</t>
+          <t>석 삼, 참여할 참</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2152,12 +2153,12 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>徑</t>
+          <t>參加</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>지름길 경, 길 경</t>
+          <t>참가</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2174,12 +2175,12 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>捷徑</t>
+          <t>席</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>첩경, 지름길 멀리 돌지 않고 가깝게 질러 통(通)하는 길</t>
+          <t>자리 석</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2196,12 +2197,12 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>經路</t>
+          <t>參席</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>경로</t>
+          <t>참석</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -2218,12 +2219,12 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>直徑</t>
+          <t>參見</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>직경</t>
+          <t>참견</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -2240,12 +2241,12 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>漢</t>
+          <t>參與</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>한나라 한, 접미사 한</t>
+          <t>참여</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -2262,12 +2263,12 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>漢文</t>
+          <t>有名稅</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>한문</t>
+          <t>유명세</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -2284,12 +2285,12 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>漢字</t>
+          <t>福不福</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>한자</t>
+          <t>복불복</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -2306,12 +2307,12 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>怪漢</t>
+          <t>對症療法</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>괴한</t>
+          <t>대증요법</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -2328,12 +2329,12 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>嘆/歎</t>
+          <t>經緯</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>탄식할 탄, 감탄할 탄</t>
+          <t>경위</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -2350,12 +2351,12 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>悲嘆</t>
+          <t>和</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>비탄</t>
+          <t>화목할 화, 화할 화</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -2372,12 +2373,12 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>隹</t>
+          <t>和睦</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>새 추</t>
+          <t>화목</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -2394,12 +2395,12 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>錐</t>
+          <t>和音</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>송곳 추</t>
+          <t>화음</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -2416,12 +2417,12 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>錐處囊中</t>
+          <t>和解</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>추처낭중, 「주머니 속에 있는 송곳」이란 뜻으로, 재능(才能)이 아주 빼어난 사람은 숨어 있어도 저절로 남의 눈에 드러난다는 비유적(比喩的) 의미(意味)</t>
+          <t>화해</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -2438,17 +2439,17 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>基盤</t>
+          <t>和合</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>기반</t>
+          <t>화합</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>6일차</t>
+          <t>5일차</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2460,17 +2461,17 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>創製</t>
+          <t>和而不同</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>창제</t>
+          <t>화이부동 , 「남과 사이 좋게 지내되 의(義)를 굽혀 좇지는 아니한다」는 뜻으로, 곧, 남과 화목(和睦)하게 지내지만 자기(自己)의 중심(中心)과 원칙(原則)을 잃지 않음</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>6일차</t>
+          <t>5일차</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2482,17 +2483,17 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>具現</t>
+          <t>稅</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>구현</t>
+          <t>세금 세</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>6일차</t>
+          <t>5일차</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2504,17 +2505,17 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>有利</t>
+          <t>稅金</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>유리</t>
+          <t>세금</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>6일차</t>
+          <t>5일차</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2526,17 +2527,17 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>強度</t>
+          <t>血洗</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>강도</t>
+          <t>혈세</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>6일차</t>
+          <t>5일차</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2548,17 +2549,17 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>統制</t>
+          <t>稅務</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>통제</t>
+          <t>세무</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>6일차</t>
+          <t>5일차</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2570,17 +2571,17 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>行間</t>
+          <t>勢</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>행간</t>
+          <t>형세 세, 기세 세</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>6일차</t>
+          <t>5일차</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -2592,17 +2593,17 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>端緖</t>
+          <t>勢力</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>단서</t>
+          <t>세력</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>6일차</t>
+          <t>5일차</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -2614,17 +2615,17 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>毁損</t>
+          <t>勢道家</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>훼손</t>
+          <t>세도가</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>7일차</t>
+          <t>5일차</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -2636,17 +2637,17 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>埋木</t>
+          <t>權勢</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>매목</t>
+          <t>권세</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>7일차</t>
+          <t>5일차</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -2658,17 +2659,17 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>象嵌</t>
+          <t>絲</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>상감</t>
+          <t>실 사</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>7일차</t>
+          <t>5일차</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -2680,17 +2681,17 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>補板</t>
+          <t>一絲不亂</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>보판</t>
+          <t>일사불란, 「한 오라기의 실도 흐트러지지 않았다」는 뜻으로, 질서(秩序)나 체계(體系) 따위가 잘 잡혀 있어서 조금도 흐트러짐이 없음을 이르는 말</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>7일차</t>
+          <t>5일차</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -2702,17 +2703,17 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>現實</t>
+          <t>穀腹絲身</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>현실</t>
+          <t>곡복사신, 밥 먹고 옷 입는 일</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>7일차</t>
+          <t>5일차</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -2724,17 +2725,17 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>野薄</t>
+          <t>經</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>야박</t>
+          <t>지날 경, 글 경</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>7일차</t>
+          <t>5일차</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -2746,17 +2747,17 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>根性</t>
+          <t>輕</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>근성</t>
+          <t>가벼울 경</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>7일차</t>
+          <t>5일차</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -2768,20 +2769,3249 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
+          <t>經濟</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>경제</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>5일차</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>牛耳讀經</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>우이독경, 「쇠귀에 경 읽기」란 뜻으로, 우둔(愚鈍)한 사람은 아무리 가르치고 일러주어도 알아듣지 못함을 비유(比喩ㆍ譬喩)하여 이르는 말</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>5일차</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>經國之士</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>경국지사, 나랏일을 다스릴 만한 사람</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>5일차</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>徑</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>지름길 경, 길 경</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>5일차</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>捷徑</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>첩경, 지름길 멀리 돌지 않고 가깝게 질러 통(通)하는 길</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>5일차</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>經路</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>경로</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>5일차</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>直徑</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>직경</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>5일차</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>漢</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>한나라 한, 접미사 한</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>5일차</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>漢文</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>한문</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>5일차</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>漢字</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>한자</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>5일차</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>怪漢</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>괴한</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>5일차</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>漢江投石</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>한강투석, 「한강(漢江)에 아무리 돌을 많이 집어 넣어도 메울 수 없다」는 뜻으로,
+1) 아무리 도와도 보람이 없는 것
+2) 아무리 투자(投資)를 하거나 애를 써도 보람이 없음을 이르는 말</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>5일차</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>嘆/歎</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>탄식할 탄, 감탄할 탄</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>5일차</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>悲嘆</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>비탄</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>5일차</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>麥秀之歎</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>맥수지탄, 「나무가 고요하고자 하나 바람이 그치지 않는다」는 뜻으로, 부모(父母)에게 효도(孝道)를 다하려고 생각할 때에는 이미 돌아가셔서 그 뜻을 이룰 수 없음을 이르는 말</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>5일차</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>風樹之歎</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>풍수지탄, 「나무가 고요하고자 하나 바람이 그치지 않는다」는 뜻으로, 부모(父母)에게 효도(孝道)를 다하려고 생각할 때에는 이미 돌아가셔서 그 뜻을 이룰 수 없음을 이르는 말</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>5일차</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>亡羊之歎/望洋之歎</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>망양지탄, 「달아난 양(羊)을 찾다가 여러 갈래 길에 이르러 길을 잃었다」는 뜻으로,
+1) 학문(學問)의 길이 여러 갈래로 나뉘어져 있어 진리(眞理)를 찾기 어려움
+2) 방침(方針)이 많아 할 바를 모르게 됨</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>5일차</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>晩時之歎</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>만시지탄, 「때늦은 한탄(恨歎)」이라는 뜻으로, 「시기(時期)가 늦어 기회(機會)를 놓친 것이 원통(寃痛)해서 탄식(歎息)함」을 이르는 말</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>5일차</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>髀肉之嘆</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>비육지탄, 
+1) 「넓적다리에 살이 붙음을 탄식(歎息)한다」는 뜻으로,
+2) 자기(自己)의 뜻을 펴지 못하고 허송세월(歲月)하는 것을 한탄(恨歎)하다 성공(成功)할 기회(機會)를 잃고 공연(
+3) 영웅(英雄)이 때를 만나지 못하여 싸움에 나가지 못하고 넓적다리에 헛된 살만 쩌 가는 것을 한탄(恨歎)한다</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>5일차</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>切齒腐心</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>절치부심, 「이를 갈고 마음을 썩이다」는 뜻으로, 대단히 분(憤)하게 여기고 마음을 썩임</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>5일차</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>事必歸正</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>사필귀정, 처음에는 시비곡직(是非曲直)을 가리지 못하여 그릇되더라도 모든 일은 결국(結局)에 가서는 반드시 정리(正理)로 돌아감</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>5일차</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>風木之悲</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>풍목지비, (→風樹之歎(풍수지탄))</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>5일차</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>辟邪進慶</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>벽사진경, 사귀(邪鬼)를 쫓고 경사(慶事)로운 일을 맞이함</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>5일차</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>牽強附會</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>견강부회, 이치(理致)에 맞지 않는 말을 억지로 끌어 붙여 자기(自己) 주장(主張)의 조건(條件)에 맞도록 함</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>5일차</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>隱忍自重</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>은인자중, 밖으로 드러내지 아니하고 참고 감추어 몸가짐을 신중(愼重)히 함</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>5일차</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>吳越同舟</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>오월동주, 1) 「오(吳)나라 사람과 월(越)나라 사람이 한 배에 타고 있다」는 뜻으로,
+2) 어려운 상황(狀況)에서는 원수(怨讐)라도 협력(協力)하게 됨 3) 뜻이 전혀 다른 사람들이 한자리에 있게 됨</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>5일차</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>囊中之錐</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>낭중지추, 1) 「주머니 속에 있는 송곳」이란 뜻으로, 재능(才能)이 아주 빼어난 사람은 숨어 있어도 저절로 남의 눈에 드러난다는 비유적(比喩的) 의미(意味)</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>5일차</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>隹</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>새 추</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>5일차</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>錐</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>송곳 추</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>5일차</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>錐處囊中</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>추처낭중, 「주머니 속에 있는 송곳」이란 뜻으로, 재능(才能)이 아주 빼어난 사람은 숨어 있어도 저절로 남의 눈에 드러난다는 비유적(比喩的) 의미(意味)</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>5일차</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>基盤</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>기반</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>6일차</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>創製</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>창제</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>6일차</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>具現</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>구현</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>6일차</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>有利</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>유리</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>6일차</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>蚌鷸之爭</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>방휼지쟁, 「도요새가 조개와 다투다가 다 같이 어부(漁夫)에게 잡히고 말았다」는 뜻으로, 제3자(第三者)만 이(利)롭게 하는 다툼을 이르는 말</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>6일차</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>羊頭狗肉</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>양두구육, 
+1) 「양(羊) 머리를 걸어놓고 개고기를 판다」는 뜻으로,
+2) 겉은 훌륭해 보이나 속은 그렇지 못한 것 
+3) 겉과 속이 서로 다름</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>6일차</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>綿裏藏針</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>면리장침, 「솜 속에 바늘을 감추어 꽂는다」는 뜻으로, 겉으로는 부드러운 듯하나 속으로는 아주 흉악(凶惡)함을 이름</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>6일차</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>強度</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>강도</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>6일차</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>統制</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>통제</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>6일차</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>行間</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>행간</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>6일차</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>端緖</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>단서</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>6일차</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>後生可畏</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>후생가외, 「젊은 후학(後學)들을 두려워할 만하다」는 뜻으로, 후진(後進)들이 선배(先輩)들보다 젊고 기력(氣力)이 좋아, 학문(學問)을 닦음에 따라 큰 인물(人物)이 될 수 있으므로 가히 두렵다는 말</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>6일차</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>不問曲直</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t xml:space="preserve">불문곡직, 
+1) 「굽음과 곧음을 묻지 않는다」는 뜻으로,
+2) 옳고 그름을 가리지 않고 함부로 일을 처리(處理)함 
+3) 잘잘못을 묻지 않고 함부로 행(行)함 </t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>6일차</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>道聽塗說</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>도청도설, 
+1)「길거리에서 들은 이야기를 곧 그 길에서 다른 사람에게 말한다」는 뜻으로,
+2) 거리에서 들은 것을 남에게 아는 체하며 말함 
+3) 깊이 생각 않고 예사(例事)로 듣고 말함</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>6일차</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>大馬不死</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>대마불사, 바둑을 둘 때, 대마는 쉽게 죽지 아니하고 필경 살길이 생겨난다는 말.</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>6일차</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>毁損</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>훼손</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>7일차</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>埋木</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>매목</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>7일차</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>象嵌</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>상감</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>7일차</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>補板</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>보판</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>7일차</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>拈華微笑</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>염화미소, 「꽃을 집어 들고 웃음을 띠다.」란 뜻으로, 말로 하지 않고 마음에서 마음으로 전(傳)하는 일을 이르는 말. 불교(佛敎)에서 이심전심(以心傳心)의 뜻으로 쓰이는 말.</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>7일차</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>苦盡甘來</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>고진감래, 「쓴 것이 다하면 단 것이 온다.」는 뜻으로, 고생(苦生) 끝에 낙이 온다라는 말.</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>7일차</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>目不識丁</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>목불식정, 「고무래를 보고도 그것이 고무래 정(丁)자인 줄 모른다.」는 뜻으로, 글자를 전혀 모름. 또는 그러한 사람을 비유(比喩ㆍ譬喩)해 이르는 말. 낫 놓고 기역자도 모른다. 일자무식을 이르는 말.</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>7일차</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>現實</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>현실</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>7일차</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>野薄</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>야박</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>7일차</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>根性</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>근성</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>7일차</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
           <t>採用</t>
         </is>
       </c>
-      <c r="B107" t="inlineStr">
+      <c r="B162" t="inlineStr">
         <is>
           <t>채용</t>
         </is>
       </c>
-      <c r="C107" t="inlineStr">
+      <c r="C162" t="inlineStr">
         <is>
           <t>7일차</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr">
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>舌</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>혀 설</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>口舌數</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>구설수</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>活</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>살 활</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>活力</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>활력</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>活路</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>활로</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>復活</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>부활</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>話</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>말할 화, 이야기 화</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>對話</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>대화</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>童話</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>동화</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>實話</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>실화</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>共</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>함께 공</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>共感</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>공감</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>公共</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>공공</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>公共企業</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>공공기업</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>共同</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>공동</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>共倒同亡</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>공도동망, 「넘어져도 같이 넘어지고 망(亡)하여도 같이 망(亡)한다.」는 뜻으로, 운명(運命)을 같이 하는 것.</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>選</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>뽑을 선</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>選擧</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>선거</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>選手</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>선수</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>選擇</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>선택</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>言約</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>언약</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>言論</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>언론</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>格言</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>격언</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>言語道斷</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>언어도단, 「말할 길이 끊어졌다.」는 뜻으로, 곧, 너무나 엄청나거나 기가 막혀서, 말로써 나타낼 수가 없음.</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>言中有骨</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>언중유골, 「말속에 뼈가 있다.」는 뜻으로, 예사(例事)로운 표현(表現) 속에 만만치 않은 뜻이 들어 있음.</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>話頭</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>화두</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>通話</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>통화</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>話題</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>화제</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>通貨</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>통화</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>貨</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>재물 화</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>財貨</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>재화</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>貨幣</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>화폐</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>貨物</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>화물</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>正義</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>정의</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>正直</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>정직</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>政</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>정치 정, 다스릴 정</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>政治</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>정치</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>政府</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>정부</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>政派</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>정파</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>善政</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>선정</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>定</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>정할 정</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>斷定</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>단정</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>安定</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>안정</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>規定</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>규정</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>會者定離</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>회자정리</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>規定</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>규정</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>構造</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>구조</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>充分</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>충분</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>現象</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>현상</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>造作</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>조작</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>發覺</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>발각</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>濫用</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>남용</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>濫</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>넘칠 남</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>事件</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>사건</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>遺憾</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>유감</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>吉兆</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>길조</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>凶兆</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>흉조</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>亡兆</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>망조</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>兆民有和</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>조민유화, 국민(國民)의 화합(和合)과 나아가 인류(人類)의 화합(和合)을 지향(志向)한다는 뜻을 나타냄.</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>挑</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>돋울 도, 끌어낼 도</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>挑發</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>도발</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>挑戰</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>도전</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>挑戰者</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>도전자</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>逃</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>도망할 도</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>逃亡</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>도망</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>逃走</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>도주</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>逃避</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>도피</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>避</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>피할 피</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>不可避</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>불가피</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>回避</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>회피</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>走馬看山</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>주마간산</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>支</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>지탱할 지</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>支持</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>지지</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>支配</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>지배</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>支給</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>지급</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>給與</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>그병</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>齒亡脣亦支</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>치망순역지, 「이가 없으면 잇몸으로 산다.」는 속담(俗談)의 한역(漢譯)으로, 있던 것이 없어져서 불편(不便)하더라도 없는 대로 참고 살아간다는 말.</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>默</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>잠잠할 묵, 고요할 묵</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>沈默</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>침묵</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>默認</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>묵인</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>默殺</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>묵살</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>默念</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>묵념</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>默默不答</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>묵묵부답</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>盟</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>맹세 맹</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>同盟</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>동맹</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>盟誓</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>맹세</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>盟邦</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>맹방</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>金石盟約</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>금석맹약, 쇠와 돌같이 굳게 맹세(盟誓)하여 맺은 약속(約束).</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>誓約</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>서약</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>誓約書</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>서약서</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>誓言</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>서언</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
         <is>
           <t>한자어</t>
         </is>

--- a/학습자료/단답형/국어_복습_한자어.xlsx
+++ b/학습자료/단답형/국어_복습_한자어.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D253"/>
+  <dimension ref="A1:C276"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,11 +446,6 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>날짜</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
           <t>구분</t>
         </is>
       </c>
@@ -468,11 +463,6 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1일차</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -490,11 +480,6 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1일차</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -512,11 +497,6 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1일차</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -534,11 +514,6 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1일차</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -556,11 +531,6 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1일차</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -578,11 +548,6 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1일차</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -600,11 +565,6 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1일차</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -622,11 +582,6 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1일차</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -644,11 +599,6 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2일차</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -666,11 +616,6 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2일차</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -688,11 +633,6 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2일차</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -710,11 +650,6 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2일차</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -732,11 +667,6 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2일차</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -754,11 +684,6 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -776,11 +701,6 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -798,11 +718,6 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -820,11 +735,6 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -842,11 +752,6 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -865,11 +770,6 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -887,11 +787,6 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -909,11 +804,6 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -931,11 +821,6 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -953,11 +838,6 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -975,11 +855,6 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -997,11 +872,6 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -1019,11 +889,6 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -1041,11 +906,6 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -1063,11 +923,6 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -1085,11 +940,6 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -1107,11 +957,6 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -1129,11 +974,6 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>4일차</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -1151,11 +991,6 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>4일차</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -1173,11 +1008,6 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>4일차</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -1195,11 +1025,6 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>4일차</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -1217,11 +1042,6 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>4일차</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -1239,11 +1059,6 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -1261,11 +1076,6 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -1283,11 +1093,6 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -1305,11 +1110,6 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -1327,11 +1127,6 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -1349,11 +1144,6 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -1371,11 +1161,6 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -1393,11 +1178,6 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -1415,11 +1195,6 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -1437,11 +1212,6 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -1459,11 +1229,6 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -1481,11 +1246,6 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -1503,11 +1263,6 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -1525,11 +1280,6 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -1547,11 +1297,6 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -1569,11 +1314,6 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -1591,11 +1331,6 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -1613,11 +1348,6 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -1635,11 +1365,6 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -1657,11 +1382,6 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -1679,11 +1399,6 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -1701,11 +1416,6 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -1723,11 +1433,6 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -1745,11 +1450,6 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -1767,11 +1467,6 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -1789,11 +1484,6 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -1811,11 +1501,6 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -1833,11 +1518,6 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -1855,11 +1535,6 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -1877,11 +1552,6 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -1899,11 +1569,6 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -1921,11 +1586,6 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -1943,11 +1603,6 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -1965,11 +1620,6 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -1987,11 +1637,6 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -2009,11 +1654,6 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -2031,11 +1671,6 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -2053,11 +1688,6 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -2075,11 +1705,6 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -2097,11 +1722,6 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -2119,11 +1739,6 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -2141,11 +1756,6 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -2163,11 +1773,6 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -2185,11 +1790,6 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -2207,11 +1807,6 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -2229,11 +1824,6 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -2251,11 +1841,6 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -2273,11 +1858,6 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -2295,11 +1875,6 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -2317,11 +1892,6 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -2339,11 +1909,6 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -2361,11 +1926,6 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -2383,11 +1943,6 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -2405,11 +1960,6 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -2427,11 +1977,6 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -2449,11 +1994,6 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -2471,11 +2011,6 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -2493,11 +2028,6 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -2515,11 +2045,6 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -2537,11 +2062,6 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -2559,11 +2079,6 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -2581,11 +2096,6 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -2603,11 +2113,6 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -2625,11 +2130,6 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -2647,11 +2147,6 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -2669,11 +2164,6 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -2691,11 +2181,6 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -2713,11 +2198,6 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -2735,11 +2215,6 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -2757,11 +2232,6 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -2779,11 +2249,6 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -2801,11 +2266,6 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -2823,11 +2283,6 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -2845,11 +2300,6 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -2867,11 +2317,6 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -2889,11 +2334,6 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -2911,11 +2351,6 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -2933,11 +2368,6 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -2955,11 +2385,6 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -2977,11 +2402,6 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -2998,11 +2418,6 @@
         </is>
       </c>
       <c r="C117" t="inlineStr">
-        <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
         <is>
           <t>한자어</t>
         </is>
@@ -3023,11 +2438,6 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -3045,11 +2455,6 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -3067,11 +2472,6 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -3089,11 +2489,6 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -3110,11 +2505,6 @@
         </is>
       </c>
       <c r="C122" t="inlineStr">
-        <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
         <is>
           <t>한자어</t>
         </is>
@@ -3135,11 +2525,6 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -3156,11 +2541,6 @@
         </is>
       </c>
       <c r="C124" t="inlineStr">
-        <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
         <is>
           <t>한자어</t>
         </is>
@@ -3182,11 +2562,6 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -3204,11 +2579,6 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -3226,11 +2596,6 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -3248,11 +2613,6 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -3270,11 +2630,6 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -3292,11 +2647,6 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -3314,11 +2664,6 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -3337,11 +2682,6 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -3359,11 +2699,6 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -3381,11 +2716,6 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -3403,11 +2733,6 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -3425,11 +2750,6 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -3447,11 +2767,6 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>6일차</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -3469,11 +2784,6 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>6일차</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -3491,11 +2801,6 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>6일차</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -3513,11 +2818,6 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>6일차</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -3534,11 +2834,6 @@
         </is>
       </c>
       <c r="C141" t="inlineStr">
-        <is>
-          <t>6일차</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
         <is>
           <t>한자어</t>
         </is>
@@ -3560,11 +2855,6 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>6일차</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -3582,11 +2872,6 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>6일차</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -3604,11 +2889,6 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>6일차</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -3626,11 +2906,6 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>6일차</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -3648,11 +2923,6 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>6일차</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -3670,11 +2940,6 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>6일차</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -3691,11 +2956,6 @@
         </is>
       </c>
       <c r="C148" t="inlineStr">
-        <is>
-          <t>6일차</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
         <is>
           <t>한자어</t>
         </is>
@@ -3717,11 +2977,6 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>6일차</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -3742,11 +2997,6 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>6일차</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -3764,11 +3014,6 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>6일차</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -3786,11 +3031,6 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>7일차</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -3808,11 +3048,6 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>7일차</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -3830,11 +3065,6 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>7일차</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -3852,11 +3082,6 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>7일차</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -3874,11 +3099,6 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>7일차</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -3896,11 +3116,6 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>7일차</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -3918,11 +3133,6 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>7일차</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -3940,11 +3150,6 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>7일차</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -3962,11 +3167,6 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>7일차</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -3984,11 +3184,6 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>7일차</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -4006,11 +3201,6 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>7일차</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -4028,11 +3218,6 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -4050,11 +3235,6 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -4072,11 +3252,6 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -4094,11 +3269,6 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -4116,11 +3286,6 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -4138,11 +3303,6 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -4160,11 +3320,6 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -4182,11 +3337,6 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -4204,11 +3354,6 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -4226,11 +3371,6 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -4248,11 +3388,6 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -4270,11 +3405,6 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -4292,11 +3422,6 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -4314,11 +3439,6 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D176" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -4336,11 +3456,6 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -4358,11 +3473,6 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D178" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -4380,11 +3490,6 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -4402,11 +3507,6 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -4424,11 +3524,6 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -4446,11 +3541,6 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D182" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -4468,11 +3558,6 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -4490,11 +3575,6 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -4512,11 +3592,6 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -4534,11 +3609,6 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -4556,11 +3626,6 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -4578,11 +3643,6 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -4600,11 +3660,6 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D189" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -4622,11 +3677,6 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D190" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -4644,11 +3694,6 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D191" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -4666,11 +3711,6 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D192" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -4688,11 +3728,6 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D193" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -4710,11 +3745,6 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D194" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -4732,11 +3762,6 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D195" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -4754,11 +3779,6 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D196" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -4776,11 +3796,6 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D197" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -4798,11 +3813,6 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -4820,11 +3830,6 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D199" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -4842,11 +3847,6 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D200" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -4864,11 +3864,6 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D201" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -4886,11 +3881,6 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D202" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -4908,11 +3898,6 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D203" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -4930,11 +3915,6 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D204" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -4952,11 +3932,6 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D205" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -4974,11 +3949,6 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D206" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -4996,11 +3966,6 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D207" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -5018,11 +3983,6 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D208" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -5040,11 +4000,6 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D209" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -5062,11 +4017,6 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D210" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -5084,11 +4034,6 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D211" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -5106,11 +4051,6 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D212" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -5128,11 +4068,6 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D213" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -5150,11 +4085,6 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D214" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -5172,11 +4102,6 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D215" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -5194,11 +4119,6 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D216" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -5216,11 +4136,6 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D217" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -5238,11 +4153,6 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D218" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -5260,11 +4170,6 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D219" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -5282,11 +4187,6 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D220" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -5304,11 +4204,6 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D221" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -5326,11 +4221,6 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D222" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -5348,11 +4238,6 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D223" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -5370,11 +4255,6 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D224" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -5392,11 +4272,6 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D225" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -5414,11 +4289,6 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D226" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -5436,11 +4306,6 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D227" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -5458,11 +4323,6 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D228" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -5480,11 +4340,6 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D229" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -5502,11 +4357,6 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D230" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -5524,11 +4374,6 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D231" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -5546,11 +4391,6 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D232" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -5568,11 +4408,6 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D233" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -5590,11 +4425,6 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D234" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -5612,11 +4442,6 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D235" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -5634,11 +4459,6 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D236" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -5656,11 +4476,6 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D237" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -5678,11 +4493,6 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D238" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -5700,11 +4510,6 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D239" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -5722,11 +4527,6 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D240" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -5744,11 +4544,6 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D241" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -5766,11 +4561,6 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D242" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -5788,11 +4578,6 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D243" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -5810,11 +4595,6 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D244" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -5832,11 +4612,6 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D245" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -5854,11 +4629,6 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D246" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -5876,11 +4646,6 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D247" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -5898,11 +4663,6 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D248" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -5920,11 +4680,6 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D249" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -5942,11 +4697,6 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D250" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -5964,11 +4714,6 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D251" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -5986,11 +4731,6 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D252" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -6008,10 +4748,396 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D253" t="inlineStr">
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>恣意性</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>자의성</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>地自體</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>지자체</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>放恣</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>방자</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>仔細</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>자세</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>姿態</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>자태</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>國粹主義</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>국수주의, 자기(自己) 나라의 고유(固有) 전통(傳統) 문화(文化)만이 우수(優秀)하다고 믿고 다른 나라의 문물(文物)을 지나치게 배척(排斥)하는 태도(態度)나 입장(立場).</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>衛正斥邪</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>위정척사, 조선(朝鮮) 시대(時代) 후기(後期)에, 정학(正學), 정도(正道)로서의 주자학(朱子學)을 지키고, 사학(邪學), 사도(邪道)로서의 천주교(天主敎)를 물리치려던 주장(主張).</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>嘗糞之徒</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>상분지도, 「똥도 핥을 놈」이라는 뜻으로, 남에게 아첨(阿諂)하여 부끄러운 짓도 꺼려하지 않는 사람을 이르는 말.</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>橘化爲枳</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>귤화위지, 「강남(江南)의 귤을 강북(江北)에 심으면 탱자가 된다.」는 뜻으로, 사람도 환경(環境)에 따라 기질(氣質)이 변한다는 말.</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>間髮</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>간발</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>比肩</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>비견</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>琴瑟相和</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>금슬상화, 「거문고와 비파(琵琶) 소리가 조화(調和)를 이룬다.」는 뜻으로, 부부(夫婦) 사이가 다정(多情)하고 화목(和睦)함을 이르는 말.</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>女必從夫</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>여필종부, 아내는 반드시 남편(男便)의 뜻을 좇아야 한다는 말.</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>談笑自若</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>담소자약, 「태연(泰然)하게 담소(談笑)를 즐긴다.」는 뜻으로, 위험(危險)이나 곤란(困難)에 직면(直面)해 걱정과 근심이 있을 때라도 변(變)함없이 평상시(平常時)와 같은 태도(態度)를 가짐.</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>男負女戴</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>남부여대, 「남자(男子)는 짐을 따위에 지고, 여자(女子)는 짐을 머리에 인다.」는 뜻으로, 가난한 사람이나 재난(災難)을 당(當)한 사람들이 살 곳을 찾아 이리저리 떠돌아다니는 것을 이르는 말.</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>武陵桃源</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>무릉도원, 이 세상(世上)을 떠난 별천지(別天地)를 이르는 말.</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>安分知足</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>안분지족, 자기(自己) 분수(分數)에 만족(滿足)하여 다른 데 마음을 두지 아니함.</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>簞瓢陋巷</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>단표누항, 「도시락과 표주박과 누추(陋醜)한 거리」라는 뜻으로, 소박(素朴)한 시골 생활(生活)을 비유(比喩ㆍ譬喩)해 이르는 말.</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>風月主人</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>풍월주인, 맑은 바람과 밝은 달 등(等)의 자연(自然)을 즐기는 사람을 이르는 말.</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>沈滯</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>침체</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>萎縮</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>위축</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>且置</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>차치</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>防疫</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>방역</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
         <is>
           <t>한자어</t>
         </is>

--- a/학습자료/단답형/국어_복습_한자어.xlsx
+++ b/학습자료/단답형/국어_복습_한자어.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C276"/>
+  <dimension ref="A1:C282"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2312,7 +2312,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>첩경, 지름길 멀리 돌지 않고 가깝게 질러 통(通)하는 길</t>
+          <t>첩경</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5143,6 +5143,112 @@
         </is>
       </c>
     </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>孤孑單身</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>고혈단신, 혈육(血肉)이 없는 외로운 신세(身世).</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>磨杵作針</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>마저작침, 아무리 어려운 일이라도 꾸준히 노력하면 이룰 수 있다는 뜻.</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>磨斧作針</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>마부작침, (=마저작침)</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>百尺竿頭</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>백척간두, 「백 자나 되는 높은 장대 위에 올라섰다.」는 뜻으로, 위태(危殆)로움이 극도(極度)에 달함.</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>輾轉反側</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>전전반측, 1. 「이리 뒤척 저리 뒤척 한다.」는 뜻으로,
+2. 걱정거리로 마음이 괴로워 잠을 이루지 못함을 이르는 말.
+3. 원래(原來)는 「미인(美人)을 사모(思慕)하여 잠을 이루지 못함.」을 이르는 표현(表現)임.</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>錦衣夜行</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>금의야행, 1. 「비단옷(緋緞-)을 입고 밤길을 간다.」는 뜻으로,
+2. 아무 보람없는 행동(行動)을 비유(比喩ㆍ譬喩)하여 이르는 말.
+3. 또는 입신출세(立身出世)하여 고향(故鄕)으로 돌아가지 않음을 이르는 말.</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/학습자료/단답형/국어_복습_한자어.xlsx
+++ b/학습자료/단답형/국어_복습_한자어.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D370"/>
+  <dimension ref="A1:D565"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7190,6 +7190,3549 @@
       </c>
       <c r="D370" t="inlineStr"/>
     </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>矛盾</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>모순</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D371" t="inlineStr"/>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>現象</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>현상</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D372" t="inlineStr"/>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>本質</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>본질</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D373" t="inlineStr"/>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>葛藤</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>갈등</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D374" t="inlineStr"/>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>假想</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>가상</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D375" t="inlineStr"/>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>根本</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>근본</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D376" t="inlineStr"/>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>敝衣破冠</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>폐의파관, 「해어진 옷과 부서진 갓」이라는 뜻으로, 너절하고 구차(苟且)한 차림새를 이르는 말.</t>
+        </is>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D377" t="inlineStr"/>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>敝袍破笠</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>폐포파립, 「해진 옷과 부러진 갓」이란 뜻으로, 너절하고 구차(苟且)한 차림새를 말함.</t>
+        </is>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D378" t="inlineStr"/>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>傾國之色</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>경국지색, 1.
+「나라를 기울일 만한 여자(女子)」라는 뜻으로,
+2.
+첫눈에 반할 만큼 매우 아름다운 여자(女子)
+3.
+나라를 위태(危殆)롭게 한다는 말.</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D379" t="inlineStr"/>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>鏡中美人</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>경중미인, 1.
+「거울 속의 미인(美人)」이라는 뜻으로,
+2.
+실속(實-)이 없는 일.
+3.
+실속(實-)보다는 겉치레 뿐인 사람.</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D380" t="inlineStr"/>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>指鹿爲馬</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>지록위마, 1.
+「사슴을 가리켜 말이라고 한다.」는 뜻으로,
+2.
+사실(事實)이 아닌 것을 사실(事實)로 만들어 강압(強壓)으로 인정(認定)하게 됨.
+3.
+윗사람을 농락(籠絡)하여 권세(權勢)를 마음대로 함.</t>
+        </is>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D381" t="inlineStr"/>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>芝蘭之化</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>지란지화, 좋은 친구(親舊)와 사귀면 자연(自然)히 그 아름다운 덕에 감화(感化)됨을 이르는 말.</t>
+        </is>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D382" t="inlineStr"/>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>目不忍見</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>목불인견, 1. 차마 눈으로 볼 수 없을 정도(程度)로 딱하거나 참혹(慘酷)한 상황(狀況).</t>
+        </is>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D383" t="inlineStr"/>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>機會</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>기회</t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D384" t="inlineStr"/>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>役割</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>역할</t>
+        </is>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D385" t="inlineStr"/>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>懷疑</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>회의</t>
+        </is>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D386" t="inlineStr"/>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>會議</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>회의</t>
+        </is>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D387" t="inlineStr"/>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>共有</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>공유</t>
+        </is>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D388" t="inlineStr"/>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>公有</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>공유</t>
+        </is>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D389" t="inlineStr"/>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>法古創新</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>법고창신, 「옛것을 본받아 새로운 것을 창조(創造)한다.」는 뜻으로, 옛것에 토대(土臺)를 두되 그것을 변화(變化)시킬 줄 알고 새 것을 만들어 가되 근본(根本)을 잃지 않아야 한다는 뜻.</t>
+        </is>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D390" t="inlineStr"/>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>物我一體</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>물아일체, 바깥 사물(事物)과 나, 객관(客觀)과 주관(主觀) 또는 물질계(物質界)와 정신계(精神界)가 어울려 한 몸으로 이루어진 그것.</t>
+        </is>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D391" t="inlineStr"/>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>滄桑世界</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>창상세계, 변(變)하고 변(變)하는 세상(世上).</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D392" t="inlineStr"/>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>區分</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>구분</t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D393" t="inlineStr"/>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>分類</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>분류</t>
+        </is>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D394" t="inlineStr"/>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>辨明</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>변명</t>
+        </is>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D395" t="inlineStr"/>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>決裁</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>결재</t>
+        </is>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D396" t="inlineStr"/>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>再考</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>재고</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D397" t="inlineStr"/>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>運命</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>운명</t>
+        </is>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D398" t="inlineStr"/>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>自敍傳</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>자서전</t>
+        </is>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D399" t="inlineStr"/>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>厭世的</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>염세적</t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D400" t="inlineStr"/>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>誠實</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>성실</t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D401" t="inlineStr"/>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>殞命</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>운명</t>
+        </is>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D402" t="inlineStr"/>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>成實</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>성실</t>
+        </is>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D403" t="inlineStr"/>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>昏定晨省</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>혼정신성, 「저녁에는 잠자리를 보아 드리고, 아침에는 문안(問安)을 드린다.」는 뜻으로, 「자식(子息)이 아침저녁으로 부모(父母)의 안부(安否)를 물어서 살핌.」을 이르는 말.</t>
+        </is>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D404" t="inlineStr"/>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>肝膽相照</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>간담상조, 「간과 쓸개를 내놓고 서로에게 내보인다.」는 뜻으로, 서로 마음을 터놓고 친밀(親密)히 사귐.</t>
+        </is>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D405" t="inlineStr"/>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>磨斧爲針</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>마부위침, 「도끼를 갈아 바늘을 만든다.」는 뜻으로, 아무리 이루기 힘든 일도 끊임없는 노력(努力)과 끈기 있는 인내(忍耐)로 성공(成功)하고야 만다는 뜻.</t>
+        </is>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D406" t="inlineStr"/>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>孤掌難鳴</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>고장난명, 1.
+「외손뼉은 울릴 수 없다.」는 뜻으로,
+2.
+혼자서는 어떤 일을 이룰 수 없다는 말.
+3.
+상대(相對) 없이는 싸움이 일어나지 않음을 이르는 말.</t>
+        </is>
+      </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D407" t="inlineStr"/>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>選出</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>선출</t>
+        </is>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D408" t="inlineStr"/>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>先出</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>선출</t>
+        </is>
+      </c>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D409" t="inlineStr"/>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>規律</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>규율</t>
+        </is>
+      </c>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D410" t="inlineStr"/>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>老衰</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>노쇠</t>
+        </is>
+      </c>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D411" t="inlineStr"/>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>推戴</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>추대</t>
+        </is>
+      </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D412" t="inlineStr"/>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>丹脣皓齒</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>단순호치, 1.
+「붉은 입술과 하얀 이」란 뜻으로,
+2.
+여자(女子)의 아름다운 얼굴을 이르는 말.
+3.
+미인(美人)의 얼굴.</t>
+        </is>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D413" t="inlineStr"/>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>芝蘭之交</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>지란지교, 「지초(芝草)와 난초(蘭草) 같은 향기(香氣)로운 사귐」이라는 뜻으로, 「벗 사이의 고상(高尙)한 교제(交際)」를 이르는 말.</t>
+        </is>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D414" t="inlineStr"/>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>金蘭之契</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>금란지계, 「쇠처럼 단단하고 난초(蘭草) 향기(香氣)처럼 그윽한 사귐의 의리(義理)를 맺는다.」는 뜻으로, 사이 좋은 벗끼리 마음을 합치면 단단한 쇠도 자를 수 있고, 우정(友情)의 아름다움은 난의 향기(香氣)와 같이 아주 친밀(親密)한 친구(親舊) 사이를 이름.</t>
+        </is>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D415" t="inlineStr"/>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>刎頸之交</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>문경지교, 「목을 벨 수 있는 벗」이라는 뜻으로, 생사(生死)를 같이 할 수 있는 매우 소중(所重)한 벗.</t>
+        </is>
+      </c>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D416" t="inlineStr"/>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>浮上</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>부상</t>
+        </is>
+      </c>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D417" t="inlineStr"/>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>負傷</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>부상</t>
+        </is>
+      </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D418" t="inlineStr"/>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>所願</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>소원</t>
+        </is>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D419" t="inlineStr"/>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>訴願</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>소원</t>
+        </is>
+      </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D420" t="inlineStr"/>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>常識</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>상식</t>
+        </is>
+      </c>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D421" t="inlineStr"/>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>公理</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>공리</t>
+        </is>
+      </c>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D422" t="inlineStr"/>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>恣意的</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>자의적</t>
+        </is>
+      </c>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D423" t="inlineStr"/>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>聯關性</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>연관성</t>
+        </is>
+      </c>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D424" t="inlineStr"/>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>輾轉不寐</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>전전불매, 누워서 이리저리 뒤척이며 잠을 이루지 못한다는 말.</t>
+        </is>
+      </c>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D425" t="inlineStr"/>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>琴瑟之樂</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>금슬지락, 「거문고와 비파(琵琶)의 조화(調和)로운 소리」라는 뜻으로, 부부(夫婦) 사이의 다정(多情)하고 화목(和睦)한 즐거움.</t>
+        </is>
+      </c>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D426" t="inlineStr"/>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>花朝月夕</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>화조월석, 1.
+「꽃이 핀 아침과 달 밝은 저녁」이란 뜻으로,
+2.
+「경치(景致)가 가장 좋은 때」를 이르는 말.
+3.
+음력(陰曆) 2월 보름과 8월 보름 밤. 봄과 가을.</t>
+        </is>
+      </c>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D427" t="inlineStr"/>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>韋編三絶</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>위편삼절, 공자(孔子)가 책을 하도 많이 읽어서 그것을 엮어 놓은 끈이 세 번이나 끊어졌다.</t>
+        </is>
+      </c>
+      <c r="C428" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D428" t="inlineStr"/>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>莫無可奈</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>막무가내, 도무지 어찌할 수 없음.</t>
+        </is>
+      </c>
+      <c r="C429" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D429" t="inlineStr"/>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>周旋</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>주선</t>
+        </is>
+      </c>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D430" t="inlineStr"/>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>收斂</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>수렴</t>
+        </is>
+      </c>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D431" t="inlineStr"/>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>未達</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>미달</t>
+        </is>
+      </c>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D432" t="inlineStr"/>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>思惟</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>사유</t>
+        </is>
+      </c>
+      <c r="C433" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D433" t="inlineStr"/>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>한가할 한</t>
+        </is>
+      </c>
+      <c r="C434" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D434" t="inlineStr"/>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>濁</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>흐릴 탁</t>
+        </is>
+      </c>
+      <c r="C435" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D435" t="inlineStr"/>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>奢</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>사치할 사</t>
+        </is>
+      </c>
+      <c r="C436" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D436" t="inlineStr"/>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>三顧草廬</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>삼고초려</t>
+        </is>
+      </c>
+      <c r="C437" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D437" t="inlineStr"/>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>類類相從</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>유유상종, 사물(事物)은 같은 무리끼리 따르고, 같은 사람은 서로 찾아 모인다는 뜻.</t>
+        </is>
+      </c>
+      <c r="C438" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D438" t="inlineStr"/>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>如反掌</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>여반장</t>
+        </is>
+      </c>
+      <c r="C439" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D439" t="inlineStr"/>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>苦肉之策</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>고육지책, 적(敵)을 속이는 수단(手段)으로서 제 몸 괴롭히는 것을 돌보지 않고 쓰는 계책(計策).</t>
+        </is>
+      </c>
+      <c r="C440" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D440" t="inlineStr"/>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>孤獨</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>고독</t>
+        </is>
+      </c>
+      <c r="C441" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D441" t="inlineStr"/>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>獨</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>홀로 독</t>
+        </is>
+      </c>
+      <c r="C442" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D442" t="inlineStr"/>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>孤立無援</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>고립무원, 고립(孤立)되어 도움을 받을 데가 없음.</t>
+        </is>
+      </c>
+      <c r="C443" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D443" t="inlineStr"/>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>援</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>도울 원</t>
+        </is>
+      </c>
+      <c r="C444" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D444" t="inlineStr"/>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>掌</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>손바닥 장, 맡을 장</t>
+        </is>
+      </c>
+      <c r="C445" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D445" t="inlineStr"/>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>掌握</t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>장악</t>
+        </is>
+      </c>
+      <c r="C446" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D446" t="inlineStr"/>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>管掌</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>관장</t>
+        </is>
+      </c>
+      <c r="C447" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D447" t="inlineStr"/>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>管</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>대롱 관, 주관할 관</t>
+        </is>
+      </c>
+      <c r="C448" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D448" t="inlineStr"/>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>拍掌大笑</t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>박장대소</t>
+        </is>
+      </c>
+      <c r="C449" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D449" t="inlineStr"/>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>拍</t>
+        </is>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>칠 박</t>
+        </is>
+      </c>
+      <c r="C450" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D450" t="inlineStr"/>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>笑</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>웃을 소</t>
+        </is>
+      </c>
+      <c r="C451" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D451" t="inlineStr"/>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>難</t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>어려울 난</t>
+        </is>
+      </c>
+      <c r="C452" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D452" t="inlineStr"/>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>難解</t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>난해</t>
+        </is>
+      </c>
+      <c r="C453" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D453" t="inlineStr"/>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>艱難辛苦</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>간난신고, 「몹시 고되고 어렵고 맵고 쓰다.」는 뜻으로, 몹시 힘든 고생(苦生)을 이르는 말.</t>
+        </is>
+      </c>
+      <c r="C454" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D454" t="inlineStr"/>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>艱</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>어려울 간</t>
+        </is>
+      </c>
+      <c r="C455" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D455" t="inlineStr"/>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>難攻不落</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>난공불락</t>
+        </is>
+      </c>
+      <c r="C456" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D456" t="inlineStr"/>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>攻</t>
+        </is>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>칠 공</t>
+        </is>
+      </c>
+      <c r="C457" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D457" t="inlineStr"/>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>難兄難弟</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>난형난제</t>
+        </is>
+      </c>
+      <c r="C458" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D458" t="inlineStr"/>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>鳴</t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>울 명</t>
+        </is>
+      </c>
+      <c r="C459" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D459" t="inlineStr"/>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>悲鳴</t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>비명</t>
+        </is>
+      </c>
+      <c r="C460" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D460" t="inlineStr"/>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>自鳴鐘</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>자명종</t>
+        </is>
+      </c>
+      <c r="C461" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D461" t="inlineStr"/>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>鐘</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>시계 종</t>
+        </is>
+      </c>
+      <c r="C462" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D462" t="inlineStr"/>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>百家爭鳴</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>백가쟁명, 1.
+여러 사람이 서로 자기(自己) 주장(主張)을 내세우는 일.
+2.
+많은 학자(學者)들의 활발(活潑)한 논쟁(論爭).</t>
+        </is>
+      </c>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D463" t="inlineStr"/>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>策</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>꾀 책</t>
+        </is>
+      </c>
+      <c r="C464" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D464" t="inlineStr"/>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>姑息策</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>고식책</t>
+        </is>
+      </c>
+      <c r="C465" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D465" t="inlineStr"/>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>苦肉策</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>고육책</t>
+        </is>
+      </c>
+      <c r="C466" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D466" t="inlineStr"/>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>苦悶</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>고민</t>
+        </is>
+      </c>
+      <c r="C467" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D467" t="inlineStr"/>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>苦痛</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>고통</t>
+        </is>
+      </c>
+      <c r="C468" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D468" t="inlineStr"/>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>肉體</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>육체</t>
+        </is>
+      </c>
+      <c r="C469" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D469" t="inlineStr"/>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>對策</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>대책</t>
+        </is>
+      </c>
+      <c r="C470" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D470" t="inlineStr"/>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>彌縫策</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>미봉책</t>
+        </is>
+      </c>
+      <c r="C471" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D471" t="inlineStr"/>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>索</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>찾을 색</t>
+        </is>
+      </c>
+      <c r="C472" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D472" t="inlineStr"/>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>索出</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>색출</t>
+        </is>
+      </c>
+      <c r="C473" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D473" t="inlineStr"/>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>檢索</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>검색</t>
+        </is>
+      </c>
+      <c r="C474" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D474" t="inlineStr"/>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>索引</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>색인</t>
+        </is>
+      </c>
+      <c r="C475" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D475" t="inlineStr"/>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>引上</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>인상</t>
+        </is>
+      </c>
+      <c r="C476" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D476" t="inlineStr"/>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>索莫</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>삭막</t>
+        </is>
+      </c>
+      <c r="C477" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D477" t="inlineStr"/>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>搜索</t>
+        </is>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>수색</t>
+        </is>
+      </c>
+      <c r="C478" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D478" t="inlineStr"/>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>拓本</t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>탁본</t>
+        </is>
+      </c>
+      <c r="C479" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D479" t="inlineStr"/>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>拒否</t>
+        </is>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>거부</t>
+        </is>
+      </c>
+      <c r="C480" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D480" t="inlineStr"/>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>與否</t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>여부</t>
+        </is>
+      </c>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D481" t="inlineStr"/>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>否認</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>부인</t>
+        </is>
+      </c>
+      <c r="C482" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D482" t="inlineStr"/>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>否決</t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>부결</t>
+        </is>
+      </c>
+      <c r="C483" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D483" t="inlineStr"/>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>否定</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>부정</t>
+        </is>
+      </c>
+      <c r="C484" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D484" t="inlineStr"/>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>否塞</t>
+        </is>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>비색</t>
+        </is>
+      </c>
+      <c r="C485" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D485" t="inlineStr"/>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>塞翁之馬</t>
+        </is>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>새옹지마</t>
+        </is>
+      </c>
+      <c r="C486" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D486" t="inlineStr"/>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>塞</t>
+        </is>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>변방 새, 막힐 색</t>
+        </is>
+      </c>
+      <c r="C487" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D487" t="inlineStr"/>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>語塞</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>어색</t>
+        </is>
+      </c>
+      <c r="C488" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D488" t="inlineStr"/>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>否運</t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>비운</t>
+        </is>
+      </c>
+      <c r="C489" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D489" t="inlineStr"/>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>不動産</t>
+        </is>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>부동산</t>
+        </is>
+      </c>
+      <c r="C490" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D490" t="inlineStr"/>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>不滿</t>
+        </is>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>불만</t>
+        </is>
+      </c>
+      <c r="C491" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D491" t="inlineStr"/>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>不足</t>
+        </is>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>부족</t>
+        </is>
+      </c>
+      <c r="C492" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D492" t="inlineStr"/>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>不可能</t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>불가능</t>
+        </is>
+      </c>
+      <c r="C493" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D493" t="inlineStr"/>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>不安</t>
+        </is>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>불안</t>
+        </is>
+      </c>
+      <c r="C494" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D494" t="inlineStr"/>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>否定</t>
+        </is>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>부정</t>
+        </is>
+      </c>
+      <c r="C495" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D495" t="inlineStr"/>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>肯定</t>
+        </is>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>긍정</t>
+        </is>
+      </c>
+      <c r="C496" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D496" t="inlineStr"/>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>肯</t>
+        </is>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>즐길 긍</t>
+        </is>
+      </c>
+      <c r="C497" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D497" t="inlineStr"/>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>不正</t>
+        </is>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>부정</t>
+        </is>
+      </c>
+      <c r="C498" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D498" t="inlineStr"/>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>不定</t>
+        </is>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>부정</t>
+        </is>
+      </c>
+      <c r="C499" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D499" t="inlineStr"/>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>不淨</t>
+        </is>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>부정</t>
+        </is>
+      </c>
+      <c r="C500" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D500" t="inlineStr"/>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>淨</t>
+        </is>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>깨끗할 정</t>
+        </is>
+      </c>
+      <c r="C501" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D501" t="inlineStr"/>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>不貞</t>
+        </is>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>부정</t>
+        </is>
+      </c>
+      <c r="C502" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D502" t="inlineStr"/>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>拓</t>
+        </is>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>넓힐 척, 박을 탁</t>
+        </is>
+      </c>
+      <c r="C503" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D503" t="inlineStr"/>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>開拓</t>
+        </is>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>개척</t>
+        </is>
+      </c>
+      <c r="C504" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D504" t="inlineStr"/>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>干拓地</t>
+        </is>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>간척지</t>
+        </is>
+      </c>
+      <c r="C505" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D505" t="inlineStr"/>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>拓本</t>
+        </is>
+      </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>탁본</t>
+        </is>
+      </c>
+      <c r="C506" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D506" t="inlineStr"/>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>更</t>
+        </is>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>고칠 경, 다시 갱</t>
+        </is>
+      </c>
+      <c r="C507" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D507" t="inlineStr"/>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>變更</t>
+        </is>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>변경</t>
+        </is>
+      </c>
+      <c r="C508" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D508" t="inlineStr"/>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>更任</t>
+        </is>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>경임</t>
+        </is>
+      </c>
+      <c r="C509" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D509" t="inlineStr"/>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>更生</t>
+        </is>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>갱생</t>
+        </is>
+      </c>
+      <c r="C510" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D510" t="inlineStr"/>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>更新</t>
+        </is>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>갱신, 경신</t>
+        </is>
+      </c>
+      <c r="C511" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D511" t="inlineStr"/>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>搨本</t>
+        </is>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>탑본</t>
+        </is>
+      </c>
+      <c r="C512" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D512" t="inlineStr"/>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>說</t>
+        </is>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>말씀 설, 달랠 세, 기뻐할 열, 벗을 탈</t>
+        </is>
+      </c>
+      <c r="C513" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D513" t="inlineStr"/>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>遊說</t>
+        </is>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>유세</t>
+        </is>
+      </c>
+      <c r="C514" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D514" t="inlineStr"/>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>遊</t>
+        </is>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>놀 유</t>
+        </is>
+      </c>
+      <c r="C515" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D515" t="inlineStr"/>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>誘說</t>
+        </is>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>유세</t>
+        </is>
+      </c>
+      <c r="C516" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D516" t="inlineStr"/>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>誘</t>
+        </is>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>꾈 유</t>
+        </is>
+      </c>
+      <c r="C517" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D517" t="inlineStr"/>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>租</t>
+        </is>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>조세 조</t>
+        </is>
+      </c>
+      <c r="C518" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D518" t="inlineStr"/>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>租稅</t>
+        </is>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>조세</t>
+        </is>
+      </c>
+      <c r="C519" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D519" t="inlineStr"/>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>龜裂</t>
+        </is>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>균열</t>
+        </is>
+      </c>
+      <c r="C520" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D520" t="inlineStr"/>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>嗚咽</t>
+        </is>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>오열</t>
+        </is>
+      </c>
+      <c r="C521" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D521" t="inlineStr"/>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>會</t>
+        </is>
+      </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>모일 회</t>
+        </is>
+      </c>
+      <c r="C522" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D522" t="inlineStr"/>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>會務</t>
+        </is>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>회무</t>
+        </is>
+      </c>
+      <c r="C523" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D523" t="inlineStr"/>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>會則</t>
+        </is>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>회칙</t>
+        </is>
+      </c>
+      <c r="C524" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D524" t="inlineStr"/>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>會合</t>
+        </is>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>회합</t>
+        </is>
+      </c>
+      <c r="C525" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D525" t="inlineStr"/>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>會同</t>
+        </is>
+      </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>회동</t>
+        </is>
+      </c>
+      <c r="C526" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D526" t="inlineStr"/>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>社會</t>
+        </is>
+      </c>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>사회</t>
+        </is>
+      </c>
+      <c r="C527" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D527" t="inlineStr"/>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>社</t>
+        </is>
+      </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>모일 사</t>
+        </is>
+      </c>
+      <c r="C528" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D528" t="inlineStr"/>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>國會</t>
+        </is>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>국회</t>
+        </is>
+      </c>
+      <c r="C529" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D529" t="inlineStr"/>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>機會</t>
+        </is>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>기회</t>
+        </is>
+      </c>
+      <c r="C530" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D530" t="inlineStr"/>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>機</t>
+        </is>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>베틀 기, 틀 기, 기회 기</t>
+        </is>
+      </c>
+      <c r="C531" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D531" t="inlineStr"/>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>會談</t>
+        </is>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>회담</t>
+        </is>
+      </c>
+      <c r="C532" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D532" t="inlineStr"/>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>契機</t>
+        </is>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>계기</t>
+        </is>
+      </c>
+      <c r="C533" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D533" t="inlineStr"/>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>契</t>
+        </is>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>맺을 계</t>
+        </is>
+      </c>
+      <c r="C534" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D534" t="inlineStr"/>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>機關</t>
+        </is>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>기관</t>
+        </is>
+      </c>
+      <c r="C535" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D535" t="inlineStr"/>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>關</t>
+        </is>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>관계할 관</t>
+        </is>
+      </c>
+      <c r="C536" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D536" t="inlineStr"/>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>危機</t>
+        </is>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>위기</t>
+        </is>
+      </c>
+      <c r="C537" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D537" t="inlineStr"/>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>臨機應變</t>
+        </is>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>임기응변</t>
+        </is>
+      </c>
+      <c r="C538" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D538" t="inlineStr"/>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>應</t>
+        </is>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>응할 응</t>
+        </is>
+      </c>
+      <c r="C539" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D539" t="inlineStr"/>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>役</t>
+        </is>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>부릴 역</t>
+        </is>
+      </c>
+      <c r="C540" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D540" t="inlineStr"/>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>投</t>
+        </is>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>던질 투</t>
+        </is>
+      </c>
+      <c r="C541" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D541" t="inlineStr"/>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>役割</t>
+        </is>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>역할</t>
+        </is>
+      </c>
+      <c r="C542" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D542" t="inlineStr"/>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>用役</t>
+        </is>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>용역</t>
+        </is>
+      </c>
+      <c r="C543" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D543" t="inlineStr"/>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>現役</t>
+        </is>
+      </c>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>현역</t>
+        </is>
+      </c>
+      <c r="C544" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D544" t="inlineStr"/>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>懲役</t>
+        </is>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>징역</t>
+        </is>
+      </c>
+      <c r="C545" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D545" t="inlineStr"/>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>義</t>
+        </is>
+      </c>
+      <c r="B546" t="inlineStr">
+        <is>
+          <t>옳을 의</t>
+        </is>
+      </c>
+      <c r="C546" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D546" t="inlineStr"/>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>義務</t>
+        </is>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>의무</t>
+        </is>
+      </c>
+      <c r="C547" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D547" t="inlineStr"/>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>講</t>
+        </is>
+      </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>외울 강</t>
+        </is>
+      </c>
+      <c r="C548" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D548" t="inlineStr"/>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>講義</t>
+        </is>
+      </c>
+      <c r="B549" t="inlineStr">
+        <is>
+          <t>강의</t>
+        </is>
+      </c>
+      <c r="C549" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D549" t="inlineStr"/>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>捨生取義</t>
+        </is>
+      </c>
+      <c r="B550" t="inlineStr">
+        <is>
+          <t>사생취의, 「목숨을 버리고 의리(義理)를 좇는다.」는 뜻으로, 「비록 목숨을 버릴지언정 옳은 일을 함.」을 일컫는 말.</t>
+        </is>
+      </c>
+      <c r="C550" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D550" t="inlineStr"/>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>見利思義</t>
+        </is>
+      </c>
+      <c r="B551" t="inlineStr">
+        <is>
+          <t>견리사의, 눈앞의 이익을 보면 의리(義理)를 먼저 생각함.</t>
+        </is>
+      </c>
+      <c r="C551" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D551" t="inlineStr"/>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>議</t>
+        </is>
+      </c>
+      <c r="B552" t="inlineStr">
+        <is>
+          <t>의논할 의</t>
+        </is>
+      </c>
+      <c r="C552" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D552" t="inlineStr"/>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>議員</t>
+        </is>
+      </c>
+      <c r="B553" t="inlineStr">
+        <is>
+          <t>의원</t>
+        </is>
+      </c>
+      <c r="C553" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D553" t="inlineStr"/>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>員</t>
+        </is>
+      </c>
+      <c r="B554" t="inlineStr">
+        <is>
+          <t>인원 원</t>
+        </is>
+      </c>
+      <c r="C554" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D554" t="inlineStr"/>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>論議</t>
+        </is>
+      </c>
+      <c r="B555" t="inlineStr">
+        <is>
+          <t>논의</t>
+        </is>
+      </c>
+      <c r="C555" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D555" t="inlineStr"/>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>協議</t>
+        </is>
+      </c>
+      <c r="B556" t="inlineStr">
+        <is>
+          <t>협의</t>
+        </is>
+      </c>
+      <c r="C556" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D556" t="inlineStr"/>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>協</t>
+        </is>
+      </c>
+      <c r="B557" t="inlineStr">
+        <is>
+          <t>협력할 협</t>
+        </is>
+      </c>
+      <c r="C557" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D557" t="inlineStr"/>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>討議</t>
+        </is>
+      </c>
+      <c r="B558" t="inlineStr">
+        <is>
+          <t>토의</t>
+        </is>
+      </c>
+      <c r="C558" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D558" t="inlineStr"/>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>討</t>
+        </is>
+      </c>
+      <c r="B559" t="inlineStr">
+        <is>
+          <t>칠 토</t>
+        </is>
+      </c>
+      <c r="C559" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D559" t="inlineStr"/>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>抗議</t>
+        </is>
+      </c>
+      <c r="B560" t="inlineStr">
+        <is>
+          <t>항의</t>
+        </is>
+      </c>
+      <c r="C560" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D560" t="inlineStr"/>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>懷</t>
+        </is>
+      </c>
+      <c r="B561" t="inlineStr">
+        <is>
+          <t>품을 회</t>
+        </is>
+      </c>
+      <c r="C561" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D561" t="inlineStr"/>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>懷柔</t>
+        </is>
+      </c>
+      <c r="B562" t="inlineStr">
+        <is>
+          <t>회유</t>
+        </is>
+      </c>
+      <c r="C562" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D562" t="inlineStr"/>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>懷疑</t>
+        </is>
+      </c>
+      <c r="B563" t="inlineStr">
+        <is>
+          <t>회의</t>
+        </is>
+      </c>
+      <c r="C563" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D563" t="inlineStr"/>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>懷抱</t>
+        </is>
+      </c>
+      <c r="B564" t="inlineStr">
+        <is>
+          <t>회포</t>
+        </is>
+      </c>
+      <c r="C564" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D564" t="inlineStr"/>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>抱</t>
+        </is>
+      </c>
+      <c r="B565" t="inlineStr">
+        <is>
+          <t>안을 포</t>
+        </is>
+      </c>
+      <c r="C565" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="D565" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/학습자료/단답형/국어_복습_한자어.xlsx
+++ b/학습자료/단답형/국어_복습_한자어.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/학습자료/단답형/국어_복습_한자어.xlsx
+++ b/학습자료/단답형/국어_복습_한자어.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U713"/>
+  <dimension ref="A1:U867"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46841,6 +46841,5396 @@
       </c>
       <c r="U713" t="inlineStr"/>
     </row>
+    <row r="714">
+      <c r="A714" t="inlineStr"/>
+      <c r="B714" t="inlineStr"/>
+      <c r="C714" t="inlineStr"/>
+      <c r="D714" t="inlineStr"/>
+      <c r="E714" t="inlineStr"/>
+      <c r="F714" t="inlineStr"/>
+      <c r="G714" t="inlineStr"/>
+      <c r="H714" t="inlineStr"/>
+      <c r="I714" t="inlineStr"/>
+      <c r="J714" t="inlineStr"/>
+      <c r="K714" t="inlineStr"/>
+      <c r="L714" t="inlineStr"/>
+      <c r="M714" t="inlineStr"/>
+      <c r="N714" t="inlineStr"/>
+      <c r="O714" t="inlineStr"/>
+      <c r="P714" t="inlineStr"/>
+      <c r="Q714" t="inlineStr"/>
+      <c r="R714" t="inlineStr">
+        <is>
+          <t>斷機之戒</t>
+        </is>
+      </c>
+      <c r="S714" t="inlineStr">
+        <is>
+          <t>단기지계|학문을 중도에서 그만두면 아무 쓸모없이 된다</t>
+        </is>
+      </c>
+      <c r="T714" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U714" t="inlineStr"/>
+    </row>
+    <row r="715">
+      <c r="A715" t="inlineStr"/>
+      <c r="B715" t="inlineStr"/>
+      <c r="C715" t="inlineStr"/>
+      <c r="D715" t="inlineStr"/>
+      <c r="E715" t="inlineStr"/>
+      <c r="F715" t="inlineStr"/>
+      <c r="G715" t="inlineStr"/>
+      <c r="H715" t="inlineStr"/>
+      <c r="I715" t="inlineStr"/>
+      <c r="J715" t="inlineStr"/>
+      <c r="K715" t="inlineStr"/>
+      <c r="L715" t="inlineStr"/>
+      <c r="M715" t="inlineStr"/>
+      <c r="N715" t="inlineStr"/>
+      <c r="O715" t="inlineStr"/>
+      <c r="P715" t="inlineStr"/>
+      <c r="Q715" t="inlineStr"/>
+      <c r="R715" t="inlineStr">
+        <is>
+          <t>斑衣之戱</t>
+        </is>
+      </c>
+      <c r="S715" t="inlineStr">
+        <is>
+          <t>반의지희|늙어서도 부모에게 효양함</t>
+        </is>
+      </c>
+      <c r="T715" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U715" t="inlineStr"/>
+    </row>
+    <row r="716">
+      <c r="A716" t="inlineStr"/>
+      <c r="B716" t="inlineStr"/>
+      <c r="C716" t="inlineStr"/>
+      <c r="D716" t="inlineStr"/>
+      <c r="E716" t="inlineStr"/>
+      <c r="F716" t="inlineStr"/>
+      <c r="G716" t="inlineStr"/>
+      <c r="H716" t="inlineStr"/>
+      <c r="I716" t="inlineStr"/>
+      <c r="J716" t="inlineStr"/>
+      <c r="K716" t="inlineStr"/>
+      <c r="L716" t="inlineStr"/>
+      <c r="M716" t="inlineStr"/>
+      <c r="N716" t="inlineStr"/>
+      <c r="O716" t="inlineStr"/>
+      <c r="P716" t="inlineStr"/>
+      <c r="Q716" t="inlineStr"/>
+      <c r="R716" t="inlineStr">
+        <is>
+          <t>陸績懷橘</t>
+        </is>
+      </c>
+      <c r="S716" t="inlineStr">
+        <is>
+          <t>육적회귤|귤 세 개를 가슴 속에 숨겨 어머니에게 드리려 했던 일</t>
+        </is>
+      </c>
+      <c r="T716" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U716" t="inlineStr"/>
+    </row>
+    <row r="717">
+      <c r="A717" t="inlineStr"/>
+      <c r="B717" t="inlineStr"/>
+      <c r="C717" t="inlineStr"/>
+      <c r="D717" t="inlineStr"/>
+      <c r="E717" t="inlineStr"/>
+      <c r="F717" t="inlineStr"/>
+      <c r="G717" t="inlineStr"/>
+      <c r="H717" t="inlineStr"/>
+      <c r="I717" t="inlineStr"/>
+      <c r="J717" t="inlineStr"/>
+      <c r="K717" t="inlineStr"/>
+      <c r="L717" t="inlineStr"/>
+      <c r="M717" t="inlineStr"/>
+      <c r="N717" t="inlineStr"/>
+      <c r="O717" t="inlineStr"/>
+      <c r="P717" t="inlineStr"/>
+      <c r="Q717" t="inlineStr"/>
+      <c r="R717" t="inlineStr">
+        <is>
+          <t>確固</t>
+        </is>
+      </c>
+      <c r="S717" t="inlineStr">
+        <is>
+          <t>확고</t>
+        </is>
+      </c>
+      <c r="T717" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U717" t="inlineStr"/>
+    </row>
+    <row r="718">
+      <c r="A718" t="inlineStr"/>
+      <c r="B718" t="inlineStr"/>
+      <c r="C718" t="inlineStr"/>
+      <c r="D718" t="inlineStr"/>
+      <c r="E718" t="inlineStr"/>
+      <c r="F718" t="inlineStr"/>
+      <c r="G718" t="inlineStr"/>
+      <c r="H718" t="inlineStr"/>
+      <c r="I718" t="inlineStr"/>
+      <c r="J718" t="inlineStr"/>
+      <c r="K718" t="inlineStr"/>
+      <c r="L718" t="inlineStr"/>
+      <c r="M718" t="inlineStr"/>
+      <c r="N718" t="inlineStr"/>
+      <c r="O718" t="inlineStr"/>
+      <c r="P718" t="inlineStr"/>
+      <c r="Q718" t="inlineStr"/>
+      <c r="R718" t="inlineStr">
+        <is>
+          <t>消滅</t>
+        </is>
+      </c>
+      <c r="S718" t="inlineStr">
+        <is>
+          <t>소멸</t>
+        </is>
+      </c>
+      <c r="T718" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U718" t="inlineStr"/>
+    </row>
+    <row r="719">
+      <c r="A719" t="inlineStr"/>
+      <c r="B719" t="inlineStr"/>
+      <c r="C719" t="inlineStr"/>
+      <c r="D719" t="inlineStr"/>
+      <c r="E719" t="inlineStr"/>
+      <c r="F719" t="inlineStr"/>
+      <c r="G719" t="inlineStr"/>
+      <c r="H719" t="inlineStr"/>
+      <c r="I719" t="inlineStr"/>
+      <c r="J719" t="inlineStr"/>
+      <c r="K719" t="inlineStr"/>
+      <c r="L719" t="inlineStr"/>
+      <c r="M719" t="inlineStr"/>
+      <c r="N719" t="inlineStr"/>
+      <c r="O719" t="inlineStr"/>
+      <c r="P719" t="inlineStr"/>
+      <c r="Q719" t="inlineStr"/>
+      <c r="R719" t="inlineStr">
+        <is>
+          <t>困惑</t>
+        </is>
+      </c>
+      <c r="S719" t="inlineStr">
+        <is>
+          <t>곤혹</t>
+        </is>
+      </c>
+      <c r="T719" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U719" t="inlineStr"/>
+    </row>
+    <row r="720">
+      <c r="A720" t="inlineStr"/>
+      <c r="B720" t="inlineStr"/>
+      <c r="C720" t="inlineStr"/>
+      <c r="D720" t="inlineStr"/>
+      <c r="E720" t="inlineStr"/>
+      <c r="F720" t="inlineStr"/>
+      <c r="G720" t="inlineStr"/>
+      <c r="H720" t="inlineStr"/>
+      <c r="I720" t="inlineStr"/>
+      <c r="J720" t="inlineStr"/>
+      <c r="K720" t="inlineStr"/>
+      <c r="L720" t="inlineStr"/>
+      <c r="M720" t="inlineStr"/>
+      <c r="N720" t="inlineStr"/>
+      <c r="O720" t="inlineStr"/>
+      <c r="P720" t="inlineStr"/>
+      <c r="Q720" t="inlineStr"/>
+      <c r="R720" t="inlineStr">
+        <is>
+          <t>健實</t>
+        </is>
+      </c>
+      <c r="S720" t="inlineStr">
+        <is>
+          <t>건실</t>
+        </is>
+      </c>
+      <c r="T720" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U720" t="inlineStr"/>
+    </row>
+    <row r="721">
+      <c r="A721" t="inlineStr"/>
+      <c r="B721" t="inlineStr"/>
+      <c r="C721" t="inlineStr"/>
+      <c r="D721" t="inlineStr"/>
+      <c r="E721" t="inlineStr"/>
+      <c r="F721" t="inlineStr"/>
+      <c r="G721" t="inlineStr"/>
+      <c r="H721" t="inlineStr"/>
+      <c r="I721" t="inlineStr"/>
+      <c r="J721" t="inlineStr"/>
+      <c r="K721" t="inlineStr"/>
+      <c r="L721" t="inlineStr"/>
+      <c r="M721" t="inlineStr"/>
+      <c r="N721" t="inlineStr"/>
+      <c r="O721" t="inlineStr"/>
+      <c r="P721" t="inlineStr"/>
+      <c r="Q721" t="inlineStr"/>
+      <c r="R721" t="inlineStr">
+        <is>
+          <t>確實</t>
+        </is>
+      </c>
+      <c r="S721" t="inlineStr">
+        <is>
+          <t>확실</t>
+        </is>
+      </c>
+      <c r="T721" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U721" t="inlineStr"/>
+    </row>
+    <row r="722">
+      <c r="A722" t="inlineStr"/>
+      <c r="B722" t="inlineStr"/>
+      <c r="C722" t="inlineStr"/>
+      <c r="D722" t="inlineStr"/>
+      <c r="E722" t="inlineStr"/>
+      <c r="F722" t="inlineStr"/>
+      <c r="G722" t="inlineStr"/>
+      <c r="H722" t="inlineStr"/>
+      <c r="I722" t="inlineStr"/>
+      <c r="J722" t="inlineStr"/>
+      <c r="K722" t="inlineStr"/>
+      <c r="L722" t="inlineStr"/>
+      <c r="M722" t="inlineStr"/>
+      <c r="N722" t="inlineStr"/>
+      <c r="O722" t="inlineStr"/>
+      <c r="P722" t="inlineStr"/>
+      <c r="Q722" t="inlineStr"/>
+      <c r="R722" t="inlineStr">
+        <is>
+          <t>消去</t>
+        </is>
+      </c>
+      <c r="S722" t="inlineStr">
+        <is>
+          <t>소거</t>
+        </is>
+      </c>
+      <c r="T722" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U722" t="inlineStr"/>
+    </row>
+    <row r="723">
+      <c r="A723" t="inlineStr"/>
+      <c r="B723" t="inlineStr"/>
+      <c r="C723" t="inlineStr"/>
+      <c r="D723" t="inlineStr"/>
+      <c r="E723" t="inlineStr"/>
+      <c r="F723" t="inlineStr"/>
+      <c r="G723" t="inlineStr"/>
+      <c r="H723" t="inlineStr"/>
+      <c r="I723" t="inlineStr"/>
+      <c r="J723" t="inlineStr"/>
+      <c r="K723" t="inlineStr"/>
+      <c r="L723" t="inlineStr"/>
+      <c r="M723" t="inlineStr"/>
+      <c r="N723" t="inlineStr"/>
+      <c r="O723" t="inlineStr"/>
+      <c r="P723" t="inlineStr"/>
+      <c r="Q723" t="inlineStr"/>
+      <c r="R723" t="inlineStr">
+        <is>
+          <t>消失</t>
+        </is>
+      </c>
+      <c r="S723" t="inlineStr">
+        <is>
+          <t>소실</t>
+        </is>
+      </c>
+      <c r="T723" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U723" t="inlineStr"/>
+    </row>
+    <row r="724">
+      <c r="A724" t="inlineStr"/>
+      <c r="B724" t="inlineStr"/>
+      <c r="C724" t="inlineStr"/>
+      <c r="D724" t="inlineStr"/>
+      <c r="E724" t="inlineStr"/>
+      <c r="F724" t="inlineStr"/>
+      <c r="G724" t="inlineStr"/>
+      <c r="H724" t="inlineStr"/>
+      <c r="I724" t="inlineStr"/>
+      <c r="J724" t="inlineStr"/>
+      <c r="K724" t="inlineStr"/>
+      <c r="L724" t="inlineStr"/>
+      <c r="M724" t="inlineStr"/>
+      <c r="N724" t="inlineStr"/>
+      <c r="O724" t="inlineStr"/>
+      <c r="P724" t="inlineStr"/>
+      <c r="Q724" t="inlineStr"/>
+      <c r="R724" t="inlineStr">
+        <is>
+          <t>燒失</t>
+        </is>
+      </c>
+      <c r="S724" t="inlineStr">
+        <is>
+          <t>소실</t>
+        </is>
+      </c>
+      <c r="T724" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U724" t="inlineStr"/>
+    </row>
+    <row r="725">
+      <c r="A725" t="inlineStr"/>
+      <c r="B725" t="inlineStr"/>
+      <c r="C725" t="inlineStr"/>
+      <c r="D725" t="inlineStr"/>
+      <c r="E725" t="inlineStr"/>
+      <c r="F725" t="inlineStr"/>
+      <c r="G725" t="inlineStr"/>
+      <c r="H725" t="inlineStr"/>
+      <c r="I725" t="inlineStr"/>
+      <c r="J725" t="inlineStr"/>
+      <c r="K725" t="inlineStr"/>
+      <c r="L725" t="inlineStr"/>
+      <c r="M725" t="inlineStr"/>
+      <c r="N725" t="inlineStr"/>
+      <c r="O725" t="inlineStr"/>
+      <c r="P725" t="inlineStr"/>
+      <c r="Q725" t="inlineStr"/>
+      <c r="R725" t="inlineStr">
+        <is>
+          <t>消盡</t>
+        </is>
+      </c>
+      <c r="S725" t="inlineStr">
+        <is>
+          <t>소진</t>
+        </is>
+      </c>
+      <c r="T725" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U725" t="inlineStr"/>
+    </row>
+    <row r="726">
+      <c r="A726" t="inlineStr"/>
+      <c r="B726" t="inlineStr"/>
+      <c r="C726" t="inlineStr"/>
+      <c r="D726" t="inlineStr"/>
+      <c r="E726" t="inlineStr"/>
+      <c r="F726" t="inlineStr"/>
+      <c r="G726" t="inlineStr"/>
+      <c r="H726" t="inlineStr"/>
+      <c r="I726" t="inlineStr"/>
+      <c r="J726" t="inlineStr"/>
+      <c r="K726" t="inlineStr"/>
+      <c r="L726" t="inlineStr"/>
+      <c r="M726" t="inlineStr"/>
+      <c r="N726" t="inlineStr"/>
+      <c r="O726" t="inlineStr"/>
+      <c r="P726" t="inlineStr"/>
+      <c r="Q726" t="inlineStr"/>
+      <c r="R726" t="inlineStr">
+        <is>
+          <t>困辱</t>
+        </is>
+      </c>
+      <c r="S726" t="inlineStr">
+        <is>
+          <t>곤욕</t>
+        </is>
+      </c>
+      <c r="T726" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U726" t="inlineStr"/>
+    </row>
+    <row r="727">
+      <c r="A727" t="inlineStr"/>
+      <c r="B727" t="inlineStr"/>
+      <c r="C727" t="inlineStr"/>
+      <c r="D727" t="inlineStr"/>
+      <c r="E727" t="inlineStr"/>
+      <c r="F727" t="inlineStr"/>
+      <c r="G727" t="inlineStr"/>
+      <c r="H727" t="inlineStr"/>
+      <c r="I727" t="inlineStr"/>
+      <c r="J727" t="inlineStr"/>
+      <c r="K727" t="inlineStr"/>
+      <c r="L727" t="inlineStr"/>
+      <c r="M727" t="inlineStr"/>
+      <c r="N727" t="inlineStr"/>
+      <c r="O727" t="inlineStr"/>
+      <c r="P727" t="inlineStr"/>
+      <c r="Q727" t="inlineStr"/>
+      <c r="R727" t="inlineStr">
+        <is>
+          <t>昏困</t>
+        </is>
+      </c>
+      <c r="S727" t="inlineStr">
+        <is>
+          <t>혼곤</t>
+        </is>
+      </c>
+      <c r="T727" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U727" t="inlineStr"/>
+    </row>
+    <row r="728">
+      <c r="A728" t="inlineStr"/>
+      <c r="B728" t="inlineStr"/>
+      <c r="C728" t="inlineStr"/>
+      <c r="D728" t="inlineStr"/>
+      <c r="E728" t="inlineStr"/>
+      <c r="F728" t="inlineStr"/>
+      <c r="G728" t="inlineStr"/>
+      <c r="H728" t="inlineStr"/>
+      <c r="I728" t="inlineStr"/>
+      <c r="J728" t="inlineStr"/>
+      <c r="K728" t="inlineStr"/>
+      <c r="L728" t="inlineStr"/>
+      <c r="M728" t="inlineStr"/>
+      <c r="N728" t="inlineStr"/>
+      <c r="O728" t="inlineStr"/>
+      <c r="P728" t="inlineStr"/>
+      <c r="Q728" t="inlineStr"/>
+      <c r="R728" t="inlineStr">
+        <is>
+          <t>混亂</t>
+        </is>
+      </c>
+      <c r="S728" t="inlineStr">
+        <is>
+          <t>혼란</t>
+        </is>
+      </c>
+      <c r="T728" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U728" t="inlineStr"/>
+    </row>
+    <row r="729">
+      <c r="A729" t="inlineStr"/>
+      <c r="B729" t="inlineStr"/>
+      <c r="C729" t="inlineStr"/>
+      <c r="D729" t="inlineStr"/>
+      <c r="E729" t="inlineStr"/>
+      <c r="F729" t="inlineStr"/>
+      <c r="G729" t="inlineStr"/>
+      <c r="H729" t="inlineStr"/>
+      <c r="I729" t="inlineStr"/>
+      <c r="J729" t="inlineStr"/>
+      <c r="K729" t="inlineStr"/>
+      <c r="L729" t="inlineStr"/>
+      <c r="M729" t="inlineStr"/>
+      <c r="N729" t="inlineStr"/>
+      <c r="O729" t="inlineStr"/>
+      <c r="P729" t="inlineStr"/>
+      <c r="Q729" t="inlineStr"/>
+      <c r="R729" t="inlineStr">
+        <is>
+          <t>吾鼻三尺</t>
+        </is>
+      </c>
+      <c r="S729" t="inlineStr">
+        <is>
+          <t>오비삼척|내 코가 석자</t>
+        </is>
+      </c>
+      <c r="T729" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U729" t="inlineStr"/>
+    </row>
+    <row r="730">
+      <c r="A730" t="inlineStr"/>
+      <c r="B730" t="inlineStr"/>
+      <c r="C730" t="inlineStr"/>
+      <c r="D730" t="inlineStr"/>
+      <c r="E730" t="inlineStr"/>
+      <c r="F730" t="inlineStr"/>
+      <c r="G730" t="inlineStr"/>
+      <c r="H730" t="inlineStr"/>
+      <c r="I730" t="inlineStr"/>
+      <c r="J730" t="inlineStr"/>
+      <c r="K730" t="inlineStr"/>
+      <c r="L730" t="inlineStr"/>
+      <c r="M730" t="inlineStr"/>
+      <c r="N730" t="inlineStr"/>
+      <c r="O730" t="inlineStr"/>
+      <c r="P730" t="inlineStr"/>
+      <c r="Q730" t="inlineStr"/>
+      <c r="R730" t="inlineStr">
+        <is>
+          <t>敎外別傳</t>
+        </is>
+      </c>
+      <c r="S730" t="inlineStr">
+        <is>
+          <t>교외별전|선종에서, 부처의 가르침을 글에 의하지 않고 바로 마음에서 마음으로 전하여 진리를 깨닫게 하는 법</t>
+        </is>
+      </c>
+      <c r="T730" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U730" t="inlineStr"/>
+    </row>
+    <row r="731">
+      <c r="A731" t="inlineStr"/>
+      <c r="B731" t="inlineStr"/>
+      <c r="C731" t="inlineStr"/>
+      <c r="D731" t="inlineStr"/>
+      <c r="E731" t="inlineStr"/>
+      <c r="F731" t="inlineStr"/>
+      <c r="G731" t="inlineStr"/>
+      <c r="H731" t="inlineStr"/>
+      <c r="I731" t="inlineStr"/>
+      <c r="J731" t="inlineStr"/>
+      <c r="K731" t="inlineStr"/>
+      <c r="L731" t="inlineStr"/>
+      <c r="M731" t="inlineStr"/>
+      <c r="N731" t="inlineStr"/>
+      <c r="O731" t="inlineStr"/>
+      <c r="P731" t="inlineStr"/>
+      <c r="Q731" t="inlineStr"/>
+      <c r="R731" t="inlineStr">
+        <is>
+          <t>看做</t>
+        </is>
+      </c>
+      <c r="S731" t="inlineStr">
+        <is>
+          <t>간주</t>
+        </is>
+      </c>
+      <c r="T731" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U731" t="inlineStr"/>
+    </row>
+    <row r="732">
+      <c r="A732" t="inlineStr"/>
+      <c r="B732" t="inlineStr"/>
+      <c r="C732" t="inlineStr"/>
+      <c r="D732" t="inlineStr"/>
+      <c r="E732" t="inlineStr"/>
+      <c r="F732" t="inlineStr"/>
+      <c r="G732" t="inlineStr"/>
+      <c r="H732" t="inlineStr"/>
+      <c r="I732" t="inlineStr"/>
+      <c r="J732" t="inlineStr"/>
+      <c r="K732" t="inlineStr"/>
+      <c r="L732" t="inlineStr"/>
+      <c r="M732" t="inlineStr"/>
+      <c r="N732" t="inlineStr"/>
+      <c r="O732" t="inlineStr"/>
+      <c r="P732" t="inlineStr"/>
+      <c r="Q732" t="inlineStr"/>
+      <c r="R732" t="inlineStr">
+        <is>
+          <t>披瀝</t>
+        </is>
+      </c>
+      <c r="S732" t="inlineStr">
+        <is>
+          <t>피력</t>
+        </is>
+      </c>
+      <c r="T732" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U732" t="inlineStr"/>
+    </row>
+    <row r="733">
+      <c r="A733" t="inlineStr"/>
+      <c r="B733" t="inlineStr"/>
+      <c r="C733" t="inlineStr"/>
+      <c r="D733" t="inlineStr"/>
+      <c r="E733" t="inlineStr"/>
+      <c r="F733" t="inlineStr"/>
+      <c r="G733" t="inlineStr"/>
+      <c r="H733" t="inlineStr"/>
+      <c r="I733" t="inlineStr"/>
+      <c r="J733" t="inlineStr"/>
+      <c r="K733" t="inlineStr"/>
+      <c r="L733" t="inlineStr"/>
+      <c r="M733" t="inlineStr"/>
+      <c r="N733" t="inlineStr"/>
+      <c r="O733" t="inlineStr"/>
+      <c r="P733" t="inlineStr"/>
+      <c r="Q733" t="inlineStr"/>
+      <c r="R733" t="inlineStr">
+        <is>
+          <t>介入</t>
+        </is>
+      </c>
+      <c r="S733" t="inlineStr">
+        <is>
+          <t>개입</t>
+        </is>
+      </c>
+      <c r="T733" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U733" t="inlineStr"/>
+    </row>
+    <row r="734">
+      <c r="A734" t="inlineStr"/>
+      <c r="B734" t="inlineStr"/>
+      <c r="C734" t="inlineStr"/>
+      <c r="D734" t="inlineStr"/>
+      <c r="E734" t="inlineStr"/>
+      <c r="F734" t="inlineStr"/>
+      <c r="G734" t="inlineStr"/>
+      <c r="H734" t="inlineStr"/>
+      <c r="I734" t="inlineStr"/>
+      <c r="J734" t="inlineStr"/>
+      <c r="K734" t="inlineStr"/>
+      <c r="L734" t="inlineStr"/>
+      <c r="M734" t="inlineStr"/>
+      <c r="N734" t="inlineStr"/>
+      <c r="O734" t="inlineStr"/>
+      <c r="P734" t="inlineStr"/>
+      <c r="Q734" t="inlineStr"/>
+      <c r="R734" t="inlineStr">
+        <is>
+          <t>所持</t>
+        </is>
+      </c>
+      <c r="S734" t="inlineStr">
+        <is>
+          <t>소지</t>
+        </is>
+      </c>
+      <c r="T734" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U734" t="inlineStr"/>
+    </row>
+    <row r="735">
+      <c r="A735" t="inlineStr"/>
+      <c r="B735" t="inlineStr"/>
+      <c r="C735" t="inlineStr"/>
+      <c r="D735" t="inlineStr"/>
+      <c r="E735" t="inlineStr"/>
+      <c r="F735" t="inlineStr"/>
+      <c r="G735" t="inlineStr"/>
+      <c r="H735" t="inlineStr"/>
+      <c r="I735" t="inlineStr"/>
+      <c r="J735" t="inlineStr"/>
+      <c r="K735" t="inlineStr"/>
+      <c r="L735" t="inlineStr"/>
+      <c r="M735" t="inlineStr"/>
+      <c r="N735" t="inlineStr"/>
+      <c r="O735" t="inlineStr"/>
+      <c r="P735" t="inlineStr"/>
+      <c r="Q735" t="inlineStr"/>
+      <c r="R735" t="inlineStr">
+        <is>
+          <t>凌駕</t>
+        </is>
+      </c>
+      <c r="S735" t="inlineStr">
+        <is>
+          <t>능가</t>
+        </is>
+      </c>
+      <c r="T735" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U735" t="inlineStr"/>
+    </row>
+    <row r="736">
+      <c r="A736" t="inlineStr"/>
+      <c r="B736" t="inlineStr"/>
+      <c r="C736" t="inlineStr"/>
+      <c r="D736" t="inlineStr"/>
+      <c r="E736" t="inlineStr"/>
+      <c r="F736" t="inlineStr"/>
+      <c r="G736" t="inlineStr"/>
+      <c r="H736" t="inlineStr"/>
+      <c r="I736" t="inlineStr"/>
+      <c r="J736" t="inlineStr"/>
+      <c r="K736" t="inlineStr"/>
+      <c r="L736" t="inlineStr"/>
+      <c r="M736" t="inlineStr"/>
+      <c r="N736" t="inlineStr"/>
+      <c r="O736" t="inlineStr"/>
+      <c r="P736" t="inlineStr"/>
+      <c r="Q736" t="inlineStr"/>
+      <c r="R736" t="inlineStr">
+        <is>
+          <t>背馳</t>
+        </is>
+      </c>
+      <c r="S736" t="inlineStr">
+        <is>
+          <t>배치</t>
+        </is>
+      </c>
+      <c r="T736" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U736" t="inlineStr"/>
+    </row>
+    <row r="737">
+      <c r="A737" t="inlineStr"/>
+      <c r="B737" t="inlineStr"/>
+      <c r="C737" t="inlineStr"/>
+      <c r="D737" t="inlineStr"/>
+      <c r="E737" t="inlineStr"/>
+      <c r="F737" t="inlineStr"/>
+      <c r="G737" t="inlineStr"/>
+      <c r="H737" t="inlineStr"/>
+      <c r="I737" t="inlineStr"/>
+      <c r="J737" t="inlineStr"/>
+      <c r="K737" t="inlineStr"/>
+      <c r="L737" t="inlineStr"/>
+      <c r="M737" t="inlineStr"/>
+      <c r="N737" t="inlineStr"/>
+      <c r="O737" t="inlineStr"/>
+      <c r="P737" t="inlineStr"/>
+      <c r="Q737" t="inlineStr"/>
+      <c r="R737" t="inlineStr">
+        <is>
+          <t>適合</t>
+        </is>
+      </c>
+      <c r="S737" t="inlineStr">
+        <is>
+          <t>적합</t>
+        </is>
+      </c>
+      <c r="T737" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U737" t="inlineStr"/>
+    </row>
+    <row r="738">
+      <c r="A738" t="inlineStr"/>
+      <c r="B738" t="inlineStr"/>
+      <c r="C738" t="inlineStr"/>
+      <c r="D738" t="inlineStr"/>
+      <c r="E738" t="inlineStr"/>
+      <c r="F738" t="inlineStr"/>
+      <c r="G738" t="inlineStr"/>
+      <c r="H738" t="inlineStr"/>
+      <c r="I738" t="inlineStr"/>
+      <c r="J738" t="inlineStr"/>
+      <c r="K738" t="inlineStr"/>
+      <c r="L738" t="inlineStr"/>
+      <c r="M738" t="inlineStr"/>
+      <c r="N738" t="inlineStr"/>
+      <c r="O738" t="inlineStr"/>
+      <c r="P738" t="inlineStr"/>
+      <c r="Q738" t="inlineStr"/>
+      <c r="R738" t="inlineStr">
+        <is>
+          <t>保重</t>
+        </is>
+      </c>
+      <c r="S738" t="inlineStr">
+        <is>
+          <t>보중</t>
+        </is>
+      </c>
+      <c r="T738" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U738" t="inlineStr"/>
+    </row>
+    <row r="739">
+      <c r="A739" t="inlineStr"/>
+      <c r="B739" t="inlineStr"/>
+      <c r="C739" t="inlineStr"/>
+      <c r="D739" t="inlineStr"/>
+      <c r="E739" t="inlineStr"/>
+      <c r="F739" t="inlineStr"/>
+      <c r="G739" t="inlineStr"/>
+      <c r="H739" t="inlineStr"/>
+      <c r="I739" t="inlineStr"/>
+      <c r="J739" t="inlineStr"/>
+      <c r="K739" t="inlineStr"/>
+      <c r="L739" t="inlineStr"/>
+      <c r="M739" t="inlineStr"/>
+      <c r="N739" t="inlineStr"/>
+      <c r="O739" t="inlineStr"/>
+      <c r="P739" t="inlineStr"/>
+      <c r="Q739" t="inlineStr"/>
+      <c r="R739" t="inlineStr">
+        <is>
+          <t>停滯</t>
+        </is>
+      </c>
+      <c r="S739" t="inlineStr">
+        <is>
+          <t>정체</t>
+        </is>
+      </c>
+      <c r="T739" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U739" t="inlineStr"/>
+    </row>
+    <row r="740">
+      <c r="A740" t="inlineStr"/>
+      <c r="B740" t="inlineStr"/>
+      <c r="C740" t="inlineStr"/>
+      <c r="D740" t="inlineStr"/>
+      <c r="E740" t="inlineStr"/>
+      <c r="F740" t="inlineStr"/>
+      <c r="G740" t="inlineStr"/>
+      <c r="H740" t="inlineStr"/>
+      <c r="I740" t="inlineStr"/>
+      <c r="J740" t="inlineStr"/>
+      <c r="K740" t="inlineStr"/>
+      <c r="L740" t="inlineStr"/>
+      <c r="M740" t="inlineStr"/>
+      <c r="N740" t="inlineStr"/>
+      <c r="O740" t="inlineStr"/>
+      <c r="P740" t="inlineStr"/>
+      <c r="Q740" t="inlineStr"/>
+      <c r="R740" t="inlineStr">
+        <is>
+          <t>正體</t>
+        </is>
+      </c>
+      <c r="S740" t="inlineStr">
+        <is>
+          <t>정체</t>
+        </is>
+      </c>
+      <c r="T740" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U740" t="inlineStr"/>
+    </row>
+    <row r="741">
+      <c r="A741" t="inlineStr"/>
+      <c r="B741" t="inlineStr"/>
+      <c r="C741" t="inlineStr"/>
+      <c r="D741" t="inlineStr"/>
+      <c r="E741" t="inlineStr"/>
+      <c r="F741" t="inlineStr"/>
+      <c r="G741" t="inlineStr"/>
+      <c r="H741" t="inlineStr"/>
+      <c r="I741" t="inlineStr"/>
+      <c r="J741" t="inlineStr"/>
+      <c r="K741" t="inlineStr"/>
+      <c r="L741" t="inlineStr"/>
+      <c r="M741" t="inlineStr"/>
+      <c r="N741" t="inlineStr"/>
+      <c r="O741" t="inlineStr"/>
+      <c r="P741" t="inlineStr"/>
+      <c r="Q741" t="inlineStr"/>
+      <c r="R741" t="inlineStr">
+        <is>
+          <t>鳥瞰</t>
+        </is>
+      </c>
+      <c r="S741" t="inlineStr">
+        <is>
+          <t>조감</t>
+        </is>
+      </c>
+      <c r="T741" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U741" t="inlineStr"/>
+    </row>
+    <row r="742">
+      <c r="A742" t="inlineStr"/>
+      <c r="B742" t="inlineStr"/>
+      <c r="C742" t="inlineStr"/>
+      <c r="D742" t="inlineStr"/>
+      <c r="E742" t="inlineStr"/>
+      <c r="F742" t="inlineStr"/>
+      <c r="G742" t="inlineStr"/>
+      <c r="H742" t="inlineStr"/>
+      <c r="I742" t="inlineStr"/>
+      <c r="J742" t="inlineStr"/>
+      <c r="K742" t="inlineStr"/>
+      <c r="L742" t="inlineStr"/>
+      <c r="M742" t="inlineStr"/>
+      <c r="N742" t="inlineStr"/>
+      <c r="O742" t="inlineStr"/>
+      <c r="P742" t="inlineStr"/>
+      <c r="Q742" t="inlineStr"/>
+      <c r="R742" t="inlineStr">
+        <is>
+          <t>牽引車</t>
+        </is>
+      </c>
+      <c r="S742" t="inlineStr">
+        <is>
+          <t>견인차</t>
+        </is>
+      </c>
+      <c r="T742" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U742" t="inlineStr"/>
+    </row>
+    <row r="743">
+      <c r="A743" t="inlineStr"/>
+      <c r="B743" t="inlineStr"/>
+      <c r="C743" t="inlineStr"/>
+      <c r="D743" t="inlineStr"/>
+      <c r="E743" t="inlineStr"/>
+      <c r="F743" t="inlineStr"/>
+      <c r="G743" t="inlineStr"/>
+      <c r="H743" t="inlineStr"/>
+      <c r="I743" t="inlineStr"/>
+      <c r="J743" t="inlineStr"/>
+      <c r="K743" t="inlineStr"/>
+      <c r="L743" t="inlineStr"/>
+      <c r="M743" t="inlineStr"/>
+      <c r="N743" t="inlineStr"/>
+      <c r="O743" t="inlineStr"/>
+      <c r="P743" t="inlineStr"/>
+      <c r="Q743" t="inlineStr"/>
+      <c r="R743" t="inlineStr">
+        <is>
+          <t>起爆劑</t>
+        </is>
+      </c>
+      <c r="S743" t="inlineStr">
+        <is>
+          <t>기폭제</t>
+        </is>
+      </c>
+      <c r="T743" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U743" t="inlineStr"/>
+    </row>
+    <row r="744">
+      <c r="A744" t="inlineStr"/>
+      <c r="B744" t="inlineStr"/>
+      <c r="C744" t="inlineStr"/>
+      <c r="D744" t="inlineStr"/>
+      <c r="E744" t="inlineStr"/>
+      <c r="F744" t="inlineStr"/>
+      <c r="G744" t="inlineStr"/>
+      <c r="H744" t="inlineStr"/>
+      <c r="I744" t="inlineStr"/>
+      <c r="J744" t="inlineStr"/>
+      <c r="K744" t="inlineStr"/>
+      <c r="L744" t="inlineStr"/>
+      <c r="M744" t="inlineStr"/>
+      <c r="N744" t="inlineStr"/>
+      <c r="O744" t="inlineStr"/>
+      <c r="P744" t="inlineStr"/>
+      <c r="Q744" t="inlineStr"/>
+      <c r="R744" t="inlineStr">
+        <is>
+          <t>試金石</t>
+        </is>
+      </c>
+      <c r="S744" t="inlineStr">
+        <is>
+          <t>시금석</t>
+        </is>
+      </c>
+      <c r="T744" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U744" t="inlineStr"/>
+    </row>
+    <row r="745">
+      <c r="A745" t="inlineStr"/>
+      <c r="B745" t="inlineStr"/>
+      <c r="C745" t="inlineStr"/>
+      <c r="D745" t="inlineStr"/>
+      <c r="E745" t="inlineStr"/>
+      <c r="F745" t="inlineStr"/>
+      <c r="G745" t="inlineStr"/>
+      <c r="H745" t="inlineStr"/>
+      <c r="I745" t="inlineStr"/>
+      <c r="J745" t="inlineStr"/>
+      <c r="K745" t="inlineStr"/>
+      <c r="L745" t="inlineStr"/>
+      <c r="M745" t="inlineStr"/>
+      <c r="N745" t="inlineStr"/>
+      <c r="O745" t="inlineStr"/>
+      <c r="P745" t="inlineStr"/>
+      <c r="Q745" t="inlineStr"/>
+      <c r="R745" t="inlineStr">
+        <is>
+          <t>防腐劑</t>
+        </is>
+      </c>
+      <c r="S745" t="inlineStr">
+        <is>
+          <t>방부제</t>
+        </is>
+      </c>
+      <c r="T745" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U745" t="inlineStr"/>
+    </row>
+    <row r="746">
+      <c r="A746" t="inlineStr"/>
+      <c r="B746" t="inlineStr"/>
+      <c r="C746" t="inlineStr"/>
+      <c r="D746" t="inlineStr"/>
+      <c r="E746" t="inlineStr"/>
+      <c r="F746" t="inlineStr"/>
+      <c r="G746" t="inlineStr"/>
+      <c r="H746" t="inlineStr"/>
+      <c r="I746" t="inlineStr"/>
+      <c r="J746" t="inlineStr"/>
+      <c r="K746" t="inlineStr"/>
+      <c r="L746" t="inlineStr"/>
+      <c r="M746" t="inlineStr"/>
+      <c r="N746" t="inlineStr"/>
+      <c r="O746" t="inlineStr"/>
+      <c r="P746" t="inlineStr"/>
+      <c r="Q746" t="inlineStr"/>
+      <c r="R746" t="inlineStr">
+        <is>
+          <t>物望</t>
+        </is>
+      </c>
+      <c r="S746" t="inlineStr">
+        <is>
+          <t>물망</t>
+        </is>
+      </c>
+      <c r="T746" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U746" t="inlineStr"/>
+    </row>
+    <row r="747">
+      <c r="A747" t="inlineStr"/>
+      <c r="B747" t="inlineStr"/>
+      <c r="C747" t="inlineStr"/>
+      <c r="D747" t="inlineStr"/>
+      <c r="E747" t="inlineStr"/>
+      <c r="F747" t="inlineStr"/>
+      <c r="G747" t="inlineStr"/>
+      <c r="H747" t="inlineStr"/>
+      <c r="I747" t="inlineStr"/>
+      <c r="J747" t="inlineStr"/>
+      <c r="K747" t="inlineStr"/>
+      <c r="L747" t="inlineStr"/>
+      <c r="M747" t="inlineStr"/>
+      <c r="N747" t="inlineStr"/>
+      <c r="O747" t="inlineStr"/>
+      <c r="P747" t="inlineStr"/>
+      <c r="Q747" t="inlineStr"/>
+      <c r="R747" t="inlineStr">
+        <is>
+          <t>下馬評</t>
+        </is>
+      </c>
+      <c r="S747" t="inlineStr">
+        <is>
+          <t>하마평</t>
+        </is>
+      </c>
+      <c r="T747" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U747" t="inlineStr"/>
+    </row>
+    <row r="748">
+      <c r="A748" t="inlineStr"/>
+      <c r="B748" t="inlineStr"/>
+      <c r="C748" t="inlineStr"/>
+      <c r="D748" t="inlineStr"/>
+      <c r="E748" t="inlineStr"/>
+      <c r="F748" t="inlineStr"/>
+      <c r="G748" t="inlineStr"/>
+      <c r="H748" t="inlineStr"/>
+      <c r="I748" t="inlineStr"/>
+      <c r="J748" t="inlineStr"/>
+      <c r="K748" t="inlineStr"/>
+      <c r="L748" t="inlineStr"/>
+      <c r="M748" t="inlineStr"/>
+      <c r="N748" t="inlineStr"/>
+      <c r="O748" t="inlineStr"/>
+      <c r="P748" t="inlineStr"/>
+      <c r="Q748" t="inlineStr"/>
+      <c r="R748" t="inlineStr">
+        <is>
+          <t>推薦</t>
+        </is>
+      </c>
+      <c r="S748" t="inlineStr">
+        <is>
+          <t>추천</t>
+        </is>
+      </c>
+      <c r="T748" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U748" t="inlineStr"/>
+    </row>
+    <row r="749">
+      <c r="A749" t="inlineStr"/>
+      <c r="B749" t="inlineStr"/>
+      <c r="C749" t="inlineStr"/>
+      <c r="D749" t="inlineStr"/>
+      <c r="E749" t="inlineStr"/>
+      <c r="F749" t="inlineStr"/>
+      <c r="G749" t="inlineStr"/>
+      <c r="H749" t="inlineStr"/>
+      <c r="I749" t="inlineStr"/>
+      <c r="J749" t="inlineStr"/>
+      <c r="K749" t="inlineStr"/>
+      <c r="L749" t="inlineStr"/>
+      <c r="M749" t="inlineStr"/>
+      <c r="N749" t="inlineStr"/>
+      <c r="O749" t="inlineStr"/>
+      <c r="P749" t="inlineStr"/>
+      <c r="Q749" t="inlineStr"/>
+      <c r="R749" t="inlineStr">
+        <is>
+          <t>落點</t>
+        </is>
+      </c>
+      <c r="S749" t="inlineStr">
+        <is>
+          <t>낙점</t>
+        </is>
+      </c>
+      <c r="T749" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U749" t="inlineStr"/>
+    </row>
+    <row r="750">
+      <c r="A750" t="inlineStr"/>
+      <c r="B750" t="inlineStr"/>
+      <c r="C750" t="inlineStr"/>
+      <c r="D750" t="inlineStr"/>
+      <c r="E750" t="inlineStr"/>
+      <c r="F750" t="inlineStr"/>
+      <c r="G750" t="inlineStr"/>
+      <c r="H750" t="inlineStr"/>
+      <c r="I750" t="inlineStr"/>
+      <c r="J750" t="inlineStr"/>
+      <c r="K750" t="inlineStr"/>
+      <c r="L750" t="inlineStr"/>
+      <c r="M750" t="inlineStr"/>
+      <c r="N750" t="inlineStr"/>
+      <c r="O750" t="inlineStr"/>
+      <c r="P750" t="inlineStr"/>
+      <c r="Q750" t="inlineStr"/>
+      <c r="R750" t="inlineStr">
+        <is>
+          <t>以熱治熱</t>
+        </is>
+      </c>
+      <c r="S750" t="inlineStr">
+        <is>
+          <t>이열치열|힘에는 힘으로, 강한 것에는 강한 것으로 상대함</t>
+        </is>
+      </c>
+      <c r="T750" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U750" t="inlineStr"/>
+    </row>
+    <row r="751">
+      <c r="A751" t="inlineStr"/>
+      <c r="B751" t="inlineStr"/>
+      <c r="C751" t="inlineStr"/>
+      <c r="D751" t="inlineStr"/>
+      <c r="E751" t="inlineStr"/>
+      <c r="F751" t="inlineStr"/>
+      <c r="G751" t="inlineStr"/>
+      <c r="H751" t="inlineStr"/>
+      <c r="I751" t="inlineStr"/>
+      <c r="J751" t="inlineStr"/>
+      <c r="K751" t="inlineStr"/>
+      <c r="L751" t="inlineStr"/>
+      <c r="M751" t="inlineStr"/>
+      <c r="N751" t="inlineStr"/>
+      <c r="O751" t="inlineStr"/>
+      <c r="P751" t="inlineStr"/>
+      <c r="Q751" t="inlineStr"/>
+      <c r="R751" t="inlineStr">
+        <is>
+          <t>立夏</t>
+        </is>
+      </c>
+      <c r="S751" t="inlineStr">
+        <is>
+          <t>입하</t>
+        </is>
+      </c>
+      <c r="T751" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U751" t="inlineStr"/>
+    </row>
+    <row r="752">
+      <c r="A752" t="inlineStr"/>
+      <c r="B752" t="inlineStr"/>
+      <c r="C752" t="inlineStr"/>
+      <c r="D752" t="inlineStr"/>
+      <c r="E752" t="inlineStr"/>
+      <c r="F752" t="inlineStr"/>
+      <c r="G752" t="inlineStr"/>
+      <c r="H752" t="inlineStr"/>
+      <c r="I752" t="inlineStr"/>
+      <c r="J752" t="inlineStr"/>
+      <c r="K752" t="inlineStr"/>
+      <c r="L752" t="inlineStr"/>
+      <c r="M752" t="inlineStr"/>
+      <c r="N752" t="inlineStr"/>
+      <c r="O752" t="inlineStr"/>
+      <c r="P752" t="inlineStr"/>
+      <c r="Q752" t="inlineStr"/>
+      <c r="R752" t="inlineStr">
+        <is>
+          <t>小滿</t>
+        </is>
+      </c>
+      <c r="S752" t="inlineStr">
+        <is>
+          <t>소만</t>
+        </is>
+      </c>
+      <c r="T752" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U752" t="inlineStr"/>
+    </row>
+    <row r="753">
+      <c r="A753" t="inlineStr"/>
+      <c r="B753" t="inlineStr"/>
+      <c r="C753" t="inlineStr"/>
+      <c r="D753" t="inlineStr"/>
+      <c r="E753" t="inlineStr"/>
+      <c r="F753" t="inlineStr"/>
+      <c r="G753" t="inlineStr"/>
+      <c r="H753" t="inlineStr"/>
+      <c r="I753" t="inlineStr"/>
+      <c r="J753" t="inlineStr"/>
+      <c r="K753" t="inlineStr"/>
+      <c r="L753" t="inlineStr"/>
+      <c r="M753" t="inlineStr"/>
+      <c r="N753" t="inlineStr"/>
+      <c r="O753" t="inlineStr"/>
+      <c r="P753" t="inlineStr"/>
+      <c r="Q753" t="inlineStr"/>
+      <c r="R753" t="inlineStr">
+        <is>
+          <t>芒種</t>
+        </is>
+      </c>
+      <c r="S753" t="inlineStr">
+        <is>
+          <t>망종</t>
+        </is>
+      </c>
+      <c r="T753" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U753" t="inlineStr"/>
+    </row>
+    <row r="754">
+      <c r="A754" t="inlineStr"/>
+      <c r="B754" t="inlineStr"/>
+      <c r="C754" t="inlineStr"/>
+      <c r="D754" t="inlineStr"/>
+      <c r="E754" t="inlineStr"/>
+      <c r="F754" t="inlineStr"/>
+      <c r="G754" t="inlineStr"/>
+      <c r="H754" t="inlineStr"/>
+      <c r="I754" t="inlineStr"/>
+      <c r="J754" t="inlineStr"/>
+      <c r="K754" t="inlineStr"/>
+      <c r="L754" t="inlineStr"/>
+      <c r="M754" t="inlineStr"/>
+      <c r="N754" t="inlineStr"/>
+      <c r="O754" t="inlineStr"/>
+      <c r="P754" t="inlineStr"/>
+      <c r="Q754" t="inlineStr"/>
+      <c r="R754" t="inlineStr">
+        <is>
+          <t>夏至</t>
+        </is>
+      </c>
+      <c r="S754" t="inlineStr">
+        <is>
+          <t>하지</t>
+        </is>
+      </c>
+      <c r="T754" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U754" t="inlineStr"/>
+    </row>
+    <row r="755">
+      <c r="A755" t="inlineStr"/>
+      <c r="B755" t="inlineStr"/>
+      <c r="C755" t="inlineStr"/>
+      <c r="D755" t="inlineStr"/>
+      <c r="E755" t="inlineStr"/>
+      <c r="F755" t="inlineStr"/>
+      <c r="G755" t="inlineStr"/>
+      <c r="H755" t="inlineStr"/>
+      <c r="I755" t="inlineStr"/>
+      <c r="J755" t="inlineStr"/>
+      <c r="K755" t="inlineStr"/>
+      <c r="L755" t="inlineStr"/>
+      <c r="M755" t="inlineStr"/>
+      <c r="N755" t="inlineStr"/>
+      <c r="O755" t="inlineStr"/>
+      <c r="P755" t="inlineStr"/>
+      <c r="Q755" t="inlineStr"/>
+      <c r="R755" t="inlineStr">
+        <is>
+          <t>流芳百世</t>
+        </is>
+      </c>
+      <c r="S755" t="inlineStr">
+        <is>
+          <t>유방백세|꽃다운 이름이 후세에 길이 전함</t>
+        </is>
+      </c>
+      <c r="T755" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U755" t="inlineStr"/>
+    </row>
+    <row r="756">
+      <c r="A756" t="inlineStr"/>
+      <c r="B756" t="inlineStr"/>
+      <c r="C756" t="inlineStr"/>
+      <c r="D756" t="inlineStr"/>
+      <c r="E756" t="inlineStr"/>
+      <c r="F756" t="inlineStr"/>
+      <c r="G756" t="inlineStr"/>
+      <c r="H756" t="inlineStr"/>
+      <c r="I756" t="inlineStr"/>
+      <c r="J756" t="inlineStr"/>
+      <c r="K756" t="inlineStr"/>
+      <c r="L756" t="inlineStr"/>
+      <c r="M756" t="inlineStr"/>
+      <c r="N756" t="inlineStr"/>
+      <c r="O756" t="inlineStr"/>
+      <c r="P756" t="inlineStr"/>
+      <c r="Q756" t="inlineStr"/>
+      <c r="R756" t="inlineStr">
+        <is>
+          <t>反映</t>
+        </is>
+      </c>
+      <c r="S756" t="inlineStr">
+        <is>
+          <t>반영</t>
+        </is>
+      </c>
+      <c r="T756" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U756" t="inlineStr"/>
+    </row>
+    <row r="757">
+      <c r="A757" t="inlineStr"/>
+      <c r="B757" t="inlineStr"/>
+      <c r="C757" t="inlineStr"/>
+      <c r="D757" t="inlineStr"/>
+      <c r="E757" t="inlineStr"/>
+      <c r="F757" t="inlineStr"/>
+      <c r="G757" t="inlineStr"/>
+      <c r="H757" t="inlineStr"/>
+      <c r="I757" t="inlineStr"/>
+      <c r="J757" t="inlineStr"/>
+      <c r="K757" t="inlineStr"/>
+      <c r="L757" t="inlineStr"/>
+      <c r="M757" t="inlineStr"/>
+      <c r="N757" t="inlineStr"/>
+      <c r="O757" t="inlineStr"/>
+      <c r="P757" t="inlineStr"/>
+      <c r="Q757" t="inlineStr"/>
+      <c r="R757" t="inlineStr">
+        <is>
+          <t>省察</t>
+        </is>
+      </c>
+      <c r="S757" t="inlineStr">
+        <is>
+          <t>성찰</t>
+        </is>
+      </c>
+      <c r="T757" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U757" t="inlineStr"/>
+    </row>
+    <row r="758">
+      <c r="A758" t="inlineStr"/>
+      <c r="B758" t="inlineStr"/>
+      <c r="C758" t="inlineStr"/>
+      <c r="D758" t="inlineStr"/>
+      <c r="E758" t="inlineStr"/>
+      <c r="F758" t="inlineStr"/>
+      <c r="G758" t="inlineStr"/>
+      <c r="H758" t="inlineStr"/>
+      <c r="I758" t="inlineStr"/>
+      <c r="J758" t="inlineStr"/>
+      <c r="K758" t="inlineStr"/>
+      <c r="L758" t="inlineStr"/>
+      <c r="M758" t="inlineStr"/>
+      <c r="N758" t="inlineStr"/>
+      <c r="O758" t="inlineStr"/>
+      <c r="P758" t="inlineStr"/>
+      <c r="Q758" t="inlineStr"/>
+      <c r="R758" t="inlineStr">
+        <is>
+          <t>究明</t>
+        </is>
+      </c>
+      <c r="S758" t="inlineStr">
+        <is>
+          <t>구명</t>
+        </is>
+      </c>
+      <c r="T758" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U758" t="inlineStr"/>
+    </row>
+    <row r="759">
+      <c r="A759" t="inlineStr"/>
+      <c r="B759" t="inlineStr"/>
+      <c r="C759" t="inlineStr"/>
+      <c r="D759" t="inlineStr"/>
+      <c r="E759" t="inlineStr"/>
+      <c r="F759" t="inlineStr"/>
+      <c r="G759" t="inlineStr"/>
+      <c r="H759" t="inlineStr"/>
+      <c r="I759" t="inlineStr"/>
+      <c r="J759" t="inlineStr"/>
+      <c r="K759" t="inlineStr"/>
+      <c r="L759" t="inlineStr"/>
+      <c r="M759" t="inlineStr"/>
+      <c r="N759" t="inlineStr"/>
+      <c r="O759" t="inlineStr"/>
+      <c r="P759" t="inlineStr"/>
+      <c r="Q759" t="inlineStr"/>
+      <c r="R759" t="inlineStr">
+        <is>
+          <t>命在頃刻</t>
+        </is>
+      </c>
+      <c r="S759" t="inlineStr">
+        <is>
+          <t>명재경각|거의 죽게 되어 곧 숨이 끊어질 지경에 이름</t>
+        </is>
+      </c>
+      <c r="T759" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U759" t="inlineStr"/>
+    </row>
+    <row r="760">
+      <c r="A760" t="inlineStr"/>
+      <c r="B760" t="inlineStr"/>
+      <c r="C760" t="inlineStr"/>
+      <c r="D760" t="inlineStr"/>
+      <c r="E760" t="inlineStr"/>
+      <c r="F760" t="inlineStr"/>
+      <c r="G760" t="inlineStr"/>
+      <c r="H760" t="inlineStr"/>
+      <c r="I760" t="inlineStr"/>
+      <c r="J760" t="inlineStr"/>
+      <c r="K760" t="inlineStr"/>
+      <c r="L760" t="inlineStr"/>
+      <c r="M760" t="inlineStr"/>
+      <c r="N760" t="inlineStr"/>
+      <c r="O760" t="inlineStr"/>
+      <c r="P760" t="inlineStr"/>
+      <c r="Q760" t="inlineStr"/>
+      <c r="R760" t="inlineStr">
+        <is>
+          <t>人名在天</t>
+        </is>
+      </c>
+      <c r="S760" t="inlineStr">
+        <is>
+          <t>인명재천|목숨의 길고 짧음은 사람의 힘으로 어쩔 수 없음</t>
+        </is>
+      </c>
+      <c r="T760" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U760" t="inlineStr"/>
+    </row>
+    <row r="761">
+      <c r="A761" t="inlineStr"/>
+      <c r="B761" t="inlineStr"/>
+      <c r="C761" t="inlineStr"/>
+      <c r="D761" t="inlineStr"/>
+      <c r="E761" t="inlineStr"/>
+      <c r="F761" t="inlineStr"/>
+      <c r="G761" t="inlineStr"/>
+      <c r="H761" t="inlineStr"/>
+      <c r="I761" t="inlineStr"/>
+      <c r="J761" t="inlineStr"/>
+      <c r="K761" t="inlineStr"/>
+      <c r="L761" t="inlineStr"/>
+      <c r="M761" t="inlineStr"/>
+      <c r="N761" t="inlineStr"/>
+      <c r="O761" t="inlineStr"/>
+      <c r="P761" t="inlineStr"/>
+      <c r="Q761" t="inlineStr"/>
+      <c r="R761" t="inlineStr">
+        <is>
+          <t>南柯一夢</t>
+        </is>
+      </c>
+      <c r="S761" t="inlineStr">
+        <is>
+          <t>남가일몽|꿈과 같이 헛된 한때의 부귀영화</t>
+        </is>
+      </c>
+      <c r="T761" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U761" t="inlineStr"/>
+    </row>
+    <row r="762">
+      <c r="A762" t="inlineStr"/>
+      <c r="B762" t="inlineStr"/>
+      <c r="C762" t="inlineStr"/>
+      <c r="D762" t="inlineStr"/>
+      <c r="E762" t="inlineStr"/>
+      <c r="F762" t="inlineStr"/>
+      <c r="G762" t="inlineStr"/>
+      <c r="H762" t="inlineStr"/>
+      <c r="I762" t="inlineStr"/>
+      <c r="J762" t="inlineStr"/>
+      <c r="K762" t="inlineStr"/>
+      <c r="L762" t="inlineStr"/>
+      <c r="M762" t="inlineStr"/>
+      <c r="N762" t="inlineStr"/>
+      <c r="O762" t="inlineStr"/>
+      <c r="P762" t="inlineStr"/>
+      <c r="Q762" t="inlineStr"/>
+      <c r="R762" t="inlineStr">
+        <is>
+          <t>不撤晝夜</t>
+        </is>
+      </c>
+      <c r="S762" t="inlineStr">
+        <is>
+          <t>불철주야|어떤 일에 몰두하여 조금도 쉴 사이 없이 밤낮을 가리지 아니함</t>
+        </is>
+      </c>
+      <c r="T762" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U762" t="inlineStr"/>
+    </row>
+    <row r="763">
+      <c r="A763" t="inlineStr"/>
+      <c r="B763" t="inlineStr"/>
+      <c r="C763" t="inlineStr"/>
+      <c r="D763" t="inlineStr"/>
+      <c r="E763" t="inlineStr"/>
+      <c r="F763" t="inlineStr"/>
+      <c r="G763" t="inlineStr"/>
+      <c r="H763" t="inlineStr"/>
+      <c r="I763" t="inlineStr"/>
+      <c r="J763" t="inlineStr"/>
+      <c r="K763" t="inlineStr"/>
+      <c r="L763" t="inlineStr"/>
+      <c r="M763" t="inlineStr"/>
+      <c r="N763" t="inlineStr"/>
+      <c r="O763" t="inlineStr"/>
+      <c r="P763" t="inlineStr"/>
+      <c r="Q763" t="inlineStr"/>
+      <c r="R763" t="inlineStr">
+        <is>
+          <t>獲得</t>
+        </is>
+      </c>
+      <c r="S763" t="inlineStr">
+        <is>
+          <t>획득</t>
+        </is>
+      </c>
+      <c r="T763" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U763" t="inlineStr"/>
+    </row>
+    <row r="764">
+      <c r="A764" t="inlineStr"/>
+      <c r="B764" t="inlineStr"/>
+      <c r="C764" t="inlineStr"/>
+      <c r="D764" t="inlineStr"/>
+      <c r="E764" t="inlineStr"/>
+      <c r="F764" t="inlineStr"/>
+      <c r="G764" t="inlineStr"/>
+      <c r="H764" t="inlineStr"/>
+      <c r="I764" t="inlineStr"/>
+      <c r="J764" t="inlineStr"/>
+      <c r="K764" t="inlineStr"/>
+      <c r="L764" t="inlineStr"/>
+      <c r="M764" t="inlineStr"/>
+      <c r="N764" t="inlineStr"/>
+      <c r="O764" t="inlineStr"/>
+      <c r="P764" t="inlineStr"/>
+      <c r="Q764" t="inlineStr"/>
+      <c r="R764" t="inlineStr">
+        <is>
+          <t>裁量權</t>
+        </is>
+      </c>
+      <c r="S764" t="inlineStr">
+        <is>
+          <t>재량권</t>
+        </is>
+      </c>
+      <c r="T764" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U764" t="inlineStr"/>
+    </row>
+    <row r="765">
+      <c r="A765" t="inlineStr"/>
+      <c r="B765" t="inlineStr"/>
+      <c r="C765" t="inlineStr"/>
+      <c r="D765" t="inlineStr"/>
+      <c r="E765" t="inlineStr"/>
+      <c r="F765" t="inlineStr"/>
+      <c r="G765" t="inlineStr"/>
+      <c r="H765" t="inlineStr"/>
+      <c r="I765" t="inlineStr"/>
+      <c r="J765" t="inlineStr"/>
+      <c r="K765" t="inlineStr"/>
+      <c r="L765" t="inlineStr"/>
+      <c r="M765" t="inlineStr"/>
+      <c r="N765" t="inlineStr"/>
+      <c r="O765" t="inlineStr"/>
+      <c r="P765" t="inlineStr"/>
+      <c r="Q765" t="inlineStr"/>
+      <c r="R765" t="inlineStr">
+        <is>
+          <t>異動</t>
+        </is>
+      </c>
+      <c r="S765" t="inlineStr">
+        <is>
+          <t>이동</t>
+        </is>
+      </c>
+      <c r="T765" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U765" t="inlineStr"/>
+    </row>
+    <row r="766">
+      <c r="A766" t="inlineStr"/>
+      <c r="B766" t="inlineStr"/>
+      <c r="C766" t="inlineStr"/>
+      <c r="D766" t="inlineStr"/>
+      <c r="E766" t="inlineStr"/>
+      <c r="F766" t="inlineStr"/>
+      <c r="G766" t="inlineStr"/>
+      <c r="H766" t="inlineStr"/>
+      <c r="I766" t="inlineStr"/>
+      <c r="J766" t="inlineStr"/>
+      <c r="K766" t="inlineStr"/>
+      <c r="L766" t="inlineStr"/>
+      <c r="M766" t="inlineStr"/>
+      <c r="N766" t="inlineStr"/>
+      <c r="O766" t="inlineStr"/>
+      <c r="P766" t="inlineStr"/>
+      <c r="Q766" t="inlineStr"/>
+      <c r="R766" t="inlineStr">
+        <is>
+          <t>移動</t>
+        </is>
+      </c>
+      <c r="S766" t="inlineStr">
+        <is>
+          <t>이동</t>
+        </is>
+      </c>
+      <c r="T766" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U766" t="inlineStr"/>
+    </row>
+    <row r="767">
+      <c r="A767" t="inlineStr"/>
+      <c r="B767" t="inlineStr"/>
+      <c r="C767" t="inlineStr"/>
+      <c r="D767" t="inlineStr"/>
+      <c r="E767" t="inlineStr"/>
+      <c r="F767" t="inlineStr"/>
+      <c r="G767" t="inlineStr"/>
+      <c r="H767" t="inlineStr"/>
+      <c r="I767" t="inlineStr"/>
+      <c r="J767" t="inlineStr"/>
+      <c r="K767" t="inlineStr"/>
+      <c r="L767" t="inlineStr"/>
+      <c r="M767" t="inlineStr"/>
+      <c r="N767" t="inlineStr"/>
+      <c r="O767" t="inlineStr"/>
+      <c r="P767" t="inlineStr"/>
+      <c r="Q767" t="inlineStr"/>
+      <c r="R767" t="inlineStr">
+        <is>
+          <t>行雲流水</t>
+        </is>
+      </c>
+      <c r="S767" t="inlineStr">
+        <is>
+          <t>행운유수|떠나는 구름과 흐르는 물. 자연스럽고 거리낌이 없음</t>
+        </is>
+      </c>
+      <c r="T767" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U767" t="inlineStr"/>
+    </row>
+    <row r="768">
+      <c r="A768" t="inlineStr"/>
+      <c r="B768" t="inlineStr"/>
+      <c r="C768" t="inlineStr"/>
+      <c r="D768" t="inlineStr"/>
+      <c r="E768" t="inlineStr"/>
+      <c r="F768" t="inlineStr"/>
+      <c r="G768" t="inlineStr"/>
+      <c r="H768" t="inlineStr"/>
+      <c r="I768" t="inlineStr"/>
+      <c r="J768" t="inlineStr"/>
+      <c r="K768" t="inlineStr"/>
+      <c r="L768" t="inlineStr"/>
+      <c r="M768" t="inlineStr"/>
+      <c r="N768" t="inlineStr"/>
+      <c r="O768" t="inlineStr"/>
+      <c r="P768" t="inlineStr"/>
+      <c r="Q768" t="inlineStr"/>
+      <c r="R768" t="inlineStr">
+        <is>
+          <t>康衢煙月</t>
+        </is>
+      </c>
+      <c r="S768" t="inlineStr">
+        <is>
+          <t>강구연월|번화한 거리에 달빛이 은은함. 태평성대의 평화로운 풍경</t>
+        </is>
+      </c>
+      <c r="T768" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U768" t="inlineStr"/>
+    </row>
+    <row r="769">
+      <c r="A769" t="inlineStr"/>
+      <c r="B769" t="inlineStr"/>
+      <c r="C769" t="inlineStr"/>
+      <c r="D769" t="inlineStr"/>
+      <c r="E769" t="inlineStr"/>
+      <c r="F769" t="inlineStr"/>
+      <c r="G769" t="inlineStr"/>
+      <c r="H769" t="inlineStr"/>
+      <c r="I769" t="inlineStr"/>
+      <c r="J769" t="inlineStr"/>
+      <c r="K769" t="inlineStr"/>
+      <c r="L769" t="inlineStr"/>
+      <c r="M769" t="inlineStr"/>
+      <c r="N769" t="inlineStr"/>
+      <c r="O769" t="inlineStr"/>
+      <c r="P769" t="inlineStr"/>
+      <c r="Q769" t="inlineStr"/>
+      <c r="R769" t="inlineStr">
+        <is>
+          <t>淸風明月</t>
+        </is>
+      </c>
+      <c r="S769" t="inlineStr">
+        <is>
+          <t>청풍명월|맑은 바람과 밝은 달빛. 자연의 아름다움</t>
+        </is>
+      </c>
+      <c r="T769" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U769" t="inlineStr"/>
+    </row>
+    <row r="770">
+      <c r="A770" t="inlineStr"/>
+      <c r="B770" t="inlineStr"/>
+      <c r="C770" t="inlineStr"/>
+      <c r="D770" t="inlineStr"/>
+      <c r="E770" t="inlineStr"/>
+      <c r="F770" t="inlineStr"/>
+      <c r="G770" t="inlineStr"/>
+      <c r="H770" t="inlineStr"/>
+      <c r="I770" t="inlineStr"/>
+      <c r="J770" t="inlineStr"/>
+      <c r="K770" t="inlineStr"/>
+      <c r="L770" t="inlineStr"/>
+      <c r="M770" t="inlineStr"/>
+      <c r="N770" t="inlineStr"/>
+      <c r="O770" t="inlineStr"/>
+      <c r="P770" t="inlineStr"/>
+      <c r="Q770" t="inlineStr"/>
+      <c r="R770" t="inlineStr">
+        <is>
+          <t>犬猿之間</t>
+        </is>
+      </c>
+      <c r="S770" t="inlineStr">
+        <is>
+          <t>견원지간|개와 원숭이의 사이처럼, 매우 사이가 나쁜 관계</t>
+        </is>
+      </c>
+      <c r="T770" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U770" t="inlineStr"/>
+    </row>
+    <row r="771">
+      <c r="A771" t="inlineStr"/>
+      <c r="B771" t="inlineStr"/>
+      <c r="C771" t="inlineStr"/>
+      <c r="D771" t="inlineStr"/>
+      <c r="E771" t="inlineStr"/>
+      <c r="F771" t="inlineStr"/>
+      <c r="G771" t="inlineStr"/>
+      <c r="H771" t="inlineStr"/>
+      <c r="I771" t="inlineStr"/>
+      <c r="J771" t="inlineStr"/>
+      <c r="K771" t="inlineStr"/>
+      <c r="L771" t="inlineStr"/>
+      <c r="M771" t="inlineStr"/>
+      <c r="N771" t="inlineStr"/>
+      <c r="O771" t="inlineStr"/>
+      <c r="P771" t="inlineStr"/>
+      <c r="Q771" t="inlineStr"/>
+      <c r="R771" t="inlineStr">
+        <is>
+          <t>見物生心</t>
+        </is>
+      </c>
+      <c r="S771" t="inlineStr">
+        <is>
+          <t>견물생심|물건을 보면 욕심이 생긴다는 뜻</t>
+        </is>
+      </c>
+      <c r="T771" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U771" t="inlineStr"/>
+    </row>
+    <row r="772">
+      <c r="A772" t="inlineStr"/>
+      <c r="B772" t="inlineStr"/>
+      <c r="C772" t="inlineStr"/>
+      <c r="D772" t="inlineStr"/>
+      <c r="E772" t="inlineStr"/>
+      <c r="F772" t="inlineStr"/>
+      <c r="G772" t="inlineStr"/>
+      <c r="H772" t="inlineStr"/>
+      <c r="I772" t="inlineStr"/>
+      <c r="J772" t="inlineStr"/>
+      <c r="K772" t="inlineStr"/>
+      <c r="L772" t="inlineStr"/>
+      <c r="M772" t="inlineStr"/>
+      <c r="N772" t="inlineStr"/>
+      <c r="O772" t="inlineStr"/>
+      <c r="P772" t="inlineStr"/>
+      <c r="Q772" t="inlineStr"/>
+      <c r="R772" t="inlineStr">
+        <is>
+          <t>見蚊拔劍</t>
+        </is>
+      </c>
+      <c r="S772" t="inlineStr">
+        <is>
+          <t>견문발검|작은 일에 지나치게 큰 대책을 세움. 조그만 일에 화를 내는 소견이 좁은 사람</t>
+        </is>
+      </c>
+      <c r="T772" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U772" t="inlineStr"/>
+    </row>
+    <row r="773">
+      <c r="A773" t="inlineStr"/>
+      <c r="B773" t="inlineStr"/>
+      <c r="C773" t="inlineStr"/>
+      <c r="D773" t="inlineStr"/>
+      <c r="E773" t="inlineStr"/>
+      <c r="F773" t="inlineStr"/>
+      <c r="G773" t="inlineStr"/>
+      <c r="H773" t="inlineStr"/>
+      <c r="I773" t="inlineStr"/>
+      <c r="J773" t="inlineStr"/>
+      <c r="K773" t="inlineStr"/>
+      <c r="L773" t="inlineStr"/>
+      <c r="M773" t="inlineStr"/>
+      <c r="N773" t="inlineStr"/>
+      <c r="O773" t="inlineStr"/>
+      <c r="P773" t="inlineStr"/>
+      <c r="Q773" t="inlineStr"/>
+      <c r="R773" t="inlineStr">
+        <is>
+          <t>見危致命</t>
+        </is>
+      </c>
+      <c r="S773" t="inlineStr">
+        <is>
+          <t>견위치명|나라의 위급함을 보고 몸을 바침</t>
+        </is>
+      </c>
+      <c r="T773" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U773" t="inlineStr"/>
+    </row>
+    <row r="774">
+      <c r="A774" t="inlineStr"/>
+      <c r="B774" t="inlineStr"/>
+      <c r="C774" t="inlineStr"/>
+      <c r="D774" t="inlineStr"/>
+      <c r="E774" t="inlineStr"/>
+      <c r="F774" t="inlineStr"/>
+      <c r="G774" t="inlineStr"/>
+      <c r="H774" t="inlineStr"/>
+      <c r="I774" t="inlineStr"/>
+      <c r="J774" t="inlineStr"/>
+      <c r="K774" t="inlineStr"/>
+      <c r="L774" t="inlineStr"/>
+      <c r="M774" t="inlineStr"/>
+      <c r="N774" t="inlineStr"/>
+      <c r="O774" t="inlineStr"/>
+      <c r="P774" t="inlineStr"/>
+      <c r="Q774" t="inlineStr"/>
+      <c r="R774" t="inlineStr">
+        <is>
+          <t>揭載</t>
+        </is>
+      </c>
+      <c r="S774" t="inlineStr">
+        <is>
+          <t>게재</t>
+        </is>
+      </c>
+      <c r="T774" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U774" t="inlineStr"/>
+    </row>
+    <row r="775">
+      <c r="A775" t="inlineStr"/>
+      <c r="B775" t="inlineStr"/>
+      <c r="C775" t="inlineStr"/>
+      <c r="D775" t="inlineStr"/>
+      <c r="E775" t="inlineStr"/>
+      <c r="F775" t="inlineStr"/>
+      <c r="G775" t="inlineStr"/>
+      <c r="H775" t="inlineStr"/>
+      <c r="I775" t="inlineStr"/>
+      <c r="J775" t="inlineStr"/>
+      <c r="K775" t="inlineStr"/>
+      <c r="L775" t="inlineStr"/>
+      <c r="M775" t="inlineStr"/>
+      <c r="N775" t="inlineStr"/>
+      <c r="O775" t="inlineStr"/>
+      <c r="P775" t="inlineStr"/>
+      <c r="Q775" t="inlineStr"/>
+      <c r="R775" t="inlineStr">
+        <is>
+          <t>樹立</t>
+        </is>
+      </c>
+      <c r="S775" t="inlineStr">
+        <is>
+          <t>수립</t>
+        </is>
+      </c>
+      <c r="T775" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U775" t="inlineStr"/>
+    </row>
+    <row r="776">
+      <c r="A776" t="inlineStr"/>
+      <c r="B776" t="inlineStr"/>
+      <c r="C776" t="inlineStr"/>
+      <c r="D776" t="inlineStr"/>
+      <c r="E776" t="inlineStr"/>
+      <c r="F776" t="inlineStr"/>
+      <c r="G776" t="inlineStr"/>
+      <c r="H776" t="inlineStr"/>
+      <c r="I776" t="inlineStr"/>
+      <c r="J776" t="inlineStr"/>
+      <c r="K776" t="inlineStr"/>
+      <c r="L776" t="inlineStr"/>
+      <c r="M776" t="inlineStr"/>
+      <c r="N776" t="inlineStr"/>
+      <c r="O776" t="inlineStr"/>
+      <c r="P776" t="inlineStr"/>
+      <c r="Q776" t="inlineStr"/>
+      <c r="R776" t="inlineStr">
+        <is>
+          <t>勇退</t>
+        </is>
+      </c>
+      <c r="S776" t="inlineStr">
+        <is>
+          <t>용퇴|후진에게 길을 열어 주기 위해 스스로 관직 따위에서 물러남</t>
+        </is>
+      </c>
+      <c r="T776" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U776" t="inlineStr"/>
+    </row>
+    <row r="777">
+      <c r="A777" t="inlineStr"/>
+      <c r="B777" t="inlineStr"/>
+      <c r="C777" t="inlineStr"/>
+      <c r="D777" t="inlineStr"/>
+      <c r="E777" t="inlineStr"/>
+      <c r="F777" t="inlineStr"/>
+      <c r="G777" t="inlineStr"/>
+      <c r="H777" t="inlineStr"/>
+      <c r="I777" t="inlineStr"/>
+      <c r="J777" t="inlineStr"/>
+      <c r="K777" t="inlineStr"/>
+      <c r="L777" t="inlineStr"/>
+      <c r="M777" t="inlineStr"/>
+      <c r="N777" t="inlineStr"/>
+      <c r="O777" t="inlineStr"/>
+      <c r="P777" t="inlineStr"/>
+      <c r="Q777" t="inlineStr"/>
+      <c r="R777" t="inlineStr">
+        <is>
+          <t>勃發</t>
+        </is>
+      </c>
+      <c r="S777" t="inlineStr">
+        <is>
+          <t>발발</t>
+        </is>
+      </c>
+      <c r="T777" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U777" t="inlineStr"/>
+    </row>
+    <row r="778">
+      <c r="A778" t="inlineStr"/>
+      <c r="B778" t="inlineStr"/>
+      <c r="C778" t="inlineStr"/>
+      <c r="D778" t="inlineStr"/>
+      <c r="E778" t="inlineStr"/>
+      <c r="F778" t="inlineStr"/>
+      <c r="G778" t="inlineStr"/>
+      <c r="H778" t="inlineStr"/>
+      <c r="I778" t="inlineStr"/>
+      <c r="J778" t="inlineStr"/>
+      <c r="K778" t="inlineStr"/>
+      <c r="L778" t="inlineStr"/>
+      <c r="M778" t="inlineStr"/>
+      <c r="N778" t="inlineStr"/>
+      <c r="O778" t="inlineStr"/>
+      <c r="P778" t="inlineStr"/>
+      <c r="Q778" t="inlineStr"/>
+      <c r="R778" t="inlineStr">
+        <is>
+          <t>建立</t>
+        </is>
+      </c>
+      <c r="S778" t="inlineStr">
+        <is>
+          <t>건립</t>
+        </is>
+      </c>
+      <c r="T778" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U778" t="inlineStr"/>
+    </row>
+    <row r="779">
+      <c r="A779" t="inlineStr"/>
+      <c r="B779" t="inlineStr"/>
+      <c r="C779" t="inlineStr"/>
+      <c r="D779" t="inlineStr"/>
+      <c r="E779" t="inlineStr"/>
+      <c r="F779" t="inlineStr"/>
+      <c r="G779" t="inlineStr"/>
+      <c r="H779" t="inlineStr"/>
+      <c r="I779" t="inlineStr"/>
+      <c r="J779" t="inlineStr"/>
+      <c r="K779" t="inlineStr"/>
+      <c r="L779" t="inlineStr"/>
+      <c r="M779" t="inlineStr"/>
+      <c r="N779" t="inlineStr"/>
+      <c r="O779" t="inlineStr"/>
+      <c r="P779" t="inlineStr"/>
+      <c r="Q779" t="inlineStr"/>
+      <c r="R779" t="inlineStr">
+        <is>
+          <t>仕退</t>
+        </is>
+      </c>
+      <c r="S779" t="inlineStr">
+        <is>
+          <t>사퇴</t>
+        </is>
+      </c>
+      <c r="T779" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U779" t="inlineStr"/>
+    </row>
+    <row r="780">
+      <c r="A780" t="inlineStr"/>
+      <c r="B780" t="inlineStr"/>
+      <c r="C780" t="inlineStr"/>
+      <c r="D780" t="inlineStr"/>
+      <c r="E780" t="inlineStr"/>
+      <c r="F780" t="inlineStr"/>
+      <c r="G780" t="inlineStr"/>
+      <c r="H780" t="inlineStr"/>
+      <c r="I780" t="inlineStr"/>
+      <c r="J780" t="inlineStr"/>
+      <c r="K780" t="inlineStr"/>
+      <c r="L780" t="inlineStr"/>
+      <c r="M780" t="inlineStr"/>
+      <c r="N780" t="inlineStr"/>
+      <c r="O780" t="inlineStr"/>
+      <c r="P780" t="inlineStr"/>
+      <c r="Q780" t="inlineStr"/>
+      <c r="R780" t="inlineStr">
+        <is>
+          <t>起床</t>
+        </is>
+      </c>
+      <c r="S780" t="inlineStr">
+        <is>
+          <t>기상</t>
+        </is>
+      </c>
+      <c r="T780" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U780" t="inlineStr"/>
+    </row>
+    <row r="781">
+      <c r="A781" t="inlineStr"/>
+      <c r="B781" t="inlineStr"/>
+      <c r="C781" t="inlineStr"/>
+      <c r="D781" t="inlineStr"/>
+      <c r="E781" t="inlineStr"/>
+      <c r="F781" t="inlineStr"/>
+      <c r="G781" t="inlineStr"/>
+      <c r="H781" t="inlineStr"/>
+      <c r="I781" t="inlineStr"/>
+      <c r="J781" t="inlineStr"/>
+      <c r="K781" t="inlineStr"/>
+      <c r="L781" t="inlineStr"/>
+      <c r="M781" t="inlineStr"/>
+      <c r="N781" t="inlineStr"/>
+      <c r="O781" t="inlineStr"/>
+      <c r="P781" t="inlineStr"/>
+      <c r="Q781" t="inlineStr"/>
+      <c r="R781" t="inlineStr">
+        <is>
+          <t>定立</t>
+        </is>
+      </c>
+      <c r="S781" t="inlineStr">
+        <is>
+          <t>정립</t>
+        </is>
+      </c>
+      <c r="T781" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U781" t="inlineStr"/>
+    </row>
+    <row r="782">
+      <c r="A782" t="inlineStr"/>
+      <c r="B782" t="inlineStr"/>
+      <c r="C782" t="inlineStr"/>
+      <c r="D782" t="inlineStr"/>
+      <c r="E782" t="inlineStr"/>
+      <c r="F782" t="inlineStr"/>
+      <c r="G782" t="inlineStr"/>
+      <c r="H782" t="inlineStr"/>
+      <c r="I782" t="inlineStr"/>
+      <c r="J782" t="inlineStr"/>
+      <c r="K782" t="inlineStr"/>
+      <c r="L782" t="inlineStr"/>
+      <c r="M782" t="inlineStr"/>
+      <c r="N782" t="inlineStr"/>
+      <c r="O782" t="inlineStr"/>
+      <c r="P782" t="inlineStr"/>
+      <c r="Q782" t="inlineStr"/>
+      <c r="R782" t="inlineStr">
+        <is>
+          <t>辭任</t>
+        </is>
+      </c>
+      <c r="S782" t="inlineStr">
+        <is>
+          <t>사임</t>
+        </is>
+      </c>
+      <c r="T782" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U782" t="inlineStr"/>
+    </row>
+    <row r="783">
+      <c r="A783" t="inlineStr"/>
+      <c r="B783" t="inlineStr"/>
+      <c r="C783" t="inlineStr"/>
+      <c r="D783" t="inlineStr"/>
+      <c r="E783" t="inlineStr"/>
+      <c r="F783" t="inlineStr"/>
+      <c r="G783" t="inlineStr"/>
+      <c r="H783" t="inlineStr"/>
+      <c r="I783" t="inlineStr"/>
+      <c r="J783" t="inlineStr"/>
+      <c r="K783" t="inlineStr"/>
+      <c r="L783" t="inlineStr"/>
+      <c r="M783" t="inlineStr"/>
+      <c r="N783" t="inlineStr"/>
+      <c r="O783" t="inlineStr"/>
+      <c r="P783" t="inlineStr"/>
+      <c r="Q783" t="inlineStr"/>
+      <c r="R783" t="inlineStr">
+        <is>
+          <t>生成</t>
+        </is>
+      </c>
+      <c r="S783" t="inlineStr">
+        <is>
+          <t>생성</t>
+        </is>
+      </c>
+      <c r="T783" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U783" t="inlineStr"/>
+    </row>
+    <row r="784">
+      <c r="A784" t="inlineStr"/>
+      <c r="B784" t="inlineStr"/>
+      <c r="C784" t="inlineStr"/>
+      <c r="D784" t="inlineStr"/>
+      <c r="E784" t="inlineStr"/>
+      <c r="F784" t="inlineStr"/>
+      <c r="G784" t="inlineStr"/>
+      <c r="H784" t="inlineStr"/>
+      <c r="I784" t="inlineStr"/>
+      <c r="J784" t="inlineStr"/>
+      <c r="K784" t="inlineStr"/>
+      <c r="L784" t="inlineStr"/>
+      <c r="M784" t="inlineStr"/>
+      <c r="N784" t="inlineStr"/>
+      <c r="O784" t="inlineStr"/>
+      <c r="P784" t="inlineStr"/>
+      <c r="Q784" t="inlineStr"/>
+      <c r="R784" t="inlineStr">
+        <is>
+          <t>設立</t>
+        </is>
+      </c>
+      <c r="S784" t="inlineStr">
+        <is>
+          <t>설립</t>
+        </is>
+      </c>
+      <c r="T784" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U784" t="inlineStr"/>
+    </row>
+    <row r="785">
+      <c r="A785" t="inlineStr"/>
+      <c r="B785" t="inlineStr"/>
+      <c r="C785" t="inlineStr"/>
+      <c r="D785" t="inlineStr"/>
+      <c r="E785" t="inlineStr"/>
+      <c r="F785" t="inlineStr"/>
+      <c r="G785" t="inlineStr"/>
+      <c r="H785" t="inlineStr"/>
+      <c r="I785" t="inlineStr"/>
+      <c r="J785" t="inlineStr"/>
+      <c r="K785" t="inlineStr"/>
+      <c r="L785" t="inlineStr"/>
+      <c r="M785" t="inlineStr"/>
+      <c r="N785" t="inlineStr"/>
+      <c r="O785" t="inlineStr"/>
+      <c r="P785" t="inlineStr"/>
+      <c r="Q785" t="inlineStr"/>
+      <c r="R785" t="inlineStr">
+        <is>
+          <t>退任</t>
+        </is>
+      </c>
+      <c r="S785" t="inlineStr">
+        <is>
+          <t>퇴임</t>
+        </is>
+      </c>
+      <c r="T785" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U785" t="inlineStr"/>
+    </row>
+    <row r="786">
+      <c r="A786" t="inlineStr"/>
+      <c r="B786" t="inlineStr"/>
+      <c r="C786" t="inlineStr"/>
+      <c r="D786" t="inlineStr"/>
+      <c r="E786" t="inlineStr"/>
+      <c r="F786" t="inlineStr"/>
+      <c r="G786" t="inlineStr"/>
+      <c r="H786" t="inlineStr"/>
+      <c r="I786" t="inlineStr"/>
+      <c r="J786" t="inlineStr"/>
+      <c r="K786" t="inlineStr"/>
+      <c r="L786" t="inlineStr"/>
+      <c r="M786" t="inlineStr"/>
+      <c r="N786" t="inlineStr"/>
+      <c r="O786" t="inlineStr"/>
+      <c r="P786" t="inlineStr"/>
+      <c r="Q786" t="inlineStr"/>
+      <c r="R786" t="inlineStr">
+        <is>
+          <t>近墨者黑</t>
+        </is>
+      </c>
+      <c r="S786" t="inlineStr">
+        <is>
+          <t>근묵자흑|나쁜 사람을 가까이하면 그 버릇에 물들기 쉽다</t>
+        </is>
+      </c>
+      <c r="T786" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U786" t="inlineStr"/>
+    </row>
+    <row r="787">
+      <c r="A787" t="inlineStr"/>
+      <c r="B787" t="inlineStr"/>
+      <c r="C787" t="inlineStr"/>
+      <c r="D787" t="inlineStr"/>
+      <c r="E787" t="inlineStr"/>
+      <c r="F787" t="inlineStr"/>
+      <c r="G787" t="inlineStr"/>
+      <c r="H787" t="inlineStr"/>
+      <c r="I787" t="inlineStr"/>
+      <c r="J787" t="inlineStr"/>
+      <c r="K787" t="inlineStr"/>
+      <c r="L787" t="inlineStr"/>
+      <c r="M787" t="inlineStr"/>
+      <c r="N787" t="inlineStr"/>
+      <c r="O787" t="inlineStr"/>
+      <c r="P787" t="inlineStr"/>
+      <c r="Q787" t="inlineStr"/>
+      <c r="R787" t="inlineStr">
+        <is>
+          <t>訥辯</t>
+        </is>
+      </c>
+      <c r="S787" t="inlineStr">
+        <is>
+          <t>눌변|더듬거리는 말솜씨</t>
+        </is>
+      </c>
+      <c r="T787" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U787" t="inlineStr"/>
+    </row>
+    <row r="788">
+      <c r="A788" t="inlineStr"/>
+      <c r="B788" t="inlineStr"/>
+      <c r="C788" t="inlineStr"/>
+      <c r="D788" t="inlineStr"/>
+      <c r="E788" t="inlineStr"/>
+      <c r="F788" t="inlineStr"/>
+      <c r="G788" t="inlineStr"/>
+      <c r="H788" t="inlineStr"/>
+      <c r="I788" t="inlineStr"/>
+      <c r="J788" t="inlineStr"/>
+      <c r="K788" t="inlineStr"/>
+      <c r="L788" t="inlineStr"/>
+      <c r="M788" t="inlineStr"/>
+      <c r="N788" t="inlineStr"/>
+      <c r="O788" t="inlineStr"/>
+      <c r="P788" t="inlineStr"/>
+      <c r="Q788" t="inlineStr"/>
+      <c r="R788" t="inlineStr">
+        <is>
+          <t>達辯</t>
+        </is>
+      </c>
+      <c r="S788" t="inlineStr">
+        <is>
+          <t>달변|능숙하여 막힘이 없는 말솜씨</t>
+        </is>
+      </c>
+      <c r="T788" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U788" t="inlineStr"/>
+    </row>
+    <row r="789">
+      <c r="A789" t="inlineStr"/>
+      <c r="B789" t="inlineStr"/>
+      <c r="C789" t="inlineStr"/>
+      <c r="D789" t="inlineStr"/>
+      <c r="E789" t="inlineStr"/>
+      <c r="F789" t="inlineStr"/>
+      <c r="G789" t="inlineStr"/>
+      <c r="H789" t="inlineStr"/>
+      <c r="I789" t="inlineStr"/>
+      <c r="J789" t="inlineStr"/>
+      <c r="K789" t="inlineStr"/>
+      <c r="L789" t="inlineStr"/>
+      <c r="M789" t="inlineStr"/>
+      <c r="N789" t="inlineStr"/>
+      <c r="O789" t="inlineStr"/>
+      <c r="P789" t="inlineStr"/>
+      <c r="Q789" t="inlineStr"/>
+      <c r="R789" t="inlineStr">
+        <is>
+          <t>嚆矢</t>
+        </is>
+      </c>
+      <c r="S789" t="inlineStr">
+        <is>
+          <t>효시</t>
+        </is>
+      </c>
+      <c r="T789" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U789" t="inlineStr"/>
+    </row>
+    <row r="790">
+      <c r="A790" t="inlineStr"/>
+      <c r="B790" t="inlineStr"/>
+      <c r="C790" t="inlineStr"/>
+      <c r="D790" t="inlineStr"/>
+      <c r="E790" t="inlineStr"/>
+      <c r="F790" t="inlineStr"/>
+      <c r="G790" t="inlineStr"/>
+      <c r="H790" t="inlineStr"/>
+      <c r="I790" t="inlineStr"/>
+      <c r="J790" t="inlineStr"/>
+      <c r="K790" t="inlineStr"/>
+      <c r="L790" t="inlineStr"/>
+      <c r="M790" t="inlineStr"/>
+      <c r="N790" t="inlineStr"/>
+      <c r="O790" t="inlineStr"/>
+      <c r="P790" t="inlineStr"/>
+      <c r="Q790" t="inlineStr"/>
+      <c r="R790" t="inlineStr">
+        <is>
+          <t>濫觴</t>
+        </is>
+      </c>
+      <c r="S790" t="inlineStr">
+        <is>
+          <t>남상|사물의 처음이나 기원</t>
+        </is>
+      </c>
+      <c r="T790" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U790" t="inlineStr"/>
+    </row>
+    <row r="791">
+      <c r="A791" t="inlineStr"/>
+      <c r="B791" t="inlineStr"/>
+      <c r="C791" t="inlineStr"/>
+      <c r="D791" t="inlineStr"/>
+      <c r="E791" t="inlineStr"/>
+      <c r="F791" t="inlineStr"/>
+      <c r="G791" t="inlineStr"/>
+      <c r="H791" t="inlineStr"/>
+      <c r="I791" t="inlineStr"/>
+      <c r="J791" t="inlineStr"/>
+      <c r="K791" t="inlineStr"/>
+      <c r="L791" t="inlineStr"/>
+      <c r="M791" t="inlineStr"/>
+      <c r="N791" t="inlineStr"/>
+      <c r="O791" t="inlineStr"/>
+      <c r="P791" t="inlineStr"/>
+      <c r="Q791" t="inlineStr"/>
+      <c r="R791" t="inlineStr">
+        <is>
+          <t>一毫</t>
+        </is>
+      </c>
+      <c r="S791" t="inlineStr">
+        <is>
+          <t>일호|극히 작은 정도</t>
+        </is>
+      </c>
+      <c r="T791" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U791" t="inlineStr"/>
+    </row>
+    <row r="792">
+      <c r="A792" t="inlineStr"/>
+      <c r="B792" t="inlineStr"/>
+      <c r="C792" t="inlineStr"/>
+      <c r="D792" t="inlineStr"/>
+      <c r="E792" t="inlineStr"/>
+      <c r="F792" t="inlineStr"/>
+      <c r="G792" t="inlineStr"/>
+      <c r="H792" t="inlineStr"/>
+      <c r="I792" t="inlineStr"/>
+      <c r="J792" t="inlineStr"/>
+      <c r="K792" t="inlineStr"/>
+      <c r="L792" t="inlineStr"/>
+      <c r="M792" t="inlineStr"/>
+      <c r="N792" t="inlineStr"/>
+      <c r="O792" t="inlineStr"/>
+      <c r="P792" t="inlineStr"/>
+      <c r="Q792" t="inlineStr"/>
+      <c r="R792" t="inlineStr">
+        <is>
+          <t>秋毫</t>
+        </is>
+      </c>
+      <c r="S792" t="inlineStr">
+        <is>
+          <t>추호|매우 적거나 조금인 것</t>
+        </is>
+      </c>
+      <c r="T792" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U792" t="inlineStr"/>
+    </row>
+    <row r="793">
+      <c r="A793" t="inlineStr"/>
+      <c r="B793" t="inlineStr"/>
+      <c r="C793" t="inlineStr"/>
+      <c r="D793" t="inlineStr"/>
+      <c r="E793" t="inlineStr"/>
+      <c r="F793" t="inlineStr"/>
+      <c r="G793" t="inlineStr"/>
+      <c r="H793" t="inlineStr"/>
+      <c r="I793" t="inlineStr"/>
+      <c r="J793" t="inlineStr"/>
+      <c r="K793" t="inlineStr"/>
+      <c r="L793" t="inlineStr"/>
+      <c r="M793" t="inlineStr"/>
+      <c r="N793" t="inlineStr"/>
+      <c r="O793" t="inlineStr"/>
+      <c r="P793" t="inlineStr"/>
+      <c r="Q793" t="inlineStr"/>
+      <c r="R793" t="inlineStr">
+        <is>
+          <t>乾坤</t>
+        </is>
+      </c>
+      <c r="S793" t="inlineStr">
+        <is>
+          <t>건곤|하늘과 땅</t>
+        </is>
+      </c>
+      <c r="T793" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U793" t="inlineStr"/>
+    </row>
+    <row r="794">
+      <c r="A794" t="inlineStr"/>
+      <c r="B794" t="inlineStr"/>
+      <c r="C794" t="inlineStr"/>
+      <c r="D794" t="inlineStr"/>
+      <c r="E794" t="inlineStr"/>
+      <c r="F794" t="inlineStr"/>
+      <c r="G794" t="inlineStr"/>
+      <c r="H794" t="inlineStr"/>
+      <c r="I794" t="inlineStr"/>
+      <c r="J794" t="inlineStr"/>
+      <c r="K794" t="inlineStr"/>
+      <c r="L794" t="inlineStr"/>
+      <c r="M794" t="inlineStr"/>
+      <c r="N794" t="inlineStr"/>
+      <c r="O794" t="inlineStr"/>
+      <c r="P794" t="inlineStr"/>
+      <c r="Q794" t="inlineStr"/>
+      <c r="R794" t="inlineStr">
+        <is>
+          <t>舐糠及米</t>
+        </is>
+      </c>
+      <c r="S794" t="inlineStr">
+        <is>
+          <t>지강급미|욕심이 점점 커짐</t>
+        </is>
+      </c>
+      <c r="T794" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U794" t="inlineStr"/>
+    </row>
+    <row r="795">
+      <c r="A795" t="inlineStr"/>
+      <c r="B795" t="inlineStr"/>
+      <c r="C795" t="inlineStr"/>
+      <c r="D795" t="inlineStr"/>
+      <c r="E795" t="inlineStr"/>
+      <c r="F795" t="inlineStr"/>
+      <c r="G795" t="inlineStr"/>
+      <c r="H795" t="inlineStr"/>
+      <c r="I795" t="inlineStr"/>
+      <c r="J795" t="inlineStr"/>
+      <c r="K795" t="inlineStr"/>
+      <c r="L795" t="inlineStr"/>
+      <c r="M795" t="inlineStr"/>
+      <c r="N795" t="inlineStr"/>
+      <c r="O795" t="inlineStr"/>
+      <c r="P795" t="inlineStr"/>
+      <c r="Q795" t="inlineStr"/>
+      <c r="R795" t="inlineStr">
+        <is>
+          <t>生口不網</t>
+        </is>
+      </c>
+      <c r="S795" t="inlineStr">
+        <is>
+          <t>생구불망|가난하지만 그럭저럭 먹고 살 수 있음</t>
+        </is>
+      </c>
+      <c r="T795" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U795" t="inlineStr"/>
+    </row>
+    <row r="796">
+      <c r="A796" t="inlineStr"/>
+      <c r="B796" t="inlineStr"/>
+      <c r="C796" t="inlineStr"/>
+      <c r="D796" t="inlineStr"/>
+      <c r="E796" t="inlineStr"/>
+      <c r="F796" t="inlineStr"/>
+      <c r="G796" t="inlineStr"/>
+      <c r="H796" t="inlineStr"/>
+      <c r="I796" t="inlineStr"/>
+      <c r="J796" t="inlineStr"/>
+      <c r="K796" t="inlineStr"/>
+      <c r="L796" t="inlineStr"/>
+      <c r="M796" t="inlineStr"/>
+      <c r="N796" t="inlineStr"/>
+      <c r="O796" t="inlineStr"/>
+      <c r="P796" t="inlineStr"/>
+      <c r="Q796" t="inlineStr"/>
+      <c r="R796" t="inlineStr">
+        <is>
+          <t>押釘</t>
+        </is>
+      </c>
+      <c r="S796" t="inlineStr">
+        <is>
+          <t>압정</t>
+        </is>
+      </c>
+      <c r="T796" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U796" t="inlineStr"/>
+    </row>
+    <row r="797">
+      <c r="A797" t="inlineStr"/>
+      <c r="B797" t="inlineStr"/>
+      <c r="C797" t="inlineStr"/>
+      <c r="D797" t="inlineStr"/>
+      <c r="E797" t="inlineStr"/>
+      <c r="F797" t="inlineStr"/>
+      <c r="G797" t="inlineStr"/>
+      <c r="H797" t="inlineStr"/>
+      <c r="I797" t="inlineStr"/>
+      <c r="J797" t="inlineStr"/>
+      <c r="K797" t="inlineStr"/>
+      <c r="L797" t="inlineStr"/>
+      <c r="M797" t="inlineStr"/>
+      <c r="N797" t="inlineStr"/>
+      <c r="O797" t="inlineStr"/>
+      <c r="P797" t="inlineStr"/>
+      <c r="Q797" t="inlineStr"/>
+      <c r="R797" t="inlineStr">
+        <is>
+          <t>壓迫</t>
+        </is>
+      </c>
+      <c r="S797" t="inlineStr">
+        <is>
+          <t>압박</t>
+        </is>
+      </c>
+      <c r="T797" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U797" t="inlineStr"/>
+    </row>
+    <row r="798">
+      <c r="A798" t="inlineStr"/>
+      <c r="B798" t="inlineStr"/>
+      <c r="C798" t="inlineStr"/>
+      <c r="D798" t="inlineStr"/>
+      <c r="E798" t="inlineStr"/>
+      <c r="F798" t="inlineStr"/>
+      <c r="G798" t="inlineStr"/>
+      <c r="H798" t="inlineStr"/>
+      <c r="I798" t="inlineStr"/>
+      <c r="J798" t="inlineStr"/>
+      <c r="K798" t="inlineStr"/>
+      <c r="L798" t="inlineStr"/>
+      <c r="M798" t="inlineStr"/>
+      <c r="N798" t="inlineStr"/>
+      <c r="O798" t="inlineStr"/>
+      <c r="P798" t="inlineStr"/>
+      <c r="Q798" t="inlineStr"/>
+      <c r="R798" t="inlineStr">
+        <is>
+          <t>壓勝</t>
+        </is>
+      </c>
+      <c r="S798" t="inlineStr">
+        <is>
+          <t>압승</t>
+        </is>
+      </c>
+      <c r="T798" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U798" t="inlineStr"/>
+    </row>
+    <row r="799">
+      <c r="A799" t="inlineStr"/>
+      <c r="B799" t="inlineStr"/>
+      <c r="C799" t="inlineStr"/>
+      <c r="D799" t="inlineStr"/>
+      <c r="E799" t="inlineStr"/>
+      <c r="F799" t="inlineStr"/>
+      <c r="G799" t="inlineStr"/>
+      <c r="H799" t="inlineStr"/>
+      <c r="I799" t="inlineStr"/>
+      <c r="J799" t="inlineStr"/>
+      <c r="K799" t="inlineStr"/>
+      <c r="L799" t="inlineStr"/>
+      <c r="M799" t="inlineStr"/>
+      <c r="N799" t="inlineStr"/>
+      <c r="O799" t="inlineStr"/>
+      <c r="P799" t="inlineStr"/>
+      <c r="Q799" t="inlineStr"/>
+      <c r="R799" t="inlineStr">
+        <is>
+          <t>壓縮</t>
+        </is>
+      </c>
+      <c r="S799" t="inlineStr">
+        <is>
+          <t>압축</t>
+        </is>
+      </c>
+      <c r="T799" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U799" t="inlineStr"/>
+    </row>
+    <row r="800">
+      <c r="A800" t="inlineStr"/>
+      <c r="B800" t="inlineStr"/>
+      <c r="C800" t="inlineStr"/>
+      <c r="D800" t="inlineStr"/>
+      <c r="E800" t="inlineStr"/>
+      <c r="F800" t="inlineStr"/>
+      <c r="G800" t="inlineStr"/>
+      <c r="H800" t="inlineStr"/>
+      <c r="I800" t="inlineStr"/>
+      <c r="J800" t="inlineStr"/>
+      <c r="K800" t="inlineStr"/>
+      <c r="L800" t="inlineStr"/>
+      <c r="M800" t="inlineStr"/>
+      <c r="N800" t="inlineStr"/>
+      <c r="O800" t="inlineStr"/>
+      <c r="P800" t="inlineStr"/>
+      <c r="Q800" t="inlineStr"/>
+      <c r="R800" t="inlineStr">
+        <is>
+          <t>謙讓之辭</t>
+        </is>
+      </c>
+      <c r="S800" t="inlineStr">
+        <is>
+          <t>겸양지사|겸손의 말</t>
+        </is>
+      </c>
+      <c r="T800" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U800" t="inlineStr"/>
+    </row>
+    <row r="801">
+      <c r="A801" t="inlineStr"/>
+      <c r="B801" t="inlineStr"/>
+      <c r="C801" t="inlineStr"/>
+      <c r="D801" t="inlineStr"/>
+      <c r="E801" t="inlineStr"/>
+      <c r="F801" t="inlineStr"/>
+      <c r="G801" t="inlineStr"/>
+      <c r="H801" t="inlineStr"/>
+      <c r="I801" t="inlineStr"/>
+      <c r="J801" t="inlineStr"/>
+      <c r="K801" t="inlineStr"/>
+      <c r="L801" t="inlineStr"/>
+      <c r="M801" t="inlineStr"/>
+      <c r="N801" t="inlineStr"/>
+      <c r="O801" t="inlineStr"/>
+      <c r="P801" t="inlineStr"/>
+      <c r="Q801" t="inlineStr"/>
+      <c r="R801" t="inlineStr">
+        <is>
+          <t>記號</t>
+        </is>
+      </c>
+      <c r="S801" t="inlineStr">
+        <is>
+          <t>기호|부호, 문자, 표지</t>
+        </is>
+      </c>
+      <c r="T801" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U801" t="inlineStr"/>
+    </row>
+    <row r="802">
+      <c r="A802" t="inlineStr"/>
+      <c r="B802" t="inlineStr"/>
+      <c r="C802" t="inlineStr"/>
+      <c r="D802" t="inlineStr"/>
+      <c r="E802" t="inlineStr"/>
+      <c r="F802" t="inlineStr"/>
+      <c r="G802" t="inlineStr"/>
+      <c r="H802" t="inlineStr"/>
+      <c r="I802" t="inlineStr"/>
+      <c r="J802" t="inlineStr"/>
+      <c r="K802" t="inlineStr"/>
+      <c r="L802" t="inlineStr"/>
+      <c r="M802" t="inlineStr"/>
+      <c r="N802" t="inlineStr"/>
+      <c r="O802" t="inlineStr"/>
+      <c r="P802" t="inlineStr"/>
+      <c r="Q802" t="inlineStr"/>
+      <c r="R802" t="inlineStr">
+        <is>
+          <t>嗜好</t>
+        </is>
+      </c>
+      <c r="S802" t="inlineStr">
+        <is>
+          <t>기호|즐기고 좋아함</t>
+        </is>
+      </c>
+      <c r="T802" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U802" t="inlineStr"/>
+    </row>
+    <row r="803">
+      <c r="A803" t="inlineStr"/>
+      <c r="B803" t="inlineStr"/>
+      <c r="C803" t="inlineStr"/>
+      <c r="D803" t="inlineStr"/>
+      <c r="E803" t="inlineStr"/>
+      <c r="F803" t="inlineStr"/>
+      <c r="G803" t="inlineStr"/>
+      <c r="H803" t="inlineStr"/>
+      <c r="I803" t="inlineStr"/>
+      <c r="J803" t="inlineStr"/>
+      <c r="K803" t="inlineStr"/>
+      <c r="L803" t="inlineStr"/>
+      <c r="M803" t="inlineStr"/>
+      <c r="N803" t="inlineStr"/>
+      <c r="O803" t="inlineStr"/>
+      <c r="P803" t="inlineStr"/>
+      <c r="Q803" t="inlineStr"/>
+      <c r="R803" t="inlineStr">
+        <is>
+          <t>匿名</t>
+        </is>
+      </c>
+      <c r="S803" t="inlineStr">
+        <is>
+          <t>익명</t>
+        </is>
+      </c>
+      <c r="T803" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U803" t="inlineStr"/>
+    </row>
+    <row r="804">
+      <c r="A804" t="inlineStr"/>
+      <c r="B804" t="inlineStr"/>
+      <c r="C804" t="inlineStr"/>
+      <c r="D804" t="inlineStr"/>
+      <c r="E804" t="inlineStr"/>
+      <c r="F804" t="inlineStr"/>
+      <c r="G804" t="inlineStr"/>
+      <c r="H804" t="inlineStr"/>
+      <c r="I804" t="inlineStr"/>
+      <c r="J804" t="inlineStr"/>
+      <c r="K804" t="inlineStr"/>
+      <c r="L804" t="inlineStr"/>
+      <c r="M804" t="inlineStr"/>
+      <c r="N804" t="inlineStr"/>
+      <c r="O804" t="inlineStr"/>
+      <c r="P804" t="inlineStr"/>
+      <c r="Q804" t="inlineStr"/>
+      <c r="R804" t="inlineStr">
+        <is>
+          <t>販賣</t>
+        </is>
+      </c>
+      <c r="S804" t="inlineStr">
+        <is>
+          <t>판매</t>
+        </is>
+      </c>
+      <c r="T804" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U804" t="inlineStr"/>
+    </row>
+    <row r="805">
+      <c r="A805" t="inlineStr"/>
+      <c r="B805" t="inlineStr"/>
+      <c r="C805" t="inlineStr"/>
+      <c r="D805" t="inlineStr"/>
+      <c r="E805" t="inlineStr"/>
+      <c r="F805" t="inlineStr"/>
+      <c r="G805" t="inlineStr"/>
+      <c r="H805" t="inlineStr"/>
+      <c r="I805" t="inlineStr"/>
+      <c r="J805" t="inlineStr"/>
+      <c r="K805" t="inlineStr"/>
+      <c r="L805" t="inlineStr"/>
+      <c r="M805" t="inlineStr"/>
+      <c r="N805" t="inlineStr"/>
+      <c r="O805" t="inlineStr"/>
+      <c r="P805" t="inlineStr"/>
+      <c r="Q805" t="inlineStr"/>
+      <c r="R805" t="inlineStr">
+        <is>
+          <t>遼東之豕</t>
+        </is>
+      </c>
+      <c r="S805" t="inlineStr">
+        <is>
+          <t>요동지시|남이 보기에는 하찮은 것을 대단히 귀한 것으로 생각하는 어리석은 태도</t>
+        </is>
+      </c>
+      <c r="T805" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U805" t="inlineStr"/>
+    </row>
+    <row r="806">
+      <c r="A806" t="inlineStr"/>
+      <c r="B806" t="inlineStr"/>
+      <c r="C806" t="inlineStr"/>
+      <c r="D806" t="inlineStr"/>
+      <c r="E806" t="inlineStr"/>
+      <c r="F806" t="inlineStr"/>
+      <c r="G806" t="inlineStr"/>
+      <c r="H806" t="inlineStr"/>
+      <c r="I806" t="inlineStr"/>
+      <c r="J806" t="inlineStr"/>
+      <c r="K806" t="inlineStr"/>
+      <c r="L806" t="inlineStr"/>
+      <c r="M806" t="inlineStr"/>
+      <c r="N806" t="inlineStr"/>
+      <c r="O806" t="inlineStr"/>
+      <c r="P806" t="inlineStr"/>
+      <c r="Q806" t="inlineStr"/>
+      <c r="R806" t="inlineStr">
+        <is>
+          <t>換骨奪胎</t>
+        </is>
+      </c>
+      <c r="S806" t="inlineStr">
+        <is>
+          <t>환골탈태|딴사람처럼 됨</t>
+        </is>
+      </c>
+      <c r="T806" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U806" t="inlineStr"/>
+    </row>
+    <row r="807">
+      <c r="A807" t="inlineStr"/>
+      <c r="B807" t="inlineStr"/>
+      <c r="C807" t="inlineStr"/>
+      <c r="D807" t="inlineStr"/>
+      <c r="E807" t="inlineStr"/>
+      <c r="F807" t="inlineStr"/>
+      <c r="G807" t="inlineStr"/>
+      <c r="H807" t="inlineStr"/>
+      <c r="I807" t="inlineStr"/>
+      <c r="J807" t="inlineStr"/>
+      <c r="K807" t="inlineStr"/>
+      <c r="L807" t="inlineStr"/>
+      <c r="M807" t="inlineStr"/>
+      <c r="N807" t="inlineStr"/>
+      <c r="O807" t="inlineStr"/>
+      <c r="P807" t="inlineStr"/>
+      <c r="Q807" t="inlineStr"/>
+      <c r="R807" t="inlineStr">
+        <is>
+          <t>犬兎之爭</t>
+        </is>
+      </c>
+      <c r="S807" t="inlineStr">
+        <is>
+          <t>견토지쟁|양자의 싸움에서 제3자가 이득을 얻음</t>
+        </is>
+      </c>
+      <c r="T807" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U807" t="inlineStr"/>
+    </row>
+    <row r="808">
+      <c r="A808" t="inlineStr"/>
+      <c r="B808" t="inlineStr"/>
+      <c r="C808" t="inlineStr"/>
+      <c r="D808" t="inlineStr"/>
+      <c r="E808" t="inlineStr"/>
+      <c r="F808" t="inlineStr"/>
+      <c r="G808" t="inlineStr"/>
+      <c r="H808" t="inlineStr"/>
+      <c r="I808" t="inlineStr"/>
+      <c r="J808" t="inlineStr"/>
+      <c r="K808" t="inlineStr"/>
+      <c r="L808" t="inlineStr"/>
+      <c r="M808" t="inlineStr"/>
+      <c r="N808" t="inlineStr"/>
+      <c r="O808" t="inlineStr"/>
+      <c r="P808" t="inlineStr"/>
+      <c r="Q808" t="inlineStr"/>
+      <c r="R808" t="inlineStr">
+        <is>
+          <t>一魚濁水</t>
+        </is>
+      </c>
+      <c r="S808" t="inlineStr">
+        <is>
+          <t>일어탁수|물고기 한 마리가 큰물을 흐림</t>
+        </is>
+      </c>
+      <c r="T808" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U808" t="inlineStr"/>
+    </row>
+    <row r="809">
+      <c r="A809" t="inlineStr"/>
+      <c r="B809" t="inlineStr"/>
+      <c r="C809" t="inlineStr"/>
+      <c r="D809" t="inlineStr"/>
+      <c r="E809" t="inlineStr"/>
+      <c r="F809" t="inlineStr"/>
+      <c r="G809" t="inlineStr"/>
+      <c r="H809" t="inlineStr"/>
+      <c r="I809" t="inlineStr"/>
+      <c r="J809" t="inlineStr"/>
+      <c r="K809" t="inlineStr"/>
+      <c r="L809" t="inlineStr"/>
+      <c r="M809" t="inlineStr"/>
+      <c r="N809" t="inlineStr"/>
+      <c r="O809" t="inlineStr"/>
+      <c r="P809" t="inlineStr"/>
+      <c r="Q809" t="inlineStr"/>
+      <c r="R809" t="inlineStr">
+        <is>
+          <t>附和雷同</t>
+        </is>
+      </c>
+      <c r="S809" t="inlineStr">
+        <is>
+          <t>부화뇌동|소신 없이 그저 남이 하는 대로 따라감</t>
+        </is>
+      </c>
+      <c r="T809" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U809" t="inlineStr"/>
+    </row>
+    <row r="810">
+      <c r="A810" t="inlineStr"/>
+      <c r="B810" t="inlineStr"/>
+      <c r="C810" t="inlineStr"/>
+      <c r="D810" t="inlineStr"/>
+      <c r="E810" t="inlineStr"/>
+      <c r="F810" t="inlineStr"/>
+      <c r="G810" t="inlineStr"/>
+      <c r="H810" t="inlineStr"/>
+      <c r="I810" t="inlineStr"/>
+      <c r="J810" t="inlineStr"/>
+      <c r="K810" t="inlineStr"/>
+      <c r="L810" t="inlineStr"/>
+      <c r="M810" t="inlineStr"/>
+      <c r="N810" t="inlineStr"/>
+      <c r="O810" t="inlineStr"/>
+      <c r="P810" t="inlineStr"/>
+      <c r="Q810" t="inlineStr"/>
+      <c r="R810" t="inlineStr">
+        <is>
+          <t>面從腹背</t>
+        </is>
+      </c>
+      <c r="S810" t="inlineStr">
+        <is>
+          <t>면종복배|겉으로는 순종하는 체하고 속으로는 딴마음을 먹음</t>
+        </is>
+      </c>
+      <c r="T810" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U810" t="inlineStr"/>
+    </row>
+    <row r="811">
+      <c r="A811" t="inlineStr"/>
+      <c r="B811" t="inlineStr"/>
+      <c r="C811" t="inlineStr"/>
+      <c r="D811" t="inlineStr"/>
+      <c r="E811" t="inlineStr"/>
+      <c r="F811" t="inlineStr"/>
+      <c r="G811" t="inlineStr"/>
+      <c r="H811" t="inlineStr"/>
+      <c r="I811" t="inlineStr"/>
+      <c r="J811" t="inlineStr"/>
+      <c r="K811" t="inlineStr"/>
+      <c r="L811" t="inlineStr"/>
+      <c r="M811" t="inlineStr"/>
+      <c r="N811" t="inlineStr"/>
+      <c r="O811" t="inlineStr"/>
+      <c r="P811" t="inlineStr"/>
+      <c r="Q811" t="inlineStr"/>
+      <c r="R811" t="inlineStr">
+        <is>
+          <t>口蜜腹劍</t>
+        </is>
+      </c>
+      <c r="S811" t="inlineStr">
+        <is>
+          <t>구밀복검|겉으로는 친절하나 마음속은 음흉함</t>
+        </is>
+      </c>
+      <c r="T811" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U811" t="inlineStr"/>
+    </row>
+    <row r="812">
+      <c r="A812" t="inlineStr"/>
+      <c r="B812" t="inlineStr"/>
+      <c r="C812" t="inlineStr"/>
+      <c r="D812" t="inlineStr"/>
+      <c r="E812" t="inlineStr"/>
+      <c r="F812" t="inlineStr"/>
+      <c r="G812" t="inlineStr"/>
+      <c r="H812" t="inlineStr"/>
+      <c r="I812" t="inlineStr"/>
+      <c r="J812" t="inlineStr"/>
+      <c r="K812" t="inlineStr"/>
+      <c r="L812" t="inlineStr"/>
+      <c r="M812" t="inlineStr"/>
+      <c r="N812" t="inlineStr"/>
+      <c r="O812" t="inlineStr"/>
+      <c r="P812" t="inlineStr"/>
+      <c r="Q812" t="inlineStr"/>
+      <c r="R812" t="inlineStr">
+        <is>
+          <t>笑裏藏刀</t>
+        </is>
+      </c>
+      <c r="S812" t="inlineStr">
+        <is>
+          <t>소리장도|웃음 속에 칼을 감춘다. 말은 좋게 하나 마음속으로는 해칠 뜻을 가진 것</t>
+        </is>
+      </c>
+      <c r="T812" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U812" t="inlineStr"/>
+    </row>
+    <row r="813">
+      <c r="A813" t="inlineStr"/>
+      <c r="B813" t="inlineStr"/>
+      <c r="C813" t="inlineStr"/>
+      <c r="D813" t="inlineStr"/>
+      <c r="E813" t="inlineStr"/>
+      <c r="F813" t="inlineStr"/>
+      <c r="G813" t="inlineStr"/>
+      <c r="H813" t="inlineStr"/>
+      <c r="I813" t="inlineStr"/>
+      <c r="J813" t="inlineStr"/>
+      <c r="K813" t="inlineStr"/>
+      <c r="L813" t="inlineStr"/>
+      <c r="M813" t="inlineStr"/>
+      <c r="N813" t="inlineStr"/>
+      <c r="O813" t="inlineStr"/>
+      <c r="P813" t="inlineStr"/>
+      <c r="Q813" t="inlineStr"/>
+      <c r="R813" t="inlineStr">
+        <is>
+          <t>莫逆之友</t>
+        </is>
+      </c>
+      <c r="S813" t="inlineStr">
+        <is>
+          <t>막역지우|생사를 같이 할 수 있는 친밀한 벗</t>
+        </is>
+      </c>
+      <c r="T813" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U813" t="inlineStr"/>
+    </row>
+    <row r="814">
+      <c r="A814" t="inlineStr"/>
+      <c r="B814" t="inlineStr"/>
+      <c r="C814" t="inlineStr"/>
+      <c r="D814" t="inlineStr"/>
+      <c r="E814" t="inlineStr"/>
+      <c r="F814" t="inlineStr"/>
+      <c r="G814" t="inlineStr"/>
+      <c r="H814" t="inlineStr"/>
+      <c r="I814" t="inlineStr"/>
+      <c r="J814" t="inlineStr"/>
+      <c r="K814" t="inlineStr"/>
+      <c r="L814" t="inlineStr"/>
+      <c r="M814" t="inlineStr"/>
+      <c r="N814" t="inlineStr"/>
+      <c r="O814" t="inlineStr"/>
+      <c r="P814" t="inlineStr"/>
+      <c r="Q814" t="inlineStr"/>
+      <c r="R814" t="inlineStr">
+        <is>
+          <t>伏地不動</t>
+        </is>
+      </c>
+      <c r="S814" t="inlineStr">
+        <is>
+          <t>복지부동|주어진 일이나 업무를 처리하는 데 몸을 사림</t>
+        </is>
+      </c>
+      <c r="T814" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U814" t="inlineStr"/>
+    </row>
+    <row r="815">
+      <c r="A815" t="inlineStr"/>
+      <c r="B815" t="inlineStr"/>
+      <c r="C815" t="inlineStr"/>
+      <c r="D815" t="inlineStr"/>
+      <c r="E815" t="inlineStr"/>
+      <c r="F815" t="inlineStr"/>
+      <c r="G815" t="inlineStr"/>
+      <c r="H815" t="inlineStr"/>
+      <c r="I815" t="inlineStr"/>
+      <c r="J815" t="inlineStr"/>
+      <c r="K815" t="inlineStr"/>
+      <c r="L815" t="inlineStr"/>
+      <c r="M815" t="inlineStr"/>
+      <c r="N815" t="inlineStr"/>
+      <c r="O815" t="inlineStr"/>
+      <c r="P815" t="inlineStr"/>
+      <c r="Q815" t="inlineStr"/>
+      <c r="R815" t="inlineStr">
+        <is>
+          <t>下意上達</t>
+        </is>
+      </c>
+      <c r="S815" t="inlineStr">
+        <is>
+          <t>하의상달|아랫사람의 뜻을 윗사람에게 전달한다</t>
+        </is>
+      </c>
+      <c r="T815" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U815" t="inlineStr"/>
+    </row>
+    <row r="816">
+      <c r="A816" t="inlineStr"/>
+      <c r="B816" t="inlineStr"/>
+      <c r="C816" t="inlineStr"/>
+      <c r="D816" t="inlineStr"/>
+      <c r="E816" t="inlineStr"/>
+      <c r="F816" t="inlineStr"/>
+      <c r="G816" t="inlineStr"/>
+      <c r="H816" t="inlineStr"/>
+      <c r="I816" t="inlineStr"/>
+      <c r="J816" t="inlineStr"/>
+      <c r="K816" t="inlineStr"/>
+      <c r="L816" t="inlineStr"/>
+      <c r="M816" t="inlineStr"/>
+      <c r="N816" t="inlineStr"/>
+      <c r="O816" t="inlineStr"/>
+      <c r="P816" t="inlineStr"/>
+      <c r="Q816" t="inlineStr"/>
+      <c r="R816" t="inlineStr">
+        <is>
+          <t>途中下車</t>
+        </is>
+      </c>
+      <c r="S816" t="inlineStr">
+        <is>
+          <t>도중하차|시작한 일을 끝내지 않고 중간에서 그만둠</t>
+        </is>
+      </c>
+      <c r="T816" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U816" t="inlineStr"/>
+    </row>
+    <row r="817">
+      <c r="A817" t="inlineStr"/>
+      <c r="B817" t="inlineStr"/>
+      <c r="C817" t="inlineStr"/>
+      <c r="D817" t="inlineStr"/>
+      <c r="E817" t="inlineStr"/>
+      <c r="F817" t="inlineStr"/>
+      <c r="G817" t="inlineStr"/>
+      <c r="H817" t="inlineStr"/>
+      <c r="I817" t="inlineStr"/>
+      <c r="J817" t="inlineStr"/>
+      <c r="K817" t="inlineStr"/>
+      <c r="L817" t="inlineStr"/>
+      <c r="M817" t="inlineStr"/>
+      <c r="N817" t="inlineStr"/>
+      <c r="O817" t="inlineStr"/>
+      <c r="P817" t="inlineStr"/>
+      <c r="Q817" t="inlineStr"/>
+      <c r="R817" t="inlineStr">
+        <is>
+          <t>自繩自縛</t>
+        </is>
+      </c>
+      <c r="S817" t="inlineStr">
+        <is>
+          <t>자승자박|제 스스로 한 말과 행동으로 인해 처지가 곤란하게 된 경우</t>
+        </is>
+      </c>
+      <c r="T817" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U817" t="inlineStr"/>
+    </row>
+    <row r="818">
+      <c r="A818" t="inlineStr"/>
+      <c r="B818" t="inlineStr"/>
+      <c r="C818" t="inlineStr"/>
+      <c r="D818" t="inlineStr"/>
+      <c r="E818" t="inlineStr"/>
+      <c r="F818" t="inlineStr"/>
+      <c r="G818" t="inlineStr"/>
+      <c r="H818" t="inlineStr"/>
+      <c r="I818" t="inlineStr"/>
+      <c r="J818" t="inlineStr"/>
+      <c r="K818" t="inlineStr"/>
+      <c r="L818" t="inlineStr"/>
+      <c r="M818" t="inlineStr"/>
+      <c r="N818" t="inlineStr"/>
+      <c r="O818" t="inlineStr"/>
+      <c r="P818" t="inlineStr"/>
+      <c r="Q818" t="inlineStr"/>
+      <c r="R818" t="inlineStr">
+        <is>
+          <t>福輕乎羽</t>
+        </is>
+      </c>
+      <c r="S818" t="inlineStr">
+        <is>
+          <t>복경호우|마음 먹기에 따라 행복하게 된다</t>
+        </is>
+      </c>
+      <c r="T818" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U818" t="inlineStr"/>
+    </row>
+    <row r="819">
+      <c r="A819" t="inlineStr"/>
+      <c r="B819" t="inlineStr"/>
+      <c r="C819" t="inlineStr"/>
+      <c r="D819" t="inlineStr"/>
+      <c r="E819" t="inlineStr"/>
+      <c r="F819" t="inlineStr"/>
+      <c r="G819" t="inlineStr"/>
+      <c r="H819" t="inlineStr"/>
+      <c r="I819" t="inlineStr"/>
+      <c r="J819" t="inlineStr"/>
+      <c r="K819" t="inlineStr"/>
+      <c r="L819" t="inlineStr"/>
+      <c r="M819" t="inlineStr"/>
+      <c r="N819" t="inlineStr"/>
+      <c r="O819" t="inlineStr"/>
+      <c r="P819" t="inlineStr"/>
+      <c r="Q819" t="inlineStr"/>
+      <c r="R819" t="inlineStr">
+        <is>
+          <t>曠日彌久</t>
+        </is>
+      </c>
+      <c r="S819" t="inlineStr">
+        <is>
+          <t>광일미구|헛되이 세월을 보내며 일을 오래 끈다</t>
+        </is>
+      </c>
+      <c r="T819" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U819" t="inlineStr"/>
+    </row>
+    <row r="820">
+      <c r="A820" t="inlineStr"/>
+      <c r="B820" t="inlineStr"/>
+      <c r="C820" t="inlineStr"/>
+      <c r="D820" t="inlineStr"/>
+      <c r="E820" t="inlineStr"/>
+      <c r="F820" t="inlineStr"/>
+      <c r="G820" t="inlineStr"/>
+      <c r="H820" t="inlineStr"/>
+      <c r="I820" t="inlineStr"/>
+      <c r="J820" t="inlineStr"/>
+      <c r="K820" t="inlineStr"/>
+      <c r="L820" t="inlineStr"/>
+      <c r="M820" t="inlineStr"/>
+      <c r="N820" t="inlineStr"/>
+      <c r="O820" t="inlineStr"/>
+      <c r="P820" t="inlineStr"/>
+      <c r="Q820" t="inlineStr"/>
+      <c r="R820" t="inlineStr">
+        <is>
+          <t>家鷄野雉</t>
+        </is>
+      </c>
+      <c r="S820" t="inlineStr">
+        <is>
+          <t>가계야치|아내를 소박하고 첩을 좋아한다. 좋은 필적을 버리고 나쁜 필적을 좋아한다</t>
+        </is>
+      </c>
+      <c r="T820" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U820" t="inlineStr"/>
+    </row>
+    <row r="821">
+      <c r="A821" t="inlineStr"/>
+      <c r="B821" t="inlineStr"/>
+      <c r="C821" t="inlineStr"/>
+      <c r="D821" t="inlineStr"/>
+      <c r="E821" t="inlineStr"/>
+      <c r="F821" t="inlineStr"/>
+      <c r="G821" t="inlineStr"/>
+      <c r="H821" t="inlineStr"/>
+      <c r="I821" t="inlineStr"/>
+      <c r="J821" t="inlineStr"/>
+      <c r="K821" t="inlineStr"/>
+      <c r="L821" t="inlineStr"/>
+      <c r="M821" t="inlineStr"/>
+      <c r="N821" t="inlineStr"/>
+      <c r="O821" t="inlineStr"/>
+      <c r="P821" t="inlineStr"/>
+      <c r="Q821" t="inlineStr"/>
+      <c r="R821" t="inlineStr">
+        <is>
+          <t>慇懃</t>
+        </is>
+      </c>
+      <c r="S821" t="inlineStr">
+        <is>
+          <t>은근</t>
+        </is>
+      </c>
+      <c r="T821" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U821" t="inlineStr"/>
+    </row>
+    <row r="822">
+      <c r="A822" t="inlineStr"/>
+      <c r="B822" t="inlineStr"/>
+      <c r="C822" t="inlineStr"/>
+      <c r="D822" t="inlineStr"/>
+      <c r="E822" t="inlineStr"/>
+      <c r="F822" t="inlineStr"/>
+      <c r="G822" t="inlineStr"/>
+      <c r="H822" t="inlineStr"/>
+      <c r="I822" t="inlineStr"/>
+      <c r="J822" t="inlineStr"/>
+      <c r="K822" t="inlineStr"/>
+      <c r="L822" t="inlineStr"/>
+      <c r="M822" t="inlineStr"/>
+      <c r="N822" t="inlineStr"/>
+      <c r="O822" t="inlineStr"/>
+      <c r="P822" t="inlineStr"/>
+      <c r="Q822" t="inlineStr"/>
+      <c r="R822" t="inlineStr">
+        <is>
+          <t>惟獨</t>
+        </is>
+      </c>
+      <c r="S822" t="inlineStr">
+        <is>
+          <t>유독</t>
+        </is>
+      </c>
+      <c r="T822" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U822" t="inlineStr"/>
+    </row>
+    <row r="823">
+      <c r="A823" t="inlineStr"/>
+      <c r="B823" t="inlineStr"/>
+      <c r="C823" t="inlineStr"/>
+      <c r="D823" t="inlineStr"/>
+      <c r="E823" t="inlineStr"/>
+      <c r="F823" t="inlineStr"/>
+      <c r="G823" t="inlineStr"/>
+      <c r="H823" t="inlineStr"/>
+      <c r="I823" t="inlineStr"/>
+      <c r="J823" t="inlineStr"/>
+      <c r="K823" t="inlineStr"/>
+      <c r="L823" t="inlineStr"/>
+      <c r="M823" t="inlineStr"/>
+      <c r="N823" t="inlineStr"/>
+      <c r="O823" t="inlineStr"/>
+      <c r="P823" t="inlineStr"/>
+      <c r="Q823" t="inlineStr"/>
+      <c r="R823" t="inlineStr">
+        <is>
+          <t>寂寂</t>
+        </is>
+      </c>
+      <c r="S823" t="inlineStr">
+        <is>
+          <t>적적</t>
+        </is>
+      </c>
+      <c r="T823" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U823" t="inlineStr"/>
+    </row>
+    <row r="824">
+      <c r="A824" t="inlineStr"/>
+      <c r="B824" t="inlineStr"/>
+      <c r="C824" t="inlineStr"/>
+      <c r="D824" t="inlineStr"/>
+      <c r="E824" t="inlineStr"/>
+      <c r="F824" t="inlineStr"/>
+      <c r="G824" t="inlineStr"/>
+      <c r="H824" t="inlineStr"/>
+      <c r="I824" t="inlineStr"/>
+      <c r="J824" t="inlineStr"/>
+      <c r="K824" t="inlineStr"/>
+      <c r="L824" t="inlineStr"/>
+      <c r="M824" t="inlineStr"/>
+      <c r="N824" t="inlineStr"/>
+      <c r="O824" t="inlineStr"/>
+      <c r="P824" t="inlineStr"/>
+      <c r="Q824" t="inlineStr"/>
+      <c r="R824" t="inlineStr">
+        <is>
+          <t>凜凜</t>
+        </is>
+      </c>
+      <c r="S824" t="inlineStr">
+        <is>
+          <t>늠름</t>
+        </is>
+      </c>
+      <c r="T824" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U824" t="inlineStr"/>
+    </row>
+    <row r="825">
+      <c r="A825" t="inlineStr"/>
+      <c r="B825" t="inlineStr"/>
+      <c r="C825" t="inlineStr"/>
+      <c r="D825" t="inlineStr"/>
+      <c r="E825" t="inlineStr"/>
+      <c r="F825" t="inlineStr"/>
+      <c r="G825" t="inlineStr"/>
+      <c r="H825" t="inlineStr"/>
+      <c r="I825" t="inlineStr"/>
+      <c r="J825" t="inlineStr"/>
+      <c r="K825" t="inlineStr"/>
+      <c r="L825" t="inlineStr"/>
+      <c r="M825" t="inlineStr"/>
+      <c r="N825" t="inlineStr"/>
+      <c r="O825" t="inlineStr"/>
+      <c r="P825" t="inlineStr"/>
+      <c r="Q825" t="inlineStr"/>
+      <c r="R825" t="inlineStr">
+        <is>
+          <t>受賞</t>
+        </is>
+      </c>
+      <c r="S825" t="inlineStr">
+        <is>
+          <t>수상|상을 받음</t>
+        </is>
+      </c>
+      <c r="T825" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U825" t="inlineStr"/>
+    </row>
+    <row r="826">
+      <c r="A826" t="inlineStr"/>
+      <c r="B826" t="inlineStr"/>
+      <c r="C826" t="inlineStr"/>
+      <c r="D826" t="inlineStr"/>
+      <c r="E826" t="inlineStr"/>
+      <c r="F826" t="inlineStr"/>
+      <c r="G826" t="inlineStr"/>
+      <c r="H826" t="inlineStr"/>
+      <c r="I826" t="inlineStr"/>
+      <c r="J826" t="inlineStr"/>
+      <c r="K826" t="inlineStr"/>
+      <c r="L826" t="inlineStr"/>
+      <c r="M826" t="inlineStr"/>
+      <c r="N826" t="inlineStr"/>
+      <c r="O826" t="inlineStr"/>
+      <c r="P826" t="inlineStr"/>
+      <c r="Q826" t="inlineStr"/>
+      <c r="R826" t="inlineStr">
+        <is>
+          <t>手相</t>
+        </is>
+      </c>
+      <c r="S826" t="inlineStr">
+        <is>
+          <t>수상|손금이나 손의 모양</t>
+        </is>
+      </c>
+      <c r="T826" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U826" t="inlineStr"/>
+    </row>
+    <row r="827">
+      <c r="A827" t="inlineStr"/>
+      <c r="B827" t="inlineStr"/>
+      <c r="C827" t="inlineStr"/>
+      <c r="D827" t="inlineStr"/>
+      <c r="E827" t="inlineStr"/>
+      <c r="F827" t="inlineStr"/>
+      <c r="G827" t="inlineStr"/>
+      <c r="H827" t="inlineStr"/>
+      <c r="I827" t="inlineStr"/>
+      <c r="J827" t="inlineStr"/>
+      <c r="K827" t="inlineStr"/>
+      <c r="L827" t="inlineStr"/>
+      <c r="M827" t="inlineStr"/>
+      <c r="N827" t="inlineStr"/>
+      <c r="O827" t="inlineStr"/>
+      <c r="P827" t="inlineStr"/>
+      <c r="Q827" t="inlineStr"/>
+      <c r="R827" t="inlineStr">
+        <is>
+          <t>隨想</t>
+        </is>
+      </c>
+      <c r="S827" t="inlineStr">
+        <is>
+          <t>수상|그때 그때 떠오르는 느낌이나 생각</t>
+        </is>
+      </c>
+      <c r="T827" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U827" t="inlineStr"/>
+    </row>
+    <row r="828">
+      <c r="A828" t="inlineStr"/>
+      <c r="B828" t="inlineStr"/>
+      <c r="C828" t="inlineStr"/>
+      <c r="D828" t="inlineStr"/>
+      <c r="E828" t="inlineStr"/>
+      <c r="F828" t="inlineStr"/>
+      <c r="G828" t="inlineStr"/>
+      <c r="H828" t="inlineStr"/>
+      <c r="I828" t="inlineStr"/>
+      <c r="J828" t="inlineStr"/>
+      <c r="K828" t="inlineStr"/>
+      <c r="L828" t="inlineStr"/>
+      <c r="M828" t="inlineStr"/>
+      <c r="N828" t="inlineStr"/>
+      <c r="O828" t="inlineStr"/>
+      <c r="P828" t="inlineStr"/>
+      <c r="Q828" t="inlineStr"/>
+      <c r="R828" t="inlineStr">
+        <is>
+          <t>焦眉之急</t>
+        </is>
+      </c>
+      <c r="S828" t="inlineStr">
+        <is>
+          <t>초미지급|눈썹에 불이 붙었다는 뜻으로, 매우 급함을 이르는 말</t>
+        </is>
+      </c>
+      <c r="T828" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U828" t="inlineStr"/>
+    </row>
+    <row r="829">
+      <c r="A829" t="inlineStr"/>
+      <c r="B829" t="inlineStr"/>
+      <c r="C829" t="inlineStr"/>
+      <c r="D829" t="inlineStr"/>
+      <c r="E829" t="inlineStr"/>
+      <c r="F829" t="inlineStr"/>
+      <c r="G829" t="inlineStr"/>
+      <c r="H829" t="inlineStr"/>
+      <c r="I829" t="inlineStr"/>
+      <c r="J829" t="inlineStr"/>
+      <c r="K829" t="inlineStr"/>
+      <c r="L829" t="inlineStr"/>
+      <c r="M829" t="inlineStr"/>
+      <c r="N829" t="inlineStr"/>
+      <c r="O829" t="inlineStr"/>
+      <c r="P829" t="inlineStr"/>
+      <c r="Q829" t="inlineStr"/>
+      <c r="R829" t="inlineStr">
+        <is>
+          <t>四面楚歌</t>
+        </is>
+      </c>
+      <c r="S829" t="inlineStr">
+        <is>
+          <t>사면초가|도움을 받을 수 없는 외롭고 곤란한 지경</t>
+        </is>
+      </c>
+      <c r="T829" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U829" t="inlineStr"/>
+    </row>
+    <row r="830">
+      <c r="A830" t="inlineStr"/>
+      <c r="B830" t="inlineStr"/>
+      <c r="C830" t="inlineStr"/>
+      <c r="D830" t="inlineStr"/>
+      <c r="E830" t="inlineStr"/>
+      <c r="F830" t="inlineStr"/>
+      <c r="G830" t="inlineStr"/>
+      <c r="H830" t="inlineStr"/>
+      <c r="I830" t="inlineStr"/>
+      <c r="J830" t="inlineStr"/>
+      <c r="K830" t="inlineStr"/>
+      <c r="L830" t="inlineStr"/>
+      <c r="M830" t="inlineStr"/>
+      <c r="N830" t="inlineStr"/>
+      <c r="O830" t="inlineStr"/>
+      <c r="P830" t="inlineStr"/>
+      <c r="Q830" t="inlineStr"/>
+      <c r="R830" t="inlineStr">
+        <is>
+          <t>雪上加霜</t>
+        </is>
+      </c>
+      <c r="S830" t="inlineStr">
+        <is>
+          <t>설상가상|불행한 일이 잇따라 일어남</t>
+        </is>
+      </c>
+      <c r="T830" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U830" t="inlineStr"/>
+    </row>
+    <row r="831">
+      <c r="A831" t="inlineStr"/>
+      <c r="B831" t="inlineStr"/>
+      <c r="C831" t="inlineStr"/>
+      <c r="D831" t="inlineStr"/>
+      <c r="E831" t="inlineStr"/>
+      <c r="F831" t="inlineStr"/>
+      <c r="G831" t="inlineStr"/>
+      <c r="H831" t="inlineStr"/>
+      <c r="I831" t="inlineStr"/>
+      <c r="J831" t="inlineStr"/>
+      <c r="K831" t="inlineStr"/>
+      <c r="L831" t="inlineStr"/>
+      <c r="M831" t="inlineStr"/>
+      <c r="N831" t="inlineStr"/>
+      <c r="O831" t="inlineStr"/>
+      <c r="P831" t="inlineStr"/>
+      <c r="Q831" t="inlineStr"/>
+      <c r="R831" t="inlineStr">
+        <is>
+          <t>緣木求魚</t>
+        </is>
+      </c>
+      <c r="S831" t="inlineStr">
+        <is>
+          <t>연목구어|불가능하거나 허술한 방법</t>
+        </is>
+      </c>
+      <c r="T831" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U831" t="inlineStr"/>
+    </row>
+    <row r="832">
+      <c r="A832" t="inlineStr"/>
+      <c r="B832" t="inlineStr"/>
+      <c r="C832" t="inlineStr"/>
+      <c r="D832" t="inlineStr"/>
+      <c r="E832" t="inlineStr"/>
+      <c r="F832" t="inlineStr"/>
+      <c r="G832" t="inlineStr"/>
+      <c r="H832" t="inlineStr"/>
+      <c r="I832" t="inlineStr"/>
+      <c r="J832" t="inlineStr"/>
+      <c r="K832" t="inlineStr"/>
+      <c r="L832" t="inlineStr"/>
+      <c r="M832" t="inlineStr"/>
+      <c r="N832" t="inlineStr"/>
+      <c r="O832" t="inlineStr"/>
+      <c r="P832" t="inlineStr"/>
+      <c r="Q832" t="inlineStr"/>
+      <c r="R832" t="inlineStr">
+        <is>
+          <t>左顧右眄</t>
+        </is>
+      </c>
+      <c r="S832" t="inlineStr">
+        <is>
+          <t>좌고우면|무슨 일에 얼른 결정을 짓지 못함</t>
+        </is>
+      </c>
+      <c r="T832" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U832" t="inlineStr"/>
+    </row>
+    <row r="833">
+      <c r="A833" t="inlineStr"/>
+      <c r="B833" t="inlineStr"/>
+      <c r="C833" t="inlineStr"/>
+      <c r="D833" t="inlineStr"/>
+      <c r="E833" t="inlineStr"/>
+      <c r="F833" t="inlineStr"/>
+      <c r="G833" t="inlineStr"/>
+      <c r="H833" t="inlineStr"/>
+      <c r="I833" t="inlineStr"/>
+      <c r="J833" t="inlineStr"/>
+      <c r="K833" t="inlineStr"/>
+      <c r="L833" t="inlineStr"/>
+      <c r="M833" t="inlineStr"/>
+      <c r="N833" t="inlineStr"/>
+      <c r="O833" t="inlineStr"/>
+      <c r="P833" t="inlineStr"/>
+      <c r="Q833" t="inlineStr"/>
+      <c r="R833" t="inlineStr">
+        <is>
+          <t>暗中摸索</t>
+        </is>
+      </c>
+      <c r="S833" t="inlineStr">
+        <is>
+          <t>암중모색|어림짐작으로 사물을 알아내려 함</t>
+        </is>
+      </c>
+      <c r="T833" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U833" t="inlineStr"/>
+    </row>
+    <row r="834">
+      <c r="A834" t="inlineStr"/>
+      <c r="B834" t="inlineStr"/>
+      <c r="C834" t="inlineStr"/>
+      <c r="D834" t="inlineStr"/>
+      <c r="E834" t="inlineStr"/>
+      <c r="F834" t="inlineStr"/>
+      <c r="G834" t="inlineStr"/>
+      <c r="H834" t="inlineStr"/>
+      <c r="I834" t="inlineStr"/>
+      <c r="J834" t="inlineStr"/>
+      <c r="K834" t="inlineStr"/>
+      <c r="L834" t="inlineStr"/>
+      <c r="M834" t="inlineStr"/>
+      <c r="N834" t="inlineStr"/>
+      <c r="O834" t="inlineStr"/>
+      <c r="P834" t="inlineStr"/>
+      <c r="Q834" t="inlineStr"/>
+      <c r="R834" t="inlineStr">
+        <is>
+          <t>匡正</t>
+        </is>
+      </c>
+      <c r="S834" t="inlineStr">
+        <is>
+          <t>광정|잘못된 것이나 부정따위를 바로잡음</t>
+        </is>
+      </c>
+      <c r="T834" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U834" t="inlineStr"/>
+    </row>
+    <row r="835">
+      <c r="A835" t="inlineStr"/>
+      <c r="B835" t="inlineStr"/>
+      <c r="C835" t="inlineStr"/>
+      <c r="D835" t="inlineStr"/>
+      <c r="E835" t="inlineStr"/>
+      <c r="F835" t="inlineStr"/>
+      <c r="G835" t="inlineStr"/>
+      <c r="H835" t="inlineStr"/>
+      <c r="I835" t="inlineStr"/>
+      <c r="J835" t="inlineStr"/>
+      <c r="K835" t="inlineStr"/>
+      <c r="L835" t="inlineStr"/>
+      <c r="M835" t="inlineStr"/>
+      <c r="N835" t="inlineStr"/>
+      <c r="O835" t="inlineStr"/>
+      <c r="P835" t="inlineStr"/>
+      <c r="Q835" t="inlineStr"/>
+      <c r="R835" t="inlineStr">
+        <is>
+          <t>廓正</t>
+        </is>
+      </c>
+      <c r="S835" t="inlineStr">
+        <is>
+          <t>확정|잘못을 바로잡음</t>
+        </is>
+      </c>
+      <c r="T835" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U835" t="inlineStr"/>
+    </row>
+    <row r="836">
+      <c r="A836" t="inlineStr"/>
+      <c r="B836" t="inlineStr"/>
+      <c r="C836" t="inlineStr"/>
+      <c r="D836" t="inlineStr"/>
+      <c r="E836" t="inlineStr"/>
+      <c r="F836" t="inlineStr"/>
+      <c r="G836" t="inlineStr"/>
+      <c r="H836" t="inlineStr"/>
+      <c r="I836" t="inlineStr"/>
+      <c r="J836" t="inlineStr"/>
+      <c r="K836" t="inlineStr"/>
+      <c r="L836" t="inlineStr"/>
+      <c r="M836" t="inlineStr"/>
+      <c r="N836" t="inlineStr"/>
+      <c r="O836" t="inlineStr"/>
+      <c r="P836" t="inlineStr"/>
+      <c r="Q836" t="inlineStr"/>
+      <c r="R836" t="inlineStr">
+        <is>
+          <t>中傷</t>
+        </is>
+      </c>
+      <c r="S836" t="inlineStr">
+        <is>
+          <t>중상|근거 없는 말로 남을 헐뜯어 명예나 지위를 손상시킴</t>
+        </is>
+      </c>
+      <c r="T836" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U836" t="inlineStr"/>
+    </row>
+    <row r="837">
+      <c r="A837" t="inlineStr"/>
+      <c r="B837" t="inlineStr"/>
+      <c r="C837" t="inlineStr"/>
+      <c r="D837" t="inlineStr"/>
+      <c r="E837" t="inlineStr"/>
+      <c r="F837" t="inlineStr"/>
+      <c r="G837" t="inlineStr"/>
+      <c r="H837" t="inlineStr"/>
+      <c r="I837" t="inlineStr"/>
+      <c r="J837" t="inlineStr"/>
+      <c r="K837" t="inlineStr"/>
+      <c r="L837" t="inlineStr"/>
+      <c r="M837" t="inlineStr"/>
+      <c r="N837" t="inlineStr"/>
+      <c r="O837" t="inlineStr"/>
+      <c r="P837" t="inlineStr"/>
+      <c r="Q837" t="inlineStr"/>
+      <c r="R837" t="inlineStr">
+        <is>
+          <t>誹謗</t>
+        </is>
+      </c>
+      <c r="S837" t="inlineStr">
+        <is>
+          <t>비방|남을 비웃고 헐뜯어서 말함</t>
+        </is>
+      </c>
+      <c r="T837" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U837" t="inlineStr"/>
+    </row>
+    <row r="838">
+      <c r="A838" t="inlineStr"/>
+      <c r="B838" t="inlineStr"/>
+      <c r="C838" t="inlineStr"/>
+      <c r="D838" t="inlineStr"/>
+      <c r="E838" t="inlineStr"/>
+      <c r="F838" t="inlineStr"/>
+      <c r="G838" t="inlineStr"/>
+      <c r="H838" t="inlineStr"/>
+      <c r="I838" t="inlineStr"/>
+      <c r="J838" t="inlineStr"/>
+      <c r="K838" t="inlineStr"/>
+      <c r="L838" t="inlineStr"/>
+      <c r="M838" t="inlineStr"/>
+      <c r="N838" t="inlineStr"/>
+      <c r="O838" t="inlineStr"/>
+      <c r="P838" t="inlineStr"/>
+      <c r="Q838" t="inlineStr"/>
+      <c r="R838" t="inlineStr">
+        <is>
+          <t>軋轢</t>
+        </is>
+      </c>
+      <c r="S838" t="inlineStr">
+        <is>
+          <t>알력|의견이 달라 충돌함</t>
+        </is>
+      </c>
+      <c r="T838" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U838" t="inlineStr"/>
+    </row>
+    <row r="839">
+      <c r="A839" t="inlineStr"/>
+      <c r="B839" t="inlineStr"/>
+      <c r="C839" t="inlineStr"/>
+      <c r="D839" t="inlineStr"/>
+      <c r="E839" t="inlineStr"/>
+      <c r="F839" t="inlineStr"/>
+      <c r="G839" t="inlineStr"/>
+      <c r="H839" t="inlineStr"/>
+      <c r="I839" t="inlineStr"/>
+      <c r="J839" t="inlineStr"/>
+      <c r="K839" t="inlineStr"/>
+      <c r="L839" t="inlineStr"/>
+      <c r="M839" t="inlineStr"/>
+      <c r="N839" t="inlineStr"/>
+      <c r="O839" t="inlineStr"/>
+      <c r="P839" t="inlineStr"/>
+      <c r="Q839" t="inlineStr"/>
+      <c r="R839" t="inlineStr">
+        <is>
+          <t>辭讓之心</t>
+        </is>
+      </c>
+      <c r="S839" t="inlineStr">
+        <is>
+          <t>사양지심|겸손이 남에게 사양하는 마음</t>
+        </is>
+      </c>
+      <c r="T839" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U839" t="inlineStr"/>
+    </row>
+    <row r="840">
+      <c r="A840" t="inlineStr"/>
+      <c r="B840" t="inlineStr"/>
+      <c r="C840" t="inlineStr"/>
+      <c r="D840" t="inlineStr"/>
+      <c r="E840" t="inlineStr"/>
+      <c r="F840" t="inlineStr"/>
+      <c r="G840" t="inlineStr"/>
+      <c r="H840" t="inlineStr"/>
+      <c r="I840" t="inlineStr"/>
+      <c r="J840" t="inlineStr"/>
+      <c r="K840" t="inlineStr"/>
+      <c r="L840" t="inlineStr"/>
+      <c r="M840" t="inlineStr"/>
+      <c r="N840" t="inlineStr"/>
+      <c r="O840" t="inlineStr"/>
+      <c r="P840" t="inlineStr"/>
+      <c r="Q840" t="inlineStr"/>
+      <c r="R840" t="inlineStr">
+        <is>
+          <t>惻隱之心</t>
+        </is>
+      </c>
+      <c r="S840" t="inlineStr">
+        <is>
+          <t>측은지심|다른 사람의 불행을 불쌍히 여기는 마음</t>
+        </is>
+      </c>
+      <c r="T840" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U840" t="inlineStr"/>
+    </row>
+    <row r="841">
+      <c r="A841" t="inlineStr"/>
+      <c r="B841" t="inlineStr"/>
+      <c r="C841" t="inlineStr"/>
+      <c r="D841" t="inlineStr"/>
+      <c r="E841" t="inlineStr"/>
+      <c r="F841" t="inlineStr"/>
+      <c r="G841" t="inlineStr"/>
+      <c r="H841" t="inlineStr"/>
+      <c r="I841" t="inlineStr"/>
+      <c r="J841" t="inlineStr"/>
+      <c r="K841" t="inlineStr"/>
+      <c r="L841" t="inlineStr"/>
+      <c r="M841" t="inlineStr"/>
+      <c r="N841" t="inlineStr"/>
+      <c r="O841" t="inlineStr"/>
+      <c r="P841" t="inlineStr"/>
+      <c r="Q841" t="inlineStr"/>
+      <c r="R841" t="inlineStr">
+        <is>
+          <t>五獸不動</t>
+        </is>
+      </c>
+      <c r="S841" t="inlineStr">
+        <is>
+          <t>오수부동|사회 조직이 서로 견제하는 여러 세력으로 이루어져 있음</t>
+        </is>
+      </c>
+      <c r="T841" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U841" t="inlineStr"/>
+    </row>
+    <row r="842">
+      <c r="A842" t="inlineStr"/>
+      <c r="B842" t="inlineStr"/>
+      <c r="C842" t="inlineStr"/>
+      <c r="D842" t="inlineStr"/>
+      <c r="E842" t="inlineStr"/>
+      <c r="F842" t="inlineStr"/>
+      <c r="G842" t="inlineStr"/>
+      <c r="H842" t="inlineStr"/>
+      <c r="I842" t="inlineStr"/>
+      <c r="J842" t="inlineStr"/>
+      <c r="K842" t="inlineStr"/>
+      <c r="L842" t="inlineStr"/>
+      <c r="M842" t="inlineStr"/>
+      <c r="N842" t="inlineStr"/>
+      <c r="O842" t="inlineStr"/>
+      <c r="P842" t="inlineStr"/>
+      <c r="Q842" t="inlineStr"/>
+      <c r="R842" t="inlineStr">
+        <is>
+          <t>八面不知</t>
+        </is>
+      </c>
+      <c r="S842" t="inlineStr">
+        <is>
+          <t>팔면부지|어느 면으로 보나 전혀 모르거나 또는 그런 사람</t>
+        </is>
+      </c>
+      <c r="T842" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U842" t="inlineStr"/>
+    </row>
+    <row r="843">
+      <c r="A843" t="inlineStr"/>
+      <c r="B843" t="inlineStr"/>
+      <c r="C843" t="inlineStr"/>
+      <c r="D843" t="inlineStr"/>
+      <c r="E843" t="inlineStr"/>
+      <c r="F843" t="inlineStr"/>
+      <c r="G843" t="inlineStr"/>
+      <c r="H843" t="inlineStr"/>
+      <c r="I843" t="inlineStr"/>
+      <c r="J843" t="inlineStr"/>
+      <c r="K843" t="inlineStr"/>
+      <c r="L843" t="inlineStr"/>
+      <c r="M843" t="inlineStr"/>
+      <c r="N843" t="inlineStr"/>
+      <c r="O843" t="inlineStr"/>
+      <c r="P843" t="inlineStr"/>
+      <c r="Q843" t="inlineStr"/>
+      <c r="R843" t="inlineStr">
+        <is>
+          <t>限死決斷</t>
+        </is>
+      </c>
+      <c r="S843" t="inlineStr">
+        <is>
+          <t>한사결단|어떤 일에 목숨을 걸고 결단을 내림</t>
+        </is>
+      </c>
+      <c r="T843" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U843" t="inlineStr"/>
+    </row>
+    <row r="844">
+      <c r="A844" t="inlineStr"/>
+      <c r="B844" t="inlineStr"/>
+      <c r="C844" t="inlineStr"/>
+      <c r="D844" t="inlineStr"/>
+      <c r="E844" t="inlineStr"/>
+      <c r="F844" t="inlineStr"/>
+      <c r="G844" t="inlineStr"/>
+      <c r="H844" t="inlineStr"/>
+      <c r="I844" t="inlineStr"/>
+      <c r="J844" t="inlineStr"/>
+      <c r="K844" t="inlineStr"/>
+      <c r="L844" t="inlineStr"/>
+      <c r="M844" t="inlineStr"/>
+      <c r="N844" t="inlineStr"/>
+      <c r="O844" t="inlineStr"/>
+      <c r="P844" t="inlineStr"/>
+      <c r="Q844" t="inlineStr"/>
+      <c r="R844" t="inlineStr">
+        <is>
+          <t>渴而穿井</t>
+        </is>
+      </c>
+      <c r="S844" t="inlineStr">
+        <is>
+          <t>갈이천정|목이 말라야 비로소 샘을 판다</t>
+        </is>
+      </c>
+      <c r="T844" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U844" t="inlineStr"/>
+    </row>
+    <row r="845">
+      <c r="A845" t="inlineStr"/>
+      <c r="B845" t="inlineStr"/>
+      <c r="C845" t="inlineStr"/>
+      <c r="D845" t="inlineStr"/>
+      <c r="E845" t="inlineStr"/>
+      <c r="F845" t="inlineStr"/>
+      <c r="G845" t="inlineStr"/>
+      <c r="H845" t="inlineStr"/>
+      <c r="I845" t="inlineStr"/>
+      <c r="J845" t="inlineStr"/>
+      <c r="K845" t="inlineStr"/>
+      <c r="L845" t="inlineStr"/>
+      <c r="M845" t="inlineStr"/>
+      <c r="N845" t="inlineStr"/>
+      <c r="O845" t="inlineStr"/>
+      <c r="P845" t="inlineStr"/>
+      <c r="Q845" t="inlineStr"/>
+      <c r="R845" t="inlineStr">
+        <is>
+          <t>曲學阿世</t>
+        </is>
+      </c>
+      <c r="S845" t="inlineStr">
+        <is>
+          <t>곡학아세|바른 길에서 벗어난 학문으로 세상 사람들에게 아첨함</t>
+        </is>
+      </c>
+      <c r="T845" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U845" t="inlineStr"/>
+    </row>
+    <row r="846">
+      <c r="A846" t="inlineStr"/>
+      <c r="B846" t="inlineStr"/>
+      <c r="C846" t="inlineStr"/>
+      <c r="D846" t="inlineStr"/>
+      <c r="E846" t="inlineStr"/>
+      <c r="F846" t="inlineStr"/>
+      <c r="G846" t="inlineStr"/>
+      <c r="H846" t="inlineStr"/>
+      <c r="I846" t="inlineStr"/>
+      <c r="J846" t="inlineStr"/>
+      <c r="K846" t="inlineStr"/>
+      <c r="L846" t="inlineStr"/>
+      <c r="M846" t="inlineStr"/>
+      <c r="N846" t="inlineStr"/>
+      <c r="O846" t="inlineStr"/>
+      <c r="P846" t="inlineStr"/>
+      <c r="Q846" t="inlineStr"/>
+      <c r="R846" t="inlineStr">
+        <is>
+          <t>大同小異</t>
+        </is>
+      </c>
+      <c r="S846" t="inlineStr">
+        <is>
+          <t>대동소이|조금씩 다르나 크게는 같다</t>
+        </is>
+      </c>
+      <c r="T846" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U846" t="inlineStr"/>
+    </row>
+    <row r="847">
+      <c r="A847" t="inlineStr"/>
+      <c r="B847" t="inlineStr"/>
+      <c r="C847" t="inlineStr"/>
+      <c r="D847" t="inlineStr"/>
+      <c r="E847" t="inlineStr"/>
+      <c r="F847" t="inlineStr"/>
+      <c r="G847" t="inlineStr"/>
+      <c r="H847" t="inlineStr"/>
+      <c r="I847" t="inlineStr"/>
+      <c r="J847" t="inlineStr"/>
+      <c r="K847" t="inlineStr"/>
+      <c r="L847" t="inlineStr"/>
+      <c r="M847" t="inlineStr"/>
+      <c r="N847" t="inlineStr"/>
+      <c r="O847" t="inlineStr"/>
+      <c r="P847" t="inlineStr"/>
+      <c r="Q847" t="inlineStr"/>
+      <c r="R847" t="inlineStr">
+        <is>
+          <t>唯一無二</t>
+        </is>
+      </c>
+      <c r="S847" t="inlineStr">
+        <is>
+          <t>유일무이|둘이 아니고 오직 하나뿐임</t>
+        </is>
+      </c>
+      <c r="T847" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U847" t="inlineStr"/>
+    </row>
+    <row r="848">
+      <c r="A848" t="inlineStr"/>
+      <c r="B848" t="inlineStr"/>
+      <c r="C848" t="inlineStr"/>
+      <c r="D848" t="inlineStr"/>
+      <c r="E848" t="inlineStr"/>
+      <c r="F848" t="inlineStr"/>
+      <c r="G848" t="inlineStr"/>
+      <c r="H848" t="inlineStr"/>
+      <c r="I848" t="inlineStr"/>
+      <c r="J848" t="inlineStr"/>
+      <c r="K848" t="inlineStr"/>
+      <c r="L848" t="inlineStr"/>
+      <c r="M848" t="inlineStr"/>
+      <c r="N848" t="inlineStr"/>
+      <c r="O848" t="inlineStr"/>
+      <c r="P848" t="inlineStr"/>
+      <c r="Q848" t="inlineStr"/>
+      <c r="R848" t="inlineStr">
+        <is>
+          <t>各樣各色</t>
+        </is>
+      </c>
+      <c r="S848" t="inlineStr">
+        <is>
+          <t>각양각색|각기 다른 여러 가지 모양과 빛깔</t>
+        </is>
+      </c>
+      <c r="T848" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U848" t="inlineStr"/>
+    </row>
+    <row r="849">
+      <c r="A849" t="inlineStr"/>
+      <c r="B849" t="inlineStr"/>
+      <c r="C849" t="inlineStr"/>
+      <c r="D849" t="inlineStr"/>
+      <c r="E849" t="inlineStr"/>
+      <c r="F849" t="inlineStr"/>
+      <c r="G849" t="inlineStr"/>
+      <c r="H849" t="inlineStr"/>
+      <c r="I849" t="inlineStr"/>
+      <c r="J849" t="inlineStr"/>
+      <c r="K849" t="inlineStr"/>
+      <c r="L849" t="inlineStr"/>
+      <c r="M849" t="inlineStr"/>
+      <c r="N849" t="inlineStr"/>
+      <c r="O849" t="inlineStr"/>
+      <c r="P849" t="inlineStr"/>
+      <c r="Q849" t="inlineStr"/>
+      <c r="R849" t="inlineStr">
+        <is>
+          <t>無窮無盡</t>
+        </is>
+      </c>
+      <c r="S849" t="inlineStr">
+        <is>
+          <t>무궁무진|끝이 없고 다함이 없음</t>
+        </is>
+      </c>
+      <c r="T849" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U849" t="inlineStr"/>
+    </row>
+    <row r="850">
+      <c r="A850" t="inlineStr"/>
+      <c r="B850" t="inlineStr"/>
+      <c r="C850" t="inlineStr"/>
+      <c r="D850" t="inlineStr"/>
+      <c r="E850" t="inlineStr"/>
+      <c r="F850" t="inlineStr"/>
+      <c r="G850" t="inlineStr"/>
+      <c r="H850" t="inlineStr"/>
+      <c r="I850" t="inlineStr"/>
+      <c r="J850" t="inlineStr"/>
+      <c r="K850" t="inlineStr"/>
+      <c r="L850" t="inlineStr"/>
+      <c r="M850" t="inlineStr"/>
+      <c r="N850" t="inlineStr"/>
+      <c r="O850" t="inlineStr"/>
+      <c r="P850" t="inlineStr"/>
+      <c r="Q850" t="inlineStr"/>
+      <c r="R850" t="inlineStr">
+        <is>
+          <t>靑出於藍</t>
+        </is>
+      </c>
+      <c r="S850" t="inlineStr">
+        <is>
+          <t>청출어람|제자나 후배가 스승이나 선배보다 나음</t>
+        </is>
+      </c>
+      <c r="T850" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U850" t="inlineStr"/>
+    </row>
+    <row r="851">
+      <c r="A851" t="inlineStr"/>
+      <c r="B851" t="inlineStr"/>
+      <c r="C851" t="inlineStr"/>
+      <c r="D851" t="inlineStr"/>
+      <c r="E851" t="inlineStr"/>
+      <c r="F851" t="inlineStr"/>
+      <c r="G851" t="inlineStr"/>
+      <c r="H851" t="inlineStr"/>
+      <c r="I851" t="inlineStr"/>
+      <c r="J851" t="inlineStr"/>
+      <c r="K851" t="inlineStr"/>
+      <c r="L851" t="inlineStr"/>
+      <c r="M851" t="inlineStr"/>
+      <c r="N851" t="inlineStr"/>
+      <c r="O851" t="inlineStr"/>
+      <c r="P851" t="inlineStr"/>
+      <c r="Q851" t="inlineStr"/>
+      <c r="R851" t="inlineStr">
+        <is>
+          <t>管鮑之交</t>
+        </is>
+      </c>
+      <c r="S851" t="inlineStr">
+        <is>
+          <t>관포지교|아주 돈독한 친구 관계</t>
+        </is>
+      </c>
+      <c r="T851" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U851" t="inlineStr"/>
+    </row>
+    <row r="852">
+      <c r="A852" t="inlineStr"/>
+      <c r="B852" t="inlineStr"/>
+      <c r="C852" t="inlineStr"/>
+      <c r="D852" t="inlineStr"/>
+      <c r="E852" t="inlineStr"/>
+      <c r="F852" t="inlineStr"/>
+      <c r="G852" t="inlineStr"/>
+      <c r="H852" t="inlineStr"/>
+      <c r="I852" t="inlineStr"/>
+      <c r="J852" t="inlineStr"/>
+      <c r="K852" t="inlineStr"/>
+      <c r="L852" t="inlineStr"/>
+      <c r="M852" t="inlineStr"/>
+      <c r="N852" t="inlineStr"/>
+      <c r="O852" t="inlineStr"/>
+      <c r="P852" t="inlineStr"/>
+      <c r="Q852" t="inlineStr"/>
+      <c r="R852" t="inlineStr">
+        <is>
+          <t>草綠同色</t>
+        </is>
+      </c>
+      <c r="S852" t="inlineStr">
+        <is>
+          <t>초록동색|같은 처지의 사람과 어울림</t>
+        </is>
+      </c>
+      <c r="T852" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U852" t="inlineStr"/>
+    </row>
+    <row r="853">
+      <c r="A853" t="inlineStr"/>
+      <c r="B853" t="inlineStr"/>
+      <c r="C853" t="inlineStr"/>
+      <c r="D853" t="inlineStr"/>
+      <c r="E853" t="inlineStr"/>
+      <c r="F853" t="inlineStr"/>
+      <c r="G853" t="inlineStr"/>
+      <c r="H853" t="inlineStr"/>
+      <c r="I853" t="inlineStr"/>
+      <c r="J853" t="inlineStr"/>
+      <c r="K853" t="inlineStr"/>
+      <c r="L853" t="inlineStr"/>
+      <c r="M853" t="inlineStr"/>
+      <c r="N853" t="inlineStr"/>
+      <c r="O853" t="inlineStr"/>
+      <c r="P853" t="inlineStr"/>
+      <c r="Q853" t="inlineStr"/>
+      <c r="R853" t="inlineStr">
+        <is>
+          <t>拈華示衆</t>
+        </is>
+      </c>
+      <c r="S853" t="inlineStr">
+        <is>
+          <t>염화시중|말로 통하지 않고 마음에서 마음으로 전함</t>
+        </is>
+      </c>
+      <c r="T853" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U853" t="inlineStr"/>
+    </row>
+    <row r="854">
+      <c r="A854" t="inlineStr"/>
+      <c r="B854" t="inlineStr"/>
+      <c r="C854" t="inlineStr"/>
+      <c r="D854" t="inlineStr"/>
+      <c r="E854" t="inlineStr"/>
+      <c r="F854" t="inlineStr"/>
+      <c r="G854" t="inlineStr"/>
+      <c r="H854" t="inlineStr"/>
+      <c r="I854" t="inlineStr"/>
+      <c r="J854" t="inlineStr"/>
+      <c r="K854" t="inlineStr"/>
+      <c r="L854" t="inlineStr"/>
+      <c r="M854" t="inlineStr"/>
+      <c r="N854" t="inlineStr"/>
+      <c r="O854" t="inlineStr"/>
+      <c r="P854" t="inlineStr"/>
+      <c r="Q854" t="inlineStr"/>
+      <c r="R854" t="inlineStr">
+        <is>
+          <t>姑息之計</t>
+        </is>
+      </c>
+      <c r="S854" t="inlineStr">
+        <is>
+          <t>고식지계|우선 당장 편한 것만을 택하는 꾀나 방법</t>
+        </is>
+      </c>
+      <c r="T854" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U854" t="inlineStr"/>
+    </row>
+    <row r="855">
+      <c r="A855" t="inlineStr"/>
+      <c r="B855" t="inlineStr"/>
+      <c r="C855" t="inlineStr"/>
+      <c r="D855" t="inlineStr"/>
+      <c r="E855" t="inlineStr"/>
+      <c r="F855" t="inlineStr"/>
+      <c r="G855" t="inlineStr"/>
+      <c r="H855" t="inlineStr"/>
+      <c r="I855" t="inlineStr"/>
+      <c r="J855" t="inlineStr"/>
+      <c r="K855" t="inlineStr"/>
+      <c r="L855" t="inlineStr"/>
+      <c r="M855" t="inlineStr"/>
+      <c r="N855" t="inlineStr"/>
+      <c r="O855" t="inlineStr"/>
+      <c r="P855" t="inlineStr"/>
+      <c r="Q855" t="inlineStr"/>
+      <c r="R855" t="inlineStr">
+        <is>
+          <t>優柔不斷</t>
+        </is>
+      </c>
+      <c r="S855" t="inlineStr">
+        <is>
+          <t>우유부단|어물어물 망설이기만 하고 결단성이 없음</t>
+        </is>
+      </c>
+      <c r="T855" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U855" t="inlineStr"/>
+    </row>
+    <row r="856">
+      <c r="A856" t="inlineStr"/>
+      <c r="B856" t="inlineStr"/>
+      <c r="C856" t="inlineStr"/>
+      <c r="D856" t="inlineStr"/>
+      <c r="E856" t="inlineStr"/>
+      <c r="F856" t="inlineStr"/>
+      <c r="G856" t="inlineStr"/>
+      <c r="H856" t="inlineStr"/>
+      <c r="I856" t="inlineStr"/>
+      <c r="J856" t="inlineStr"/>
+      <c r="K856" t="inlineStr"/>
+      <c r="L856" t="inlineStr"/>
+      <c r="M856" t="inlineStr"/>
+      <c r="N856" t="inlineStr"/>
+      <c r="O856" t="inlineStr"/>
+      <c r="P856" t="inlineStr"/>
+      <c r="Q856" t="inlineStr"/>
+      <c r="R856" t="inlineStr">
+        <is>
+          <t>慨歎</t>
+        </is>
+      </c>
+      <c r="S856" t="inlineStr">
+        <is>
+          <t>개탄|분하고 안타깝게 여기어 탄식하다</t>
+        </is>
+      </c>
+      <c r="T856" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U856" t="inlineStr"/>
+    </row>
+    <row r="857">
+      <c r="A857" t="inlineStr"/>
+      <c r="B857" t="inlineStr"/>
+      <c r="C857" t="inlineStr"/>
+      <c r="D857" t="inlineStr"/>
+      <c r="E857" t="inlineStr"/>
+      <c r="F857" t="inlineStr"/>
+      <c r="G857" t="inlineStr"/>
+      <c r="H857" t="inlineStr"/>
+      <c r="I857" t="inlineStr"/>
+      <c r="J857" t="inlineStr"/>
+      <c r="K857" t="inlineStr"/>
+      <c r="L857" t="inlineStr"/>
+      <c r="M857" t="inlineStr"/>
+      <c r="N857" t="inlineStr"/>
+      <c r="O857" t="inlineStr"/>
+      <c r="P857" t="inlineStr"/>
+      <c r="Q857" t="inlineStr"/>
+      <c r="R857" t="inlineStr">
+        <is>
+          <t>感歎</t>
+        </is>
+      </c>
+      <c r="S857" t="inlineStr">
+        <is>
+          <t>감탄|마음속 깊이 느끼어 탄복하다</t>
+        </is>
+      </c>
+      <c r="T857" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U857" t="inlineStr"/>
+    </row>
+    <row r="858">
+      <c r="A858" t="inlineStr"/>
+      <c r="B858" t="inlineStr"/>
+      <c r="C858" t="inlineStr"/>
+      <c r="D858" t="inlineStr"/>
+      <c r="E858" t="inlineStr"/>
+      <c r="F858" t="inlineStr"/>
+      <c r="G858" t="inlineStr"/>
+      <c r="H858" t="inlineStr"/>
+      <c r="I858" t="inlineStr"/>
+      <c r="J858" t="inlineStr"/>
+      <c r="K858" t="inlineStr"/>
+      <c r="L858" t="inlineStr"/>
+      <c r="M858" t="inlineStr"/>
+      <c r="N858" t="inlineStr"/>
+      <c r="O858" t="inlineStr"/>
+      <c r="P858" t="inlineStr"/>
+      <c r="Q858" t="inlineStr"/>
+      <c r="R858" t="inlineStr">
+        <is>
+          <t>憤怒</t>
+        </is>
+      </c>
+      <c r="S858" t="inlineStr">
+        <is>
+          <t>분노|분해 성내다</t>
+        </is>
+      </c>
+      <c r="T858" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U858" t="inlineStr"/>
+    </row>
+    <row r="859">
+      <c r="A859" t="inlineStr"/>
+      <c r="B859" t="inlineStr"/>
+      <c r="C859" t="inlineStr"/>
+      <c r="D859" t="inlineStr"/>
+      <c r="E859" t="inlineStr"/>
+      <c r="F859" t="inlineStr"/>
+      <c r="G859" t="inlineStr"/>
+      <c r="H859" t="inlineStr"/>
+      <c r="I859" t="inlineStr"/>
+      <c r="J859" t="inlineStr"/>
+      <c r="K859" t="inlineStr"/>
+      <c r="L859" t="inlineStr"/>
+      <c r="M859" t="inlineStr"/>
+      <c r="N859" t="inlineStr"/>
+      <c r="O859" t="inlineStr"/>
+      <c r="P859" t="inlineStr"/>
+      <c r="Q859" t="inlineStr"/>
+      <c r="R859" t="inlineStr">
+        <is>
+          <t>敬歎</t>
+        </is>
+      </c>
+      <c r="S859" t="inlineStr">
+        <is>
+          <t>경탄|우러르며 감탄하다</t>
+        </is>
+      </c>
+      <c r="T859" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U859" t="inlineStr"/>
+    </row>
+    <row r="860">
+      <c r="A860" t="inlineStr"/>
+      <c r="B860" t="inlineStr"/>
+      <c r="C860" t="inlineStr"/>
+      <c r="D860" t="inlineStr"/>
+      <c r="E860" t="inlineStr"/>
+      <c r="F860" t="inlineStr"/>
+      <c r="G860" t="inlineStr"/>
+      <c r="H860" t="inlineStr"/>
+      <c r="I860" t="inlineStr"/>
+      <c r="J860" t="inlineStr"/>
+      <c r="K860" t="inlineStr"/>
+      <c r="L860" t="inlineStr"/>
+      <c r="M860" t="inlineStr"/>
+      <c r="N860" t="inlineStr"/>
+      <c r="O860" t="inlineStr"/>
+      <c r="P860" t="inlineStr"/>
+      <c r="Q860" t="inlineStr"/>
+      <c r="R860" t="inlineStr">
+        <is>
+          <t>雲泥之差</t>
+        </is>
+      </c>
+      <c r="S860" t="inlineStr">
+        <is>
+          <t>운니지차|차이가 매우 심함</t>
+        </is>
+      </c>
+      <c r="T860" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U860" t="inlineStr"/>
+    </row>
+    <row r="861">
+      <c r="A861" t="inlineStr"/>
+      <c r="B861" t="inlineStr"/>
+      <c r="C861" t="inlineStr"/>
+      <c r="D861" t="inlineStr"/>
+      <c r="E861" t="inlineStr"/>
+      <c r="F861" t="inlineStr"/>
+      <c r="G861" t="inlineStr"/>
+      <c r="H861" t="inlineStr"/>
+      <c r="I861" t="inlineStr"/>
+      <c r="J861" t="inlineStr"/>
+      <c r="K861" t="inlineStr"/>
+      <c r="L861" t="inlineStr"/>
+      <c r="M861" t="inlineStr"/>
+      <c r="N861" t="inlineStr"/>
+      <c r="O861" t="inlineStr"/>
+      <c r="P861" t="inlineStr"/>
+      <c r="Q861" t="inlineStr"/>
+      <c r="R861" t="inlineStr">
+        <is>
+          <t>阿鼻叫喚</t>
+        </is>
+      </c>
+      <c r="S861" t="inlineStr">
+        <is>
+          <t>아비규환|비참한 지경에 빠져 울부짖는 참상</t>
+        </is>
+      </c>
+      <c r="T861" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U861" t="inlineStr"/>
+    </row>
+    <row r="862">
+      <c r="A862" t="inlineStr"/>
+      <c r="B862" t="inlineStr"/>
+      <c r="C862" t="inlineStr"/>
+      <c r="D862" t="inlineStr"/>
+      <c r="E862" t="inlineStr"/>
+      <c r="F862" t="inlineStr"/>
+      <c r="G862" t="inlineStr"/>
+      <c r="H862" t="inlineStr"/>
+      <c r="I862" t="inlineStr"/>
+      <c r="J862" t="inlineStr"/>
+      <c r="K862" t="inlineStr"/>
+      <c r="L862" t="inlineStr"/>
+      <c r="M862" t="inlineStr"/>
+      <c r="N862" t="inlineStr"/>
+      <c r="O862" t="inlineStr"/>
+      <c r="P862" t="inlineStr"/>
+      <c r="Q862" t="inlineStr"/>
+      <c r="R862" t="inlineStr">
+        <is>
+          <t>怒氣登天</t>
+        </is>
+      </c>
+      <c r="S862" t="inlineStr">
+        <is>
+          <t>노기등천|매우 화난 상태</t>
+        </is>
+      </c>
+      <c r="T862" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U862" t="inlineStr"/>
+    </row>
+    <row r="863">
+      <c r="A863" t="inlineStr"/>
+      <c r="B863" t="inlineStr"/>
+      <c r="C863" t="inlineStr"/>
+      <c r="D863" t="inlineStr"/>
+      <c r="E863" t="inlineStr"/>
+      <c r="F863" t="inlineStr"/>
+      <c r="G863" t="inlineStr"/>
+      <c r="H863" t="inlineStr"/>
+      <c r="I863" t="inlineStr"/>
+      <c r="J863" t="inlineStr"/>
+      <c r="K863" t="inlineStr"/>
+      <c r="L863" t="inlineStr"/>
+      <c r="M863" t="inlineStr"/>
+      <c r="N863" t="inlineStr"/>
+      <c r="O863" t="inlineStr"/>
+      <c r="P863" t="inlineStr"/>
+      <c r="Q863" t="inlineStr"/>
+      <c r="R863" t="inlineStr">
+        <is>
+          <t>百難之中</t>
+        </is>
+      </c>
+      <c r="S863" t="inlineStr">
+        <is>
+          <t>백난지중|온갖 괴로움과 어려움을 겪는 가운데</t>
+        </is>
+      </c>
+      <c r="T863" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U863" t="inlineStr"/>
+    </row>
+    <row r="864">
+      <c r="A864" t="inlineStr"/>
+      <c r="B864" t="inlineStr"/>
+      <c r="C864" t="inlineStr"/>
+      <c r="D864" t="inlineStr"/>
+      <c r="E864" t="inlineStr"/>
+      <c r="F864" t="inlineStr"/>
+      <c r="G864" t="inlineStr"/>
+      <c r="H864" t="inlineStr"/>
+      <c r="I864" t="inlineStr"/>
+      <c r="J864" t="inlineStr"/>
+      <c r="K864" t="inlineStr"/>
+      <c r="L864" t="inlineStr"/>
+      <c r="M864" t="inlineStr"/>
+      <c r="N864" t="inlineStr"/>
+      <c r="O864" t="inlineStr"/>
+      <c r="P864" t="inlineStr"/>
+      <c r="Q864" t="inlineStr"/>
+      <c r="R864" t="inlineStr">
+        <is>
+          <t>流失</t>
+        </is>
+      </c>
+      <c r="S864" t="inlineStr">
+        <is>
+          <t>유실|떠내려가서 없어지거나 잃음</t>
+        </is>
+      </c>
+      <c r="T864" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U864" t="inlineStr"/>
+    </row>
+    <row r="865">
+      <c r="A865" t="inlineStr"/>
+      <c r="B865" t="inlineStr"/>
+      <c r="C865" t="inlineStr"/>
+      <c r="D865" t="inlineStr"/>
+      <c r="E865" t="inlineStr"/>
+      <c r="F865" t="inlineStr"/>
+      <c r="G865" t="inlineStr"/>
+      <c r="H865" t="inlineStr"/>
+      <c r="I865" t="inlineStr"/>
+      <c r="J865" t="inlineStr"/>
+      <c r="K865" t="inlineStr"/>
+      <c r="L865" t="inlineStr"/>
+      <c r="M865" t="inlineStr"/>
+      <c r="N865" t="inlineStr"/>
+      <c r="O865" t="inlineStr"/>
+      <c r="P865" t="inlineStr"/>
+      <c r="Q865" t="inlineStr"/>
+      <c r="R865" t="inlineStr">
+        <is>
+          <t>毁損</t>
+        </is>
+      </c>
+      <c r="S865" t="inlineStr">
+        <is>
+          <t>훼손|체면이나 명예를 손상함. 또는 헐거나 깨뜨려 못쓰게 만듦</t>
+        </is>
+      </c>
+      <c r="T865" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U865" t="inlineStr"/>
+    </row>
+    <row r="866">
+      <c r="A866" t="inlineStr"/>
+      <c r="B866" t="inlineStr"/>
+      <c r="C866" t="inlineStr"/>
+      <c r="D866" t="inlineStr"/>
+      <c r="E866" t="inlineStr"/>
+      <c r="F866" t="inlineStr"/>
+      <c r="G866" t="inlineStr"/>
+      <c r="H866" t="inlineStr"/>
+      <c r="I866" t="inlineStr"/>
+      <c r="J866" t="inlineStr"/>
+      <c r="K866" t="inlineStr"/>
+      <c r="L866" t="inlineStr"/>
+      <c r="M866" t="inlineStr"/>
+      <c r="N866" t="inlineStr"/>
+      <c r="O866" t="inlineStr"/>
+      <c r="P866" t="inlineStr"/>
+      <c r="Q866" t="inlineStr"/>
+      <c r="R866" t="inlineStr">
+        <is>
+          <t>烏飛梨落</t>
+        </is>
+      </c>
+      <c r="S866" t="inlineStr">
+        <is>
+          <t>오비이락|어떤 일이 공교롭게 함께 발생함</t>
+        </is>
+      </c>
+      <c r="T866" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U866" t="inlineStr"/>
+    </row>
+    <row r="867">
+      <c r="A867" t="inlineStr"/>
+      <c r="B867" t="inlineStr"/>
+      <c r="C867" t="inlineStr"/>
+      <c r="D867" t="inlineStr"/>
+      <c r="E867" t="inlineStr"/>
+      <c r="F867" t="inlineStr"/>
+      <c r="G867" t="inlineStr"/>
+      <c r="H867" t="inlineStr"/>
+      <c r="I867" t="inlineStr"/>
+      <c r="J867" t="inlineStr"/>
+      <c r="K867" t="inlineStr"/>
+      <c r="L867" t="inlineStr"/>
+      <c r="M867" t="inlineStr"/>
+      <c r="N867" t="inlineStr"/>
+      <c r="O867" t="inlineStr"/>
+      <c r="P867" t="inlineStr"/>
+      <c r="Q867" t="inlineStr"/>
+      <c r="R867" t="inlineStr">
+        <is>
+          <t>客反爲主</t>
+        </is>
+      </c>
+      <c r="S867" t="inlineStr">
+        <is>
+          <t>객반위주|손님이 오히려 주인인 체하다</t>
+        </is>
+      </c>
+      <c r="T867" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+      <c r="U867" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
